--- a/data/master.xlsx
+++ b/data/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meita\Documents\shenkar\jma\web\wip\images\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E282ABB7-66CC-4966-B4C8-24A4353CE991}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3638C94B-AF9C-48A0-9F7E-951EE3EA7796}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7871DC3D-A5B0-4109-9146-9D25B3AE1BFC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="63">
   <si>
     <t>?</t>
   </si>
@@ -105,28 +105,10 @@
     <t>primary</t>
   </si>
   <si>
-    <t>arab</t>
-  </si>
-  <si>
     <t>eclectic</t>
   </si>
   <si>
     <t>else</t>
-  </si>
-  <si>
-    <t>international</t>
-  </si>
-  <si>
-    <t>very_early</t>
-  </si>
-  <si>
-    <t>american-templar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eclectic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">arab </t>
   </si>
   <si>
     <t>secondary</t>
@@ -211,6 +193,30 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> arab</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> arab </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eclectic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eclectic </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> international</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> american-templar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> else</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> very_early</t>
   </si>
 </sst>
 </file>
@@ -761,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB95E723-2DD8-4CC6-A84A-A232C9AEC38A}">
   <dimension ref="A1:Z701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G76" zoomScale="93" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,7 +801,7 @@
         <v>23</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>16</v>
@@ -864,7 +870,7 @@
         <v>24</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
@@ -941,10 +947,10 @@
         <v>1</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
@@ -1021,10 +1027,10 @@
         <v>23</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -1101,10 +1107,10 @@
         <v>25</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -1181,10 +1187,10 @@
         <v>17</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
@@ -1261,10 +1267,10 @@
         <v>14</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
@@ -1341,10 +1347,10 @@
         <v>10</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
@@ -1421,10 +1427,10 @@
         <v>10</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
@@ -1501,10 +1507,10 @@
         <v>12</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
@@ -1581,10 +1587,10 @@
         <v>10</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
@@ -1661,10 +1667,10 @@
         <v>15</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
@@ -1741,10 +1747,10 @@
         <v>15</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
@@ -1821,10 +1827,10 @@
         <v>11</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
@@ -1901,10 +1907,10 @@
         <v>11</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
@@ -1981,10 +1987,10 @@
         <v>10</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
@@ -2061,10 +2067,10 @@
         <v>10</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
@@ -2141,10 +2147,10 @@
         <v>11</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
@@ -2221,10 +2227,10 @@
         <v>10</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
@@ -2301,10 +2307,10 @@
         <v>15</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
@@ -2381,10 +2387,10 @@
         <v>12</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
@@ -2461,10 +2467,10 @@
         <v>48</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
@@ -2541,10 +2547,10 @@
         <v>43</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
@@ -2621,10 +2627,10 @@
         <v>47</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -2701,10 +2707,10 @@
         <v>43</v>
       </c>
       <c r="Y24" s="6" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z24" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
@@ -2781,10 +2787,10 @@
         <v>46</v>
       </c>
       <c r="Y25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z25" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="Z25" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
@@ -2861,10 +2867,10 @@
         <v>46</v>
       </c>
       <c r="Y26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z26" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="Z26" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
@@ -2941,10 +2947,10 @@
         <v>46</v>
       </c>
       <c r="Y27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z27" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="Z27" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
@@ -3021,10 +3027,10 @@
         <v>45</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
@@ -3101,10 +3107,10 @@
         <v>44</v>
       </c>
       <c r="Y29" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z29" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
@@ -3181,10 +3187,10 @@
         <v>47</v>
       </c>
       <c r="Y30" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z30" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
@@ -3261,10 +3267,10 @@
         <v>47</v>
       </c>
       <c r="Y31" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z31" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
@@ -3341,10 +3347,10 @@
         <v>43</v>
       </c>
       <c r="Y32" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z32" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
@@ -3421,10 +3427,10 @@
         <v>44</v>
       </c>
       <c r="Y33" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z33" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
@@ -3501,10 +3507,10 @@
         <v>48</v>
       </c>
       <c r="Y34" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z34" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
@@ -3581,10 +3587,10 @@
         <v>48</v>
       </c>
       <c r="Y35" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z35" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
@@ -3661,10 +3667,10 @@
         <v>46</v>
       </c>
       <c r="Y36" s="7" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z36" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
@@ -3741,10 +3747,10 @@
         <v>45</v>
       </c>
       <c r="Y37" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z37" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
@@ -3821,10 +3827,10 @@
         <v>44</v>
       </c>
       <c r="Y38" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z38" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
@@ -3901,10 +3907,10 @@
         <v>44</v>
       </c>
       <c r="Y39" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z39" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
@@ -3981,10 +3987,10 @@
         <v>48</v>
       </c>
       <c r="Y40" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z40" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
@@ -4061,10 +4067,10 @@
         <v>49</v>
       </c>
       <c r="Y41" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z41" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
@@ -4141,10 +4147,10 @@
         <v>44</v>
       </c>
       <c r="Y42" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z42" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
@@ -4221,10 +4227,10 @@
         <v>45</v>
       </c>
       <c r="Y43" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z43" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
@@ -4301,10 +4307,10 @@
         <v>43</v>
       </c>
       <c r="Y44" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z44" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
@@ -4381,10 +4387,10 @@
         <v>45</v>
       </c>
       <c r="Y45" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z45" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
@@ -4461,10 +4467,10 @@
         <v>47</v>
       </c>
       <c r="Y46" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z46" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
@@ -4541,10 +4547,10 @@
         <v>46</v>
       </c>
       <c r="Y47" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z47" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
@@ -4621,10 +4627,10 @@
         <v>46</v>
       </c>
       <c r="Y48" s="5" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="Z48" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
@@ -4701,10 +4707,10 @@
         <v>44</v>
       </c>
       <c r="Y49" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z49" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
@@ -4781,10 +4787,10 @@
         <v>47</v>
       </c>
       <c r="Y50" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z50" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
@@ -4861,10 +4867,10 @@
         <v>43</v>
       </c>
       <c r="Y51" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z51" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
@@ -4941,10 +4947,10 @@
         <v>43</v>
       </c>
       <c r="Y52" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z52" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
@@ -5021,10 +5027,10 @@
         <v>48</v>
       </c>
       <c r="Y53" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z53" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.3">
@@ -5101,10 +5107,10 @@
         <v>47</v>
       </c>
       <c r="Y54" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z54" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
@@ -5181,10 +5187,10 @@
         <v>46</v>
       </c>
       <c r="Y55" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z55" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
@@ -5261,10 +5267,10 @@
         <v>48</v>
       </c>
       <c r="Y56" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z56" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
@@ -5341,10 +5347,10 @@
         <v>47</v>
       </c>
       <c r="Y57" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z57" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
@@ -5421,10 +5427,10 @@
         <v>48</v>
       </c>
       <c r="Y58" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z58" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
@@ -5501,10 +5507,10 @@
         <v>48</v>
       </c>
       <c r="Y59" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z59" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.3">
@@ -5581,10 +5587,10 @@
         <v>48</v>
       </c>
       <c r="Y60" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z60" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.3">
@@ -5661,10 +5667,10 @@
         <v>48</v>
       </c>
       <c r="Y61" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z61" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.3">
@@ -5741,10 +5747,10 @@
         <v>45</v>
       </c>
       <c r="Y62" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z62" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
@@ -5821,10 +5827,10 @@
         <v>48</v>
       </c>
       <c r="Y63" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z63" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
@@ -5901,10 +5907,10 @@
         <v>49</v>
       </c>
       <c r="Y64" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z64" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.3">
@@ -5981,10 +5987,10 @@
         <v>43</v>
       </c>
       <c r="Y65" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z65" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.3">
@@ -6061,10 +6067,10 @@
         <v>49</v>
       </c>
       <c r="Y66" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z66" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.3">
@@ -6141,10 +6147,10 @@
         <v>45</v>
       </c>
       <c r="Y67" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z67" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.3">
@@ -6221,10 +6227,10 @@
         <v>46</v>
       </c>
       <c r="Y68" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z68" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.3">
@@ -6301,10 +6307,10 @@
         <v>47</v>
       </c>
       <c r="Y69" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z69" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.3">
@@ -6381,10 +6387,10 @@
         <v>46</v>
       </c>
       <c r="Y70" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z70" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.3">
@@ -6461,10 +6467,10 @@
         <v>46</v>
       </c>
       <c r="Y71" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z71" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.3">
@@ -6541,10 +6547,10 @@
         <v>49</v>
       </c>
       <c r="Y72" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z72" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.3">
@@ -6621,10 +6627,10 @@
         <v>48</v>
       </c>
       <c r="Y73" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z73" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.3">
@@ -6701,10 +6707,10 @@
         <v>48</v>
       </c>
       <c r="Y74" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z74" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.3">
@@ -6781,10 +6787,10 @@
         <v>49</v>
       </c>
       <c r="Y75" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z75" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.3">
@@ -6861,10 +6867,10 @@
         <v>49</v>
       </c>
       <c r="Y76" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z76" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.3">
@@ -6941,10 +6947,10 @@
         <v>48</v>
       </c>
       <c r="Y77" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z77" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.3">
@@ -7021,10 +7027,10 @@
         <v>49</v>
       </c>
       <c r="Y78" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z78" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.3">
@@ -7101,10 +7107,10 @@
         <v>49</v>
       </c>
       <c r="Y79" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z79" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.3">
@@ -7181,10 +7187,10 @@
         <v>45</v>
       </c>
       <c r="Y80" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z80" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
@@ -7261,10 +7267,10 @@
         <v>48</v>
       </c>
       <c r="Y81" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z81" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.3">
@@ -7341,10 +7347,10 @@
         <v>49</v>
       </c>
       <c r="Y82" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z82" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
@@ -7421,10 +7427,10 @@
         <v>48</v>
       </c>
       <c r="Y83" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z83" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
@@ -7501,10 +7507,10 @@
         <v>9</v>
       </c>
       <c r="Y84" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z84" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.3">
@@ -7581,10 +7587,10 @@
         <v>13</v>
       </c>
       <c r="Y85" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z85" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
@@ -7610,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="H86" s="18" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I86" s="19">
         <v>2.9103999999999997E-11</v>
@@ -7661,10 +7667,10 @@
         <v>0</v>
       </c>
       <c r="Y86" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z86" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.3">
@@ -7741,10 +7747,10 @@
         <v>9</v>
       </c>
       <c r="Y87" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z87" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
@@ -7821,10 +7827,10 @@
         <v>12</v>
       </c>
       <c r="Y88" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z88" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.3">
@@ -7901,10 +7907,10 @@
         <v>14</v>
       </c>
       <c r="Y89" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z89" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.3">
@@ -7981,10 +7987,10 @@
         <v>10</v>
       </c>
       <c r="Y90" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z90" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.3">
@@ -8061,10 +8067,10 @@
         <v>10</v>
       </c>
       <c r="Y91" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z91" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.3">
@@ -8141,10 +8147,10 @@
         <v>15</v>
       </c>
       <c r="Y92" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z92" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.3">
@@ -8221,10 +8227,10 @@
         <v>11</v>
       </c>
       <c r="Y93" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z93" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.3">
@@ -8301,10 +8307,10 @@
         <v>11</v>
       </c>
       <c r="Y94" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z94" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.3">
@@ -8381,10 +8387,10 @@
         <v>12</v>
       </c>
       <c r="Y95" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z95" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.3">
@@ -8461,10 +8467,10 @@
         <v>11</v>
       </c>
       <c r="Y96" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z96" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.3">
@@ -8541,10 +8547,10 @@
         <v>11</v>
       </c>
       <c r="Y97" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z97" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
@@ -8621,10 +8627,10 @@
         <v>11</v>
       </c>
       <c r="Y98" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z98" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.3">
@@ -8701,10 +8707,10 @@
         <v>11</v>
       </c>
       <c r="Y99" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z99" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.3">
@@ -8781,10 +8787,10 @@
         <v>11</v>
       </c>
       <c r="Y100" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z100" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.3">
@@ -8861,10 +8867,10 @@
         <v>10</v>
       </c>
       <c r="Y101" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z101" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.3">
@@ -8941,10 +8947,10 @@
         <v>14</v>
       </c>
       <c r="Y102" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z102" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.3">
@@ -9021,10 +9027,10 @@
         <v>9</v>
       </c>
       <c r="Y103" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z103" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.3">
@@ -9101,10 +9107,10 @@
         <v>9</v>
       </c>
       <c r="Y104" s="5" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Z104" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.3">
@@ -9181,10 +9187,10 @@
         <v>16</v>
       </c>
       <c r="Y105" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z105" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.3">
@@ -9261,10 +9267,10 @@
         <v>16</v>
       </c>
       <c r="Y106" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z106" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.3">
@@ -9341,10 +9347,10 @@
         <v>16</v>
       </c>
       <c r="Y107" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z107" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.3">
@@ -9421,10 +9427,10 @@
         <v>16</v>
       </c>
       <c r="Y108" s="8" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z108" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.3">
@@ -9501,10 +9507,10 @@
         <v>15</v>
       </c>
       <c r="Y109" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z109" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.3">
@@ -9581,10 +9587,10 @@
         <v>15</v>
       </c>
       <c r="Y110" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z110" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.3">
@@ -9661,10 +9667,10 @@
         <v>15</v>
       </c>
       <c r="Y111" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z111" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.3">
@@ -9741,10 +9747,10 @@
         <v>11</v>
       </c>
       <c r="Y112" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z112" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
@@ -9821,10 +9827,10 @@
         <v>11</v>
       </c>
       <c r="Y113" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z113" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
@@ -9901,10 +9907,10 @@
         <v>15</v>
       </c>
       <c r="Y114" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z114" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.3">
@@ -9981,10 +9987,10 @@
         <v>20</v>
       </c>
       <c r="Y115" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z115" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.3">
@@ -10061,10 +10067,10 @@
         <v>17</v>
       </c>
       <c r="Y116" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z116" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.3">
@@ -10141,10 +10147,10 @@
         <v>9</v>
       </c>
       <c r="Y117" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z117" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.3">
@@ -10221,10 +10227,10 @@
         <v>19</v>
       </c>
       <c r="Y118" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z118" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.3">
@@ -10301,10 +10307,10 @@
         <v>17</v>
       </c>
       <c r="Y119" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z119" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.3">
@@ -10354,7 +10360,7 @@
         <v>1</v>
       </c>
       <c r="P120" s="12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Q120" s="5">
         <v>29</v>
@@ -10381,10 +10387,10 @@
         <v>17</v>
       </c>
       <c r="Y120" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z120" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.3">
@@ -10461,10 +10467,10 @@
         <v>11</v>
       </c>
       <c r="Y121" s="5" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="Z121" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
@@ -10541,10 +10547,10 @@
         <v>11</v>
       </c>
       <c r="Y122" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z122" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.3">
@@ -10621,10 +10627,10 @@
         <v>11</v>
       </c>
       <c r="Y123" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z123" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.3">
@@ -10701,10 +10707,10 @@
         <v>11</v>
       </c>
       <c r="Y124" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z124" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.3">
@@ -10781,10 +10787,10 @@
         <v>9</v>
       </c>
       <c r="Y125" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z125" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.3">
@@ -10861,10 +10867,10 @@
         <v>16</v>
       </c>
       <c r="Y126" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z126" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.3">
@@ -10941,10 +10947,10 @@
         <v>9</v>
       </c>
       <c r="Y127" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z127" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.3">
@@ -11021,10 +11027,10 @@
         <v>16</v>
       </c>
       <c r="Y128" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z128" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.3">
@@ -11101,10 +11107,10 @@
         <v>8</v>
       </c>
       <c r="Y129" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z129" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.3">
@@ -11181,10 +11187,10 @@
         <v>10</v>
       </c>
       <c r="Y130" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z130" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.3">
@@ -11261,10 +11267,10 @@
         <v>12</v>
       </c>
       <c r="Y131" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z131" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.3">
@@ -11341,10 +11347,10 @@
         <v>10</v>
       </c>
       <c r="Y132" s="5" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Z132" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.3">
@@ -11421,10 +11427,10 @@
         <v>10</v>
       </c>
       <c r="Y133" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z133" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.3">
@@ -11501,10 +11507,10 @@
         <v>14</v>
       </c>
       <c r="Y134" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z134" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.3">
@@ -11581,10 +11587,10 @@
         <v>46</v>
       </c>
       <c r="Y135" s="7" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z135" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.3">
@@ -11661,10 +11667,10 @@
         <v>10</v>
       </c>
       <c r="Y136" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z136" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.3">
@@ -11741,10 +11747,10 @@
         <v>8</v>
       </c>
       <c r="Y137" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z137" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="Z137" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.3">
@@ -11821,10 +11827,10 @@
         <v>12</v>
       </c>
       <c r="Y138" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z138" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="Z138" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.3">
@@ -11901,10 +11907,10 @@
         <v>8</v>
       </c>
       <c r="Y139" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z139" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="Z139" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.3">
@@ -11981,10 +11987,10 @@
         <v>12</v>
       </c>
       <c r="Y140" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z140" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="Z140" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.3">
@@ -12061,10 +12067,10 @@
         <v>40</v>
       </c>
       <c r="Y141" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z141" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="Z141" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.3">
@@ -12141,10 +12147,10 @@
         <v>28</v>
       </c>
       <c r="Y142" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z142" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.3">
@@ -12221,10 +12227,10 @@
         <v>44</v>
       </c>
       <c r="Y143" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z143" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.3">
@@ -12301,10 +12307,10 @@
         <v>44</v>
       </c>
       <c r="Y144" s="5" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="Z144" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.3">
@@ -12381,10 +12387,10 @@
         <v>43</v>
       </c>
       <c r="Y145" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z145" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.3">
@@ -12461,10 +12467,10 @@
         <v>45</v>
       </c>
       <c r="Y146" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z146" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.3">
@@ -12541,10 +12547,10 @@
         <v>47</v>
       </c>
       <c r="Y147" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z147" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.3">
@@ -12621,10 +12627,10 @@
         <v>43</v>
       </c>
       <c r="Y148" s="7" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z148" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.3">
@@ -12701,10 +12707,10 @@
         <v>43</v>
       </c>
       <c r="Y149" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z149" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.3">
@@ -12781,10 +12787,10 @@
         <v>47</v>
       </c>
       <c r="Y150" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z150" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.3">
@@ -12861,10 +12867,10 @@
         <v>44</v>
       </c>
       <c r="Y151" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z151" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="Z151" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.3">
@@ -12941,10 +12947,10 @@
         <v>48</v>
       </c>
       <c r="Y152" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z152" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.3">
@@ -13021,10 +13027,10 @@
         <v>43</v>
       </c>
       <c r="Y153" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z153" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="Z153" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.3">
@@ -13101,10 +13107,10 @@
         <v>47</v>
       </c>
       <c r="Y154" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z154" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.3">
@@ -13181,10 +13187,10 @@
         <v>49</v>
       </c>
       <c r="Y155" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z155" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.3">
@@ -13261,10 +13267,10 @@
         <v>46</v>
       </c>
       <c r="Y156" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z156" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.3">
@@ -13341,10 +13347,10 @@
         <v>49</v>
       </c>
       <c r="Y157" s="8" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z157" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.3">
@@ -13421,10 +13427,10 @@
         <v>43</v>
       </c>
       <c r="Y158" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z158" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.3">
@@ -13501,10 +13507,10 @@
         <v>43</v>
       </c>
       <c r="Y159" s="5" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="Z159" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.3">
@@ -13581,10 +13587,10 @@
         <v>45</v>
       </c>
       <c r="Y160" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z160" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.3">
@@ -13661,10 +13667,10 @@
         <v>49</v>
       </c>
       <c r="Y161" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z161" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.3">
@@ -13741,10 +13747,10 @@
         <v>47</v>
       </c>
       <c r="Y162" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z162" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.3">
@@ -13821,10 +13827,10 @@
         <v>46</v>
       </c>
       <c r="Y163" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z163" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.3">
@@ -13901,10 +13907,10 @@
         <v>47</v>
       </c>
       <c r="Y164" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z164" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.3">
@@ -13981,10 +13987,10 @@
         <v>47</v>
       </c>
       <c r="Y165" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z165" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.3">
@@ -14061,10 +14067,10 @@
         <v>46</v>
       </c>
       <c r="Y166" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z166" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.3">
@@ -14141,10 +14147,10 @@
         <v>48</v>
       </c>
       <c r="Y167" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z167" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.3">
@@ -14221,10 +14227,10 @@
         <v>45</v>
       </c>
       <c r="Y168" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z168" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.3">
@@ -14301,10 +14307,10 @@
         <v>49</v>
       </c>
       <c r="Y169" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z169" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.3">
@@ -14381,10 +14387,10 @@
         <v>46</v>
       </c>
       <c r="Y170" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z170" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.3">
@@ -14461,10 +14467,10 @@
         <v>49</v>
       </c>
       <c r="Y171" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z171" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.3">
@@ -14541,10 +14547,10 @@
         <v>11</v>
       </c>
       <c r="Y172" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z172" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.3">
@@ -14621,10 +14627,10 @@
         <v>13</v>
       </c>
       <c r="Y173" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z173" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.3">
@@ -14701,10 +14707,10 @@
         <v>11</v>
       </c>
       <c r="Y174" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z174" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.3">
@@ -14781,10 +14787,10 @@
         <v>10</v>
       </c>
       <c r="Y175" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z175" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.3">
@@ -14861,10 +14867,10 @@
         <v>15</v>
       </c>
       <c r="Y176" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z176" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.3">
@@ -14941,10 +14947,10 @@
         <v>10</v>
       </c>
       <c r="Y177" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z177" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.3">
@@ -15021,10 +15027,10 @@
         <v>10</v>
       </c>
       <c r="Y178" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z178" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.3">
@@ -15101,10 +15107,10 @@
         <v>14</v>
       </c>
       <c r="Y179" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z179" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.3">
@@ -15181,10 +15187,10 @@
         <v>19</v>
       </c>
       <c r="Y180" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z180" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.3">
@@ -15261,10 +15267,10 @@
         <v>11</v>
       </c>
       <c r="Y181" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z181" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.3">
@@ -15341,10 +15347,10 @@
         <v>19</v>
       </c>
       <c r="Y182" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z182" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.3">
@@ -15421,10 +15427,10 @@
         <v>19</v>
       </c>
       <c r="Y183" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z183" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.3">
@@ -15501,10 +15507,10 @@
         <v>15</v>
       </c>
       <c r="Y184" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z184" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.3">
@@ -15581,10 +15587,10 @@
         <v>11</v>
       </c>
       <c r="Y185" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z185" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.3">
@@ -15661,10 +15667,10 @@
         <v>10</v>
       </c>
       <c r="Y186" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z186" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="187" spans="1:26" x14ac:dyDescent="0.3">
@@ -15741,10 +15747,10 @@
         <v>10</v>
       </c>
       <c r="Y187" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z187" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.3">
@@ -15821,10 +15827,10 @@
         <v>49</v>
       </c>
       <c r="Y188" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z188" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.3">
@@ -15901,10 +15907,10 @@
         <v>12</v>
       </c>
       <c r="Y189" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z189" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.3">
@@ -15981,10 +15987,10 @@
         <v>11</v>
       </c>
       <c r="Y190" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z190" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="191" spans="1:26" x14ac:dyDescent="0.3">
@@ -16061,10 +16067,10 @@
         <v>11</v>
       </c>
       <c r="Y191" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z191" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.3">
@@ -16141,10 +16147,10 @@
         <v>10</v>
       </c>
       <c r="Y192" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z192" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.3">
@@ -16221,10 +16227,10 @@
         <v>14</v>
       </c>
       <c r="Y193" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z193" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.3">
@@ -16301,10 +16307,10 @@
         <v>11</v>
       </c>
       <c r="Y194" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z194" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.3">
@@ -16381,10 +16387,10 @@
         <v>12</v>
       </c>
       <c r="Y195" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z195" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.3">
@@ -16461,10 +16467,10 @@
         <v>11</v>
       </c>
       <c r="Y196" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z196" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="197" spans="1:26" x14ac:dyDescent="0.3">
@@ -16541,10 +16547,10 @@
         <v>45</v>
       </c>
       <c r="Y197" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z197" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="198" spans="1:26" x14ac:dyDescent="0.3">
@@ -16621,10 +16627,10 @@
         <v>47</v>
       </c>
       <c r="Y198" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z198" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="199" spans="1:26" x14ac:dyDescent="0.3">
@@ -16701,10 +16707,10 @@
         <v>47</v>
       </c>
       <c r="Y199" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z199" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="200" spans="1:26" x14ac:dyDescent="0.3">
@@ -16781,10 +16787,10 @@
         <v>45</v>
       </c>
       <c r="Y200" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z200" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="201" spans="1:26" x14ac:dyDescent="0.3">
@@ -16861,10 +16867,10 @@
         <v>45</v>
       </c>
       <c r="Y201" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z201" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="202" spans="1:26" x14ac:dyDescent="0.3">
@@ -16941,10 +16947,10 @@
         <v>45</v>
       </c>
       <c r="Y202" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z202" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="203" spans="1:26" x14ac:dyDescent="0.3">
@@ -17021,10 +17027,10 @@
         <v>48</v>
       </c>
       <c r="Y203" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z203" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.3">
@@ -17101,10 +17107,10 @@
         <v>48</v>
       </c>
       <c r="Y204" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z204" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="205" spans="1:26" x14ac:dyDescent="0.3">
@@ -17181,10 +17187,10 @@
         <v>47</v>
       </c>
       <c r="Y205" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z205" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="206" spans="1:26" x14ac:dyDescent="0.3">
@@ -17261,10 +17267,10 @@
         <v>42</v>
       </c>
       <c r="Y206" s="5" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Z206" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="207" spans="1:26" x14ac:dyDescent="0.3">
@@ -17341,10 +17347,10 @@
         <v>48</v>
       </c>
       <c r="Y207" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z207" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="208" spans="1:26" x14ac:dyDescent="0.3">
@@ -17421,10 +17427,10 @@
         <v>46</v>
       </c>
       <c r="Y208" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z208" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="209" spans="1:26" x14ac:dyDescent="0.3">
@@ -17501,10 +17507,10 @@
         <v>44</v>
       </c>
       <c r="Y209" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z209" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.3">
@@ -17581,10 +17587,10 @@
         <v>45</v>
       </c>
       <c r="Y210" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z210" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="211" spans="1:26" x14ac:dyDescent="0.3">
@@ -17661,10 +17667,10 @@
         <v>46</v>
       </c>
       <c r="Y211" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z211" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="212" spans="1:26" x14ac:dyDescent="0.3">
@@ -17741,10 +17747,10 @@
         <v>44</v>
       </c>
       <c r="Y212" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z212" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="213" spans="1:26" x14ac:dyDescent="0.3">
@@ -17821,10 +17827,10 @@
         <v>44</v>
       </c>
       <c r="Y213" s="5" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="Z213" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="214" spans="1:26" x14ac:dyDescent="0.3">
@@ -17901,10 +17907,10 @@
         <v>44</v>
       </c>
       <c r="Y214" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z214" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="215" spans="1:26" x14ac:dyDescent="0.3">
@@ -17981,10 +17987,10 @@
         <v>46</v>
       </c>
       <c r="Y215" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z215" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="216" spans="1:26" x14ac:dyDescent="0.3">
@@ -18061,10 +18067,10 @@
         <v>47</v>
       </c>
       <c r="Y216" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z216" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="217" spans="1:26" x14ac:dyDescent="0.3">
@@ -18141,10 +18147,10 @@
         <v>48</v>
       </c>
       <c r="Y217" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z217" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="218" spans="1:26" x14ac:dyDescent="0.3">
@@ -18221,10 +18227,10 @@
         <v>45</v>
       </c>
       <c r="Y218" s="5" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="Z218" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="219" spans="1:26" x14ac:dyDescent="0.3">
@@ -18301,10 +18307,10 @@
         <v>45</v>
       </c>
       <c r="Y219" s="8" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z219" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="220" spans="1:26" x14ac:dyDescent="0.3">
@@ -18381,10 +18387,10 @@
         <v>49</v>
       </c>
       <c r="Y220" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z220" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="221" spans="1:26" x14ac:dyDescent="0.3">
@@ -18461,10 +18467,10 @@
         <v>46</v>
       </c>
       <c r="Y221" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z221" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="222" spans="1:26" x14ac:dyDescent="0.3">
@@ -18541,10 +18547,10 @@
         <v>45</v>
       </c>
       <c r="Y222" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z222" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="223" spans="1:26" x14ac:dyDescent="0.3">
@@ -18621,10 +18627,10 @@
         <v>15</v>
       </c>
       <c r="Y223" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z223" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="224" spans="1:26" x14ac:dyDescent="0.3">
@@ -18701,10 +18707,10 @@
         <v>9</v>
       </c>
       <c r="Y224" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z224" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="225" spans="1:26" x14ac:dyDescent="0.3">
@@ -18781,10 +18787,10 @@
         <v>10</v>
       </c>
       <c r="Y225" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z225" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="226" spans="1:26" x14ac:dyDescent="0.3">
@@ -18861,10 +18867,10 @@
         <v>14</v>
       </c>
       <c r="Y226" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z226" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="227" spans="1:26" x14ac:dyDescent="0.3">
@@ -18941,10 +18947,10 @@
         <v>14</v>
       </c>
       <c r="Y227" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z227" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="228" spans="1:26" x14ac:dyDescent="0.3">
@@ -19021,10 +19027,10 @@
         <v>11</v>
       </c>
       <c r="Y228" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z228" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="229" spans="1:26" x14ac:dyDescent="0.3">
@@ -19101,10 +19107,10 @@
         <v>8</v>
       </c>
       <c r="Y229" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z229" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="230" spans="1:26" x14ac:dyDescent="0.3">
@@ -19181,10 +19187,10 @@
         <v>8</v>
       </c>
       <c r="Y230" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z230" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="231" spans="1:26" x14ac:dyDescent="0.3">
@@ -19261,10 +19267,10 @@
         <v>9</v>
       </c>
       <c r="Y231" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z231" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="232" spans="1:26" x14ac:dyDescent="0.3">
@@ -19341,10 +19347,10 @@
         <v>10</v>
       </c>
       <c r="Y232" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z232" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.3">
@@ -19421,10 +19427,10 @@
         <v>10</v>
       </c>
       <c r="Y233" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z233" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.3">
@@ -19501,10 +19507,10 @@
         <v>14</v>
       </c>
       <c r="Y234" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z234" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.3">
@@ -19581,10 +19587,10 @@
         <v>10</v>
       </c>
       <c r="Y235" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z235" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="236" spans="1:26" x14ac:dyDescent="0.3">
@@ -19661,10 +19667,10 @@
         <v>14</v>
       </c>
       <c r="Y236" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z236" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="237" spans="1:26" x14ac:dyDescent="0.3">
@@ -19741,10 +19747,10 @@
         <v>15</v>
       </c>
       <c r="Y237" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z237" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="238" spans="1:26" x14ac:dyDescent="0.3">
@@ -19821,10 +19827,10 @@
         <v>15</v>
       </c>
       <c r="Y238" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z238" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="239" spans="1:26" x14ac:dyDescent="0.3">
@@ -19901,10 +19907,10 @@
         <v>10</v>
       </c>
       <c r="Y239" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z239" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="240" spans="1:26" x14ac:dyDescent="0.3">
@@ -19981,10 +19987,10 @@
         <v>16</v>
       </c>
       <c r="Y240" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z240" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="241" spans="1:26" x14ac:dyDescent="0.3">
@@ -20061,10 +20067,10 @@
         <v>9</v>
       </c>
       <c r="Y241" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z241" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="242" spans="1:26" x14ac:dyDescent="0.3">
@@ -20141,10 +20147,10 @@
         <v>47</v>
       </c>
       <c r="Y242" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z242" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="243" spans="1:26" x14ac:dyDescent="0.3">
@@ -20221,10 +20227,10 @@
         <v>48</v>
       </c>
       <c r="Y243" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z243" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="244" spans="1:26" x14ac:dyDescent="0.3">
@@ -20301,10 +20307,10 @@
         <v>11</v>
       </c>
       <c r="Y244" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z244" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="245" spans="1:26" x14ac:dyDescent="0.3">
@@ -20381,10 +20387,10 @@
         <v>11</v>
       </c>
       <c r="Y245" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z245" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="246" spans="1:26" x14ac:dyDescent="0.3">
@@ -20461,10 +20467,10 @@
         <v>11</v>
       </c>
       <c r="Y246" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z246" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="247" spans="1:26" x14ac:dyDescent="0.3">
@@ -20541,10 +20547,10 @@
         <v>11</v>
       </c>
       <c r="Y247" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z247" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="248" spans="1:26" x14ac:dyDescent="0.3">
@@ -20621,10 +20627,10 @@
         <v>11</v>
       </c>
       <c r="Y248" s="8" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z248" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="249" spans="1:26" x14ac:dyDescent="0.3">
@@ -20701,10 +20707,10 @@
         <v>10</v>
       </c>
       <c r="Y249" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z249" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="250" spans="1:26" x14ac:dyDescent="0.3">
@@ -20781,10 +20787,10 @@
         <v>16</v>
       </c>
       <c r="Y250" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z250" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="251" spans="1:26" x14ac:dyDescent="0.3">
@@ -20861,10 +20867,10 @@
         <v>12</v>
       </c>
       <c r="Y251" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z251" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="252" spans="1:26" x14ac:dyDescent="0.3">
@@ -20941,10 +20947,10 @@
         <v>12</v>
       </c>
       <c r="Y252" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z252" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="253" spans="1:26" x14ac:dyDescent="0.3">
@@ -21021,10 +21027,10 @@
         <v>13</v>
       </c>
       <c r="Y253" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z253" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="254" spans="1:26" x14ac:dyDescent="0.3">
@@ -21101,10 +21107,10 @@
         <v>13</v>
       </c>
       <c r="Y254" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z254" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="255" spans="1:26" x14ac:dyDescent="0.3">
@@ -21181,10 +21187,10 @@
         <v>16</v>
       </c>
       <c r="Y255" s="5" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="Z255" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="256" spans="1:26" x14ac:dyDescent="0.3">
@@ -21261,10 +21267,10 @@
         <v>13</v>
       </c>
       <c r="Y256" s="5" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="Z256" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="257" spans="1:26" x14ac:dyDescent="0.3">
@@ -21341,10 +21347,10 @@
         <v>16</v>
       </c>
       <c r="Y257" s="5" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="Z257" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="258" spans="1:26" x14ac:dyDescent="0.3">
@@ -21421,10 +21427,10 @@
         <v>15</v>
       </c>
       <c r="Y258" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z258" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="259" spans="1:26" x14ac:dyDescent="0.3">
@@ -21501,10 +21507,10 @@
         <v>15</v>
       </c>
       <c r="Y259" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z259" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="260" spans="1:26" x14ac:dyDescent="0.3">
@@ -21581,10 +21587,10 @@
         <v>48</v>
       </c>
       <c r="Y260" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z260" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="261" spans="1:26" x14ac:dyDescent="0.3">
@@ -21661,10 +21667,10 @@
         <v>13</v>
       </c>
       <c r="Y261" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z261" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="262" spans="1:26" x14ac:dyDescent="0.3">
@@ -21741,10 +21747,10 @@
         <v>14</v>
       </c>
       <c r="Y262" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z262" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="263" spans="1:26" x14ac:dyDescent="0.3">
@@ -21821,10 +21827,10 @@
         <v>11</v>
       </c>
       <c r="Y263" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z263" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="264" spans="1:26" x14ac:dyDescent="0.3">
@@ -21901,10 +21907,10 @@
         <v>10</v>
       </c>
       <c r="Y264" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z264" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="265" spans="1:26" x14ac:dyDescent="0.3">
@@ -21981,10 +21987,10 @@
         <v>11</v>
       </c>
       <c r="Y265" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z265" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="266" spans="1:26" x14ac:dyDescent="0.3">
@@ -22061,10 +22067,10 @@
         <v>9</v>
       </c>
       <c r="Y266" s="5" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="Z266" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="267" spans="1:26" x14ac:dyDescent="0.3">
@@ -22141,10 +22147,10 @@
         <v>12</v>
       </c>
       <c r="Y267" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z267" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="268" spans="1:26" x14ac:dyDescent="0.3">
@@ -22221,10 +22227,10 @@
         <v>10</v>
       </c>
       <c r="Y268" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z268" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="269" spans="1:26" x14ac:dyDescent="0.3">
@@ -22301,10 +22307,10 @@
         <v>14</v>
       </c>
       <c r="Y269" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z269" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="270" spans="1:26" x14ac:dyDescent="0.3">
@@ -22381,10 +22387,10 @@
         <v>12</v>
       </c>
       <c r="Y270" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z270" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="271" spans="1:26" x14ac:dyDescent="0.3">
@@ -22461,10 +22467,10 @@
         <v>12</v>
       </c>
       <c r="Y271" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z271" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="272" spans="1:26" x14ac:dyDescent="0.3">
@@ -22541,10 +22547,10 @@
         <v>10</v>
       </c>
       <c r="Y272" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z272" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="273" spans="1:26" x14ac:dyDescent="0.3">
@@ -22621,10 +22627,10 @@
         <v>14</v>
       </c>
       <c r="Y273" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z273" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="274" spans="1:26" x14ac:dyDescent="0.3">
@@ -22701,10 +22707,10 @@
         <v>10</v>
       </c>
       <c r="Y274" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z274" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="275" spans="1:26" x14ac:dyDescent="0.3">
@@ -22781,10 +22787,10 @@
         <v>10</v>
       </c>
       <c r="Y275" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z275" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="276" spans="1:26" x14ac:dyDescent="0.3">
@@ -22861,10 +22867,10 @@
         <v>10</v>
       </c>
       <c r="Y276" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z276" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="277" spans="1:26" x14ac:dyDescent="0.3">
@@ -22941,10 +22947,10 @@
         <v>10</v>
       </c>
       <c r="Y277" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z277" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="278" spans="1:26" x14ac:dyDescent="0.3">
@@ -23021,10 +23027,10 @@
         <v>10</v>
       </c>
       <c r="Y278" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z278" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="279" spans="1:26" x14ac:dyDescent="0.3">
@@ -23101,10 +23107,10 @@
         <v>14</v>
       </c>
       <c r="Y279" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z279" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="280" spans="1:26" x14ac:dyDescent="0.3">
@@ -23181,10 +23187,10 @@
         <v>12</v>
       </c>
       <c r="Y280" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z280" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="281" spans="1:26" x14ac:dyDescent="0.3">
@@ -23261,10 +23267,10 @@
         <v>8</v>
       </c>
       <c r="Y281" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z281" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="282" spans="1:26" x14ac:dyDescent="0.3">
@@ -23341,10 +23347,10 @@
         <v>9</v>
       </c>
       <c r="Y282" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z282" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="283" spans="1:26" x14ac:dyDescent="0.3">
@@ -23421,10 +23427,10 @@
         <v>14</v>
       </c>
       <c r="Y283" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z283" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="284" spans="1:26" x14ac:dyDescent="0.3">
@@ -23501,10 +23507,10 @@
         <v>13</v>
       </c>
       <c r="Y284" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z284" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="285" spans="1:26" x14ac:dyDescent="0.3">
@@ -23581,10 +23587,10 @@
         <v>12</v>
       </c>
       <c r="Y285" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z285" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="286" spans="1:26" x14ac:dyDescent="0.3">
@@ -23661,10 +23667,10 @@
         <v>16</v>
       </c>
       <c r="Y286" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z286" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="287" spans="1:26" x14ac:dyDescent="0.3">
@@ -23741,10 +23747,10 @@
         <v>11</v>
       </c>
       <c r="Y287" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z287" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="288" spans="1:26" x14ac:dyDescent="0.3">
@@ -23821,10 +23827,10 @@
         <v>10</v>
       </c>
       <c r="Y288" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z288" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="289" spans="1:26" x14ac:dyDescent="0.3">
@@ -23901,10 +23907,10 @@
         <v>9</v>
       </c>
       <c r="Y289" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z289" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="290" spans="1:26" x14ac:dyDescent="0.3">
@@ -23981,10 +23987,10 @@
         <v>9</v>
       </c>
       <c r="Y290" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z290" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="291" spans="1:26" x14ac:dyDescent="0.3">
@@ -24061,10 +24067,10 @@
         <v>42</v>
       </c>
       <c r="Y291" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z291" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="292" spans="1:26" x14ac:dyDescent="0.3">
@@ -24141,10 +24147,10 @@
         <v>48</v>
       </c>
       <c r="Y292" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z292" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="293" spans="1:26" x14ac:dyDescent="0.3">
@@ -24221,10 +24227,10 @@
         <v>19</v>
       </c>
       <c r="Y293" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z293" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="294" spans="1:26" x14ac:dyDescent="0.3">
@@ -24301,10 +24307,10 @@
         <v>40</v>
       </c>
       <c r="Y294" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z294" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="295" spans="1:26" x14ac:dyDescent="0.3">
@@ -24381,10 +24387,10 @@
         <v>14</v>
       </c>
       <c r="Y295" s="5" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Z295" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="296" spans="1:26" x14ac:dyDescent="0.3">
@@ -24461,10 +24467,10 @@
         <v>14</v>
       </c>
       <c r="Y296" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z296" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="297" spans="1:26" x14ac:dyDescent="0.3">
@@ -24541,10 +24547,10 @@
         <v>18</v>
       </c>
       <c r="Y297" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z297" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="298" spans="1:26" x14ac:dyDescent="0.3">
@@ -24621,10 +24627,10 @@
         <v>39</v>
       </c>
       <c r="Y298" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z298" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="299" spans="1:26" x14ac:dyDescent="0.3">
@@ -24701,10 +24707,10 @@
         <v>40</v>
       </c>
       <c r="Y299" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z299" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="300" spans="1:26" x14ac:dyDescent="0.3">
@@ -24781,10 +24787,10 @@
         <v>39</v>
       </c>
       <c r="Y300" s="5" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="Z300" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="301" spans="1:26" x14ac:dyDescent="0.3">
@@ -24861,10 +24867,10 @@
         <v>39</v>
       </c>
       <c r="Y301" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z301" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="302" spans="1:26" x14ac:dyDescent="0.3">
@@ -24941,10 +24947,10 @@
         <v>39</v>
       </c>
       <c r="Y302" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z302" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="303" spans="1:26" x14ac:dyDescent="0.3">
@@ -25021,10 +25027,10 @@
         <v>39</v>
       </c>
       <c r="Y303" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z303" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="304" spans="1:26" x14ac:dyDescent="0.3">
@@ -25101,10 +25107,10 @@
         <v>10</v>
       </c>
       <c r="Y304" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z304" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="305" spans="1:26" x14ac:dyDescent="0.3">
@@ -25181,10 +25187,10 @@
         <v>42</v>
       </c>
       <c r="Y305" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z305" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="306" spans="1:26" x14ac:dyDescent="0.3">
@@ -25261,10 +25267,10 @@
         <v>42</v>
       </c>
       <c r="Y306" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z306" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="307" spans="1:26" x14ac:dyDescent="0.3">
@@ -25341,10 +25347,10 @@
         <v>42</v>
       </c>
       <c r="Y307" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z307" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="308" spans="1:26" x14ac:dyDescent="0.3">
@@ -25421,10 +25427,10 @@
         <v>45</v>
       </c>
       <c r="Y308" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z308" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="309" spans="1:26" x14ac:dyDescent="0.3">
@@ -25501,10 +25507,10 @@
         <v>48</v>
       </c>
       <c r="Y309" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z309" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="310" spans="1:26" x14ac:dyDescent="0.3">
@@ -25581,10 +25587,10 @@
         <v>46</v>
       </c>
       <c r="Y310" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z310" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="311" spans="1:26" x14ac:dyDescent="0.3">
@@ -25661,10 +25667,10 @@
         <v>21</v>
       </c>
       <c r="Y311" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z311" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="312" spans="1:26" x14ac:dyDescent="0.3">
@@ -25741,10 +25747,10 @@
         <v>22</v>
       </c>
       <c r="Y312" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z312" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="313" spans="1:26" x14ac:dyDescent="0.3">
@@ -25821,10 +25827,10 @@
         <v>19</v>
       </c>
       <c r="Y313" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z313" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="314" spans="1:26" x14ac:dyDescent="0.3">
@@ -25901,10 +25907,10 @@
         <v>32</v>
       </c>
       <c r="Y314" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z314" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="315" spans="1:26" x14ac:dyDescent="0.3">
@@ -25981,10 +25987,10 @@
         <v>26</v>
       </c>
       <c r="Y315" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z315" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="316" spans="1:26" x14ac:dyDescent="0.3">
@@ -26061,10 +26067,10 @@
         <v>29</v>
       </c>
       <c r="Y316" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z316" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="317" spans="1:26" x14ac:dyDescent="0.3">
@@ -26141,10 +26147,10 @@
         <v>19</v>
       </c>
       <c r="Y317" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z317" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="318" spans="1:26" x14ac:dyDescent="0.3">
@@ -26221,10 +26227,10 @@
         <v>20</v>
       </c>
       <c r="Y318" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z318" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="319" spans="1:26" x14ac:dyDescent="0.3">
@@ -26301,10 +26307,10 @@
         <v>19</v>
       </c>
       <c r="Y319" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z319" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="320" spans="1:26" x14ac:dyDescent="0.3">
@@ -26381,10 +26387,10 @@
         <v>47</v>
       </c>
       <c r="Y320" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z320" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="321" spans="1:26" x14ac:dyDescent="0.3">
@@ -26461,10 +26467,10 @@
         <v>47</v>
       </c>
       <c r="Y321" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z321" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="322" spans="1:26" x14ac:dyDescent="0.3">
@@ -26541,10 +26547,10 @@
         <v>19</v>
       </c>
       <c r="Y322" s="8" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z322" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="323" spans="1:26" x14ac:dyDescent="0.3">
@@ -26621,10 +26627,10 @@
         <v>17</v>
       </c>
       <c r="Y323" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z323" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="324" spans="1:26" x14ac:dyDescent="0.3">
@@ -26701,10 +26707,10 @@
         <v>15</v>
       </c>
       <c r="Y324" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z324" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="325" spans="1:26" x14ac:dyDescent="0.3">
@@ -26781,10 +26787,10 @@
         <v>39</v>
       </c>
       <c r="Y325" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z325" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="326" spans="1:26" x14ac:dyDescent="0.3">
@@ -26861,10 +26867,10 @@
         <v>40</v>
       </c>
       <c r="Y326" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z326" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="327" spans="1:26" x14ac:dyDescent="0.3">
@@ -26941,10 +26947,10 @@
         <v>44</v>
       </c>
       <c r="Y327" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z327" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="328" spans="1:26" x14ac:dyDescent="0.3">
@@ -27021,10 +27027,10 @@
         <v>44</v>
       </c>
       <c r="Y328" s="5" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Z328" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="329" spans="1:26" x14ac:dyDescent="0.3">
@@ -27101,10 +27107,10 @@
         <v>43</v>
       </c>
       <c r="Y329" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z329" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="330" spans="1:26" x14ac:dyDescent="0.3">
@@ -27181,10 +27187,10 @@
         <v>38</v>
       </c>
       <c r="Y330" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z330" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="331" spans="1:26" x14ac:dyDescent="0.3">
@@ -27261,10 +27267,10 @@
         <v>38</v>
       </c>
       <c r="Y331" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z331" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="332" spans="1:26" x14ac:dyDescent="0.3">
@@ -27341,10 +27347,10 @@
         <v>36</v>
       </c>
       <c r="Y332" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z332" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="333" spans="1:26" x14ac:dyDescent="0.3">
@@ -27421,10 +27427,10 @@
         <v>44</v>
       </c>
       <c r="Y333" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z333" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="334" spans="1:26" x14ac:dyDescent="0.3">
@@ -27501,10 +27507,10 @@
         <v>44</v>
       </c>
       <c r="Y334" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z334" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="335" spans="1:26" x14ac:dyDescent="0.3">
@@ -27581,10 +27587,10 @@
         <v>45</v>
       </c>
       <c r="Y335" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z335" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="336" spans="1:26" x14ac:dyDescent="0.3">
@@ -27661,10 +27667,10 @@
         <v>43</v>
       </c>
       <c r="Y336" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z336" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="337" spans="1:26" x14ac:dyDescent="0.3">
@@ -27741,10 +27747,10 @@
         <v>44</v>
       </c>
       <c r="Y337" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z337" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="338" spans="1:26" x14ac:dyDescent="0.3">
@@ -27821,10 +27827,10 @@
         <v>43</v>
       </c>
       <c r="Y338" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z338" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="339" spans="1:26" x14ac:dyDescent="0.3">
@@ -27901,10 +27907,10 @@
         <v>36</v>
       </c>
       <c r="Y339" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z339" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="340" spans="1:26" x14ac:dyDescent="0.3">
@@ -27981,10 +27987,10 @@
         <v>36</v>
       </c>
       <c r="Y340" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z340" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="341" spans="1:26" x14ac:dyDescent="0.3">
@@ -28061,10 +28067,10 @@
         <v>43</v>
       </c>
       <c r="Y341" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z341" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="342" spans="1:26" x14ac:dyDescent="0.3">
@@ -28141,10 +28147,10 @@
         <v>47</v>
       </c>
       <c r="Y342" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z342" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="343" spans="1:26" x14ac:dyDescent="0.3">
@@ -28221,10 +28227,10 @@
         <v>47</v>
       </c>
       <c r="Y343" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z343" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="344" spans="1:26" x14ac:dyDescent="0.3">
@@ -28301,10 +28307,10 @@
         <v>40</v>
       </c>
       <c r="Y344" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z344" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="345" spans="1:26" x14ac:dyDescent="0.3">
@@ -28381,10 +28387,10 @@
         <v>37</v>
       </c>
       <c r="Y345" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z345" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="346" spans="1:26" x14ac:dyDescent="0.3">
@@ -28461,10 +28467,10 @@
         <v>37</v>
       </c>
       <c r="Y346" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z346" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="347" spans="1:26" x14ac:dyDescent="0.3">
@@ -28541,10 +28547,10 @@
         <v>36</v>
       </c>
       <c r="Y347" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z347" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="348" spans="1:26" x14ac:dyDescent="0.3">
@@ -28621,10 +28627,10 @@
         <v>33</v>
       </c>
       <c r="Y348" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z348" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="349" spans="1:26" x14ac:dyDescent="0.3">
@@ -28701,10 +28707,10 @@
         <v>45</v>
       </c>
       <c r="Y349" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z349" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="350" spans="1:26" x14ac:dyDescent="0.3">
@@ -28781,10 +28787,10 @@
         <v>47</v>
       </c>
       <c r="Y350" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z350" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="351" spans="1:26" x14ac:dyDescent="0.3">
@@ -28861,10 +28867,10 @@
         <v>43</v>
       </c>
       <c r="Y351" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z351" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="352" spans="1:26" x14ac:dyDescent="0.3">
@@ -28941,10 +28947,10 @@
         <v>43</v>
       </c>
       <c r="Y352" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z352" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="353" spans="1:26" x14ac:dyDescent="0.3">
@@ -29021,10 +29027,10 @@
         <v>43</v>
       </c>
       <c r="Y353" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z353" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="354" spans="1:26" x14ac:dyDescent="0.3">
@@ -29101,10 +29107,10 @@
         <v>44</v>
       </c>
       <c r="Y354" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z354" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="355" spans="1:26" x14ac:dyDescent="0.3">
@@ -29181,10 +29187,10 @@
         <v>43</v>
       </c>
       <c r="Y355" s="5" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="Z355" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="356" spans="1:26" x14ac:dyDescent="0.3">
@@ -29261,10 +29267,10 @@
         <v>43</v>
       </c>
       <c r="Y356" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z356" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="357" spans="1:26" x14ac:dyDescent="0.3">
@@ -29341,10 +29347,10 @@
         <v>45</v>
       </c>
       <c r="Y357" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z357" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="358" spans="1:26" x14ac:dyDescent="0.3">
@@ -29421,10 +29427,10 @@
         <v>45</v>
       </c>
       <c r="Y358" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z358" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="359" spans="1:26" x14ac:dyDescent="0.3">
@@ -29501,10 +29507,10 @@
         <v>47</v>
       </c>
       <c r="Y359" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z359" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="360" spans="1:26" x14ac:dyDescent="0.3">
@@ -29581,10 +29587,10 @@
         <v>47</v>
       </c>
       <c r="Y360" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z360" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="361" spans="1:26" x14ac:dyDescent="0.3">
@@ -29661,10 +29667,10 @@
         <v>42</v>
       </c>
       <c r="Y361" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z361" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="362" spans="1:26" x14ac:dyDescent="0.3">
@@ -29741,10 +29747,10 @@
         <v>42</v>
       </c>
       <c r="Y362" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z362" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="363" spans="1:26" x14ac:dyDescent="0.3">
@@ -29821,10 +29827,10 @@
         <v>42</v>
       </c>
       <c r="Y363" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z363" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="364" spans="1:26" x14ac:dyDescent="0.3">
@@ -29901,10 +29907,10 @@
         <v>42</v>
       </c>
       <c r="Y364" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z364" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="365" spans="1:26" x14ac:dyDescent="0.3">
@@ -29981,10 +29987,10 @@
         <v>38</v>
       </c>
       <c r="Y365" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z365" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="366" spans="1:26" x14ac:dyDescent="0.3">
@@ -30061,10 +30067,10 @@
         <v>35</v>
       </c>
       <c r="Y366" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z366" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="367" spans="1:26" x14ac:dyDescent="0.3">
@@ -30141,10 +30147,10 @@
         <v>11</v>
       </c>
       <c r="Y367" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z367" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="368" spans="1:26" x14ac:dyDescent="0.3">
@@ -30221,10 +30227,10 @@
         <v>35</v>
       </c>
       <c r="Y368" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z368" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="369" spans="1:26" x14ac:dyDescent="0.3">
@@ -30301,10 +30307,10 @@
         <v>36</v>
       </c>
       <c r="Y369" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z369" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="370" spans="1:26" x14ac:dyDescent="0.3">
@@ -30381,10 +30387,10 @@
         <v>36</v>
       </c>
       <c r="Y370" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z370" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="371" spans="1:26" x14ac:dyDescent="0.3">
@@ -30461,10 +30467,10 @@
         <v>36</v>
       </c>
       <c r="Y371" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z371" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="372" spans="1:26" x14ac:dyDescent="0.3">
@@ -30541,10 +30547,10 @@
         <v>35</v>
       </c>
       <c r="Y372" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z372" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="373" spans="1:26" x14ac:dyDescent="0.3">
@@ -30621,10 +30627,10 @@
         <v>35</v>
       </c>
       <c r="Y373" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z373" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="374" spans="1:26" x14ac:dyDescent="0.3">
@@ -30701,10 +30707,10 @@
         <v>35</v>
       </c>
       <c r="Y374" s="5" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Z374" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="375" spans="1:26" x14ac:dyDescent="0.3">
@@ -30781,10 +30787,10 @@
         <v>35</v>
       </c>
       <c r="Y375" s="5" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Z375" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="376" spans="1:26" x14ac:dyDescent="0.3">
@@ -30861,10 +30867,10 @@
         <v>35</v>
       </c>
       <c r="Y376" s="5" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Z376" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="377" spans="1:26" x14ac:dyDescent="0.3">
@@ -30941,10 +30947,10 @@
         <v>30</v>
       </c>
       <c r="Y377" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z377" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="378" spans="1:26" x14ac:dyDescent="0.3">
@@ -31021,10 +31027,10 @@
         <v>30</v>
       </c>
       <c r="Y378" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z378" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="379" spans="1:26" x14ac:dyDescent="0.3">
@@ -31101,10 +31107,10 @@
         <v>30</v>
       </c>
       <c r="Y379" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z379" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="380" spans="1:26" x14ac:dyDescent="0.3">
@@ -31181,10 +31187,10 @@
         <v>30</v>
       </c>
       <c r="Y380" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z380" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="381" spans="1:26" x14ac:dyDescent="0.3">
@@ -31261,10 +31267,10 @@
         <v>47</v>
       </c>
       <c r="Y381" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z381" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="382" spans="1:26" x14ac:dyDescent="0.3">
@@ -31341,10 +31347,10 @@
         <v>47</v>
       </c>
       <c r="Y382" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z382" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="383" spans="1:26" x14ac:dyDescent="0.3">
@@ -31421,10 +31427,10 @@
         <v>47</v>
       </c>
       <c r="Y383" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z383" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="384" spans="1:26" x14ac:dyDescent="0.3">
@@ -31501,10 +31507,10 @@
         <v>49</v>
       </c>
       <c r="Y384" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z384" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="385" spans="1:26" x14ac:dyDescent="0.3">
@@ -31581,10 +31587,10 @@
         <v>49</v>
       </c>
       <c r="Y385" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z385" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="386" spans="1:26" x14ac:dyDescent="0.3">
@@ -31661,10 +31667,10 @@
         <v>42</v>
       </c>
       <c r="Y386" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z386" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="387" spans="1:26" x14ac:dyDescent="0.3">
@@ -31741,10 +31747,10 @@
         <v>39</v>
       </c>
       <c r="Y387" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z387" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="388" spans="1:26" x14ac:dyDescent="0.3">
@@ -31821,10 +31827,10 @@
         <v>39</v>
       </c>
       <c r="Y388" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z388" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="389" spans="1:26" x14ac:dyDescent="0.3">
@@ -31901,10 +31907,10 @@
         <v>42</v>
       </c>
       <c r="Y389" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z389" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="390" spans="1:26" x14ac:dyDescent="0.3">
@@ -31981,10 +31987,10 @@
         <v>42</v>
       </c>
       <c r="Y390" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z390" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="391" spans="1:26" x14ac:dyDescent="0.3">
@@ -32061,10 +32067,10 @@
         <v>42</v>
       </c>
       <c r="Y391" s="5" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="Z391" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="392" spans="1:26" x14ac:dyDescent="0.3">
@@ -32141,10 +32147,10 @@
         <v>28</v>
       </c>
       <c r="Y392" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z392" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="393" spans="1:26" x14ac:dyDescent="0.3">
@@ -32221,10 +32227,10 @@
         <v>15</v>
       </c>
       <c r="Y393" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z393" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="394" spans="1:26" x14ac:dyDescent="0.3">
@@ -32301,10 +32307,10 @@
         <v>40</v>
       </c>
       <c r="Y394" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z394" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="395" spans="1:26" x14ac:dyDescent="0.3">
@@ -32381,10 +32387,10 @@
         <v>15</v>
       </c>
       <c r="Y395" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z395" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="396" spans="1:26" x14ac:dyDescent="0.3">
@@ -32461,10 +32467,10 @@
         <v>16</v>
       </c>
       <c r="Y396" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z396" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="397" spans="1:26" x14ac:dyDescent="0.3">
@@ -32541,10 +32547,10 @@
         <v>22</v>
       </c>
       <c r="Y397" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z397" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="398" spans="1:26" x14ac:dyDescent="0.3">
@@ -32621,10 +32627,10 @@
         <v>19</v>
       </c>
       <c r="Y398" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z398" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="399" spans="1:26" x14ac:dyDescent="0.3">
@@ -32701,10 +32707,10 @@
         <v>16</v>
       </c>
       <c r="Y399" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z399" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="400" spans="1:26" x14ac:dyDescent="0.3">
@@ -32781,10 +32787,10 @@
         <v>12</v>
       </c>
       <c r="Y400" s="5" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="Z400" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="401" spans="1:26" x14ac:dyDescent="0.3">
@@ -32861,10 +32867,10 @@
         <v>18</v>
       </c>
       <c r="Y401" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z401" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="402" spans="1:26" x14ac:dyDescent="0.3">
@@ -32941,10 +32947,10 @@
         <v>18</v>
       </c>
       <c r="Y402" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z402" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="403" spans="1:26" x14ac:dyDescent="0.3">
@@ -33021,10 +33027,10 @@
         <v>18</v>
       </c>
       <c r="Y403" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z403" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="404" spans="1:26" x14ac:dyDescent="0.3">
@@ -33101,10 +33107,10 @@
         <v>16</v>
       </c>
       <c r="Y404" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z404" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="405" spans="1:26" x14ac:dyDescent="0.3">
@@ -33181,10 +33187,10 @@
         <v>18</v>
       </c>
       <c r="Y405" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z405" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="406" spans="1:26" x14ac:dyDescent="0.3">
@@ -33261,10 +33267,10 @@
         <v>16</v>
       </c>
       <c r="Y406" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z406" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="407" spans="1:26" x14ac:dyDescent="0.3">
@@ -33341,10 +33347,10 @@
         <v>19</v>
       </c>
       <c r="Y407" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z407" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="408" spans="1:26" x14ac:dyDescent="0.3">
@@ -33421,10 +33427,10 @@
         <v>15</v>
       </c>
       <c r="Y408" s="5" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="Z408" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="409" spans="1:26" x14ac:dyDescent="0.3">
@@ -33501,10 +33507,10 @@
         <v>14</v>
       </c>
       <c r="Y409" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z409" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="410" spans="1:26" x14ac:dyDescent="0.3">
@@ -33581,10 +33587,10 @@
         <v>14</v>
       </c>
       <c r="Y410" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z410" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="411" spans="1:26" x14ac:dyDescent="0.3">
@@ -33661,10 +33667,10 @@
         <v>13</v>
       </c>
       <c r="Y411" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z411" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="412" spans="1:26" x14ac:dyDescent="0.3">
@@ -33741,10 +33747,10 @@
         <v>13</v>
       </c>
       <c r="Y412" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z412" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="413" spans="1:26" x14ac:dyDescent="0.3">
@@ -33821,10 +33827,10 @@
         <v>15</v>
       </c>
       <c r="Y413" s="8" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z413" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="414" spans="1:26" x14ac:dyDescent="0.3">
@@ -33901,10 +33907,10 @@
         <v>15</v>
       </c>
       <c r="Y414" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z414" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="415" spans="1:26" x14ac:dyDescent="0.3">
@@ -33981,10 +33987,10 @@
         <v>18</v>
       </c>
       <c r="Y415" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z415" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="416" spans="1:26" x14ac:dyDescent="0.3">
@@ -34061,10 +34067,10 @@
         <v>18</v>
       </c>
       <c r="Y416" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z416" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="417" spans="1:26" x14ac:dyDescent="0.3">
@@ -34141,10 +34147,10 @@
         <v>16</v>
       </c>
       <c r="Y417" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z417" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="418" spans="1:26" x14ac:dyDescent="0.3">
@@ -34221,10 +34227,10 @@
         <v>16</v>
       </c>
       <c r="Y418" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z418" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="419" spans="1:26" x14ac:dyDescent="0.3">
@@ -34301,10 +34307,10 @@
         <v>21</v>
       </c>
       <c r="Y419" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z419" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="420" spans="1:26" x14ac:dyDescent="0.3">
@@ -34381,10 +34387,10 @@
         <v>16</v>
       </c>
       <c r="Y420" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z420" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="421" spans="1:26" x14ac:dyDescent="0.3">
@@ -34461,10 +34467,10 @@
         <v>20</v>
       </c>
       <c r="Y421" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z421" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="422" spans="1:26" x14ac:dyDescent="0.3">
@@ -34541,10 +34547,10 @@
         <v>19</v>
       </c>
       <c r="Y422" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z422" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="423" spans="1:26" x14ac:dyDescent="0.3">
@@ -34621,10 +34627,10 @@
         <v>15</v>
       </c>
       <c r="Y423" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z423" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="424" spans="1:26" x14ac:dyDescent="0.3">
@@ -34701,10 +34707,10 @@
         <v>15</v>
       </c>
       <c r="Y424" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z424" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="425" spans="1:26" x14ac:dyDescent="0.3">
@@ -34781,10 +34787,10 @@
         <v>15</v>
       </c>
       <c r="Y425" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z425" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="426" spans="1:26" x14ac:dyDescent="0.3">
@@ -34861,10 +34867,10 @@
         <v>15</v>
       </c>
       <c r="Y426" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z426" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="427" spans="1:26" x14ac:dyDescent="0.3">
@@ -34941,10 +34947,10 @@
         <v>28</v>
       </c>
       <c r="Y427" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z427" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="428" spans="1:26" x14ac:dyDescent="0.3">
@@ -35021,10 +35027,10 @@
         <v>28</v>
       </c>
       <c r="Y428" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z428" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="429" spans="1:26" x14ac:dyDescent="0.3">
@@ -35101,10 +35107,10 @@
         <v>28</v>
       </c>
       <c r="Y429" s="8" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z429" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="430" spans="1:26" x14ac:dyDescent="0.3">
@@ -35181,10 +35187,10 @@
         <v>47</v>
       </c>
       <c r="Y430" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z430" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="431" spans="1:26" x14ac:dyDescent="0.3">
@@ -35261,10 +35267,10 @@
         <v>41</v>
       </c>
       <c r="Y431" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z431" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="432" spans="1:26" x14ac:dyDescent="0.3">
@@ -35341,10 +35347,10 @@
         <v>38</v>
       </c>
       <c r="Y432" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z432" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="433" spans="1:26" x14ac:dyDescent="0.3">
@@ -35421,10 +35427,10 @@
         <v>44</v>
       </c>
       <c r="Y433" s="5" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Z433" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="434" spans="1:26" x14ac:dyDescent="0.3">
@@ -35501,10 +35507,10 @@
         <v>33</v>
       </c>
       <c r="Y434" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z434" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="435" spans="1:26" x14ac:dyDescent="0.3">
@@ -35581,10 +35587,10 @@
         <v>45</v>
       </c>
       <c r="Y435" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z435" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="436" spans="1:26" x14ac:dyDescent="0.3">
@@ -35661,10 +35667,10 @@
         <v>42</v>
       </c>
       <c r="Y436" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z436" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="437" spans="1:26" x14ac:dyDescent="0.3">
@@ -35741,10 +35747,10 @@
         <v>30</v>
       </c>
       <c r="Y437" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z437" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="438" spans="1:26" x14ac:dyDescent="0.3">
@@ -35821,10 +35827,10 @@
         <v>13</v>
       </c>
       <c r="Y438" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z438" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="439" spans="1:26" x14ac:dyDescent="0.3">
@@ -35901,10 +35907,10 @@
         <v>18</v>
       </c>
       <c r="Y439" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z439" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="440" spans="1:26" x14ac:dyDescent="0.3">
@@ -35981,10 +35987,10 @@
         <v>19</v>
       </c>
       <c r="Y440" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z440" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="441" spans="1:26" x14ac:dyDescent="0.3">
@@ -36061,10 +36067,10 @@
         <v>16</v>
       </c>
       <c r="Y441" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z441" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="442" spans="1:26" x14ac:dyDescent="0.3">
@@ -36141,10 +36147,10 @@
         <v>21</v>
       </c>
       <c r="Y442" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z442" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="443" spans="1:26" x14ac:dyDescent="0.3">
@@ -36221,10 +36227,10 @@
         <v>16</v>
       </c>
       <c r="Y443" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z443" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="444" spans="1:26" x14ac:dyDescent="0.3">
@@ -36301,10 +36307,10 @@
         <v>49</v>
       </c>
       <c r="Y444" s="5" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Z444" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="445" spans="1:26" x14ac:dyDescent="0.3">
@@ -36381,10 +36387,10 @@
         <v>15</v>
       </c>
       <c r="Y445" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z445" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="446" spans="1:26" x14ac:dyDescent="0.3">
@@ -36461,10 +36467,10 @@
         <v>14</v>
       </c>
       <c r="Y446" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z446" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="447" spans="1:26" x14ac:dyDescent="0.3">
@@ -36541,10 +36547,10 @@
         <v>14</v>
       </c>
       <c r="Y447" s="5" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Z447" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="448" spans="1:26" x14ac:dyDescent="0.3">
@@ -36621,10 +36627,10 @@
         <v>16</v>
       </c>
       <c r="Y448" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z448" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="449" spans="1:26" x14ac:dyDescent="0.3">
@@ -36701,10 +36707,10 @@
         <v>12</v>
       </c>
       <c r="Y449" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z449" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="450" spans="1:26" x14ac:dyDescent="0.3">
@@ -36781,10 +36787,10 @@
         <v>18</v>
       </c>
       <c r="Y450" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z450" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="451" spans="1:26" x14ac:dyDescent="0.3">
@@ -36861,10 +36867,10 @@
         <v>16</v>
       </c>
       <c r="Y451" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z451" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="452" spans="1:26" x14ac:dyDescent="0.3">
@@ -36941,10 +36947,10 @@
         <v>21</v>
       </c>
       <c r="Y452" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z452" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="453" spans="1:26" x14ac:dyDescent="0.3">
@@ -37021,10 +37027,10 @@
         <v>14</v>
       </c>
       <c r="Y453" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z453" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="454" spans="1:26" x14ac:dyDescent="0.3">
@@ -37101,10 +37107,10 @@
         <v>21</v>
       </c>
       <c r="Y454" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z454" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="455" spans="1:26" x14ac:dyDescent="0.3">
@@ -37181,10 +37187,10 @@
         <v>20</v>
       </c>
       <c r="Y455" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z455" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="456" spans="1:26" x14ac:dyDescent="0.3">
@@ -37261,10 +37267,10 @@
         <v>15</v>
       </c>
       <c r="Y456" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z456" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="457" spans="1:26" x14ac:dyDescent="0.3">
@@ -37341,10 +37347,10 @@
         <v>17</v>
       </c>
       <c r="Y457" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z457" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="458" spans="1:26" x14ac:dyDescent="0.3">
@@ -37421,10 +37427,10 @@
         <v>19</v>
       </c>
       <c r="Y458" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z458" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="459" spans="1:26" x14ac:dyDescent="0.3">
@@ -37501,10 +37507,10 @@
         <v>15</v>
       </c>
       <c r="Y459" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z459" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="460" spans="1:26" x14ac:dyDescent="0.3">
@@ -37581,10 +37587,10 @@
         <v>21</v>
       </c>
       <c r="Y460" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z460" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="461" spans="1:26" x14ac:dyDescent="0.3">
@@ -37661,10 +37667,10 @@
         <v>21</v>
       </c>
       <c r="Y461" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z461" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="Z461" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="462" spans="1:26" x14ac:dyDescent="0.3">
@@ -37741,10 +37747,10 @@
         <v>20</v>
       </c>
       <c r="Y462" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z462" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="463" spans="1:26" x14ac:dyDescent="0.3">
@@ -37821,10 +37827,10 @@
         <v>20</v>
       </c>
       <c r="Y463" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z463" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="Z463" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="464" spans="1:26" x14ac:dyDescent="0.3">
@@ -37901,10 +37907,10 @@
         <v>21</v>
       </c>
       <c r="Y464" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z464" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="465" spans="1:26" x14ac:dyDescent="0.3">
@@ -37981,10 +37987,10 @@
         <v>21</v>
       </c>
       <c r="Y465" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z465" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="466" spans="1:26" x14ac:dyDescent="0.3">
@@ -38061,10 +38067,10 @@
         <v>20</v>
       </c>
       <c r="Y466" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z466" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="467" spans="1:26" x14ac:dyDescent="0.3">
@@ -38141,10 +38147,10 @@
         <v>20</v>
       </c>
       <c r="Y467" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z467" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="468" spans="1:26" x14ac:dyDescent="0.3">
@@ -38221,10 +38227,10 @@
         <v>20</v>
       </c>
       <c r="Y468" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z468" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="469" spans="1:26" x14ac:dyDescent="0.3">
@@ -38301,10 +38307,10 @@
         <v>19</v>
       </c>
       <c r="Y469" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z469" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="470" spans="1:26" x14ac:dyDescent="0.3">
@@ -38381,10 +38387,10 @@
         <v>18</v>
       </c>
       <c r="Y470" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z470" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="471" spans="1:26" x14ac:dyDescent="0.3">
@@ -38461,10 +38467,10 @@
         <v>20</v>
       </c>
       <c r="Y471" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z471" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="472" spans="1:26" x14ac:dyDescent="0.3">
@@ -38541,10 +38547,10 @@
         <v>20</v>
       </c>
       <c r="Y472" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z472" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="473" spans="1:26" x14ac:dyDescent="0.3">
@@ -38621,10 +38627,10 @@
         <v>25</v>
       </c>
       <c r="Y473" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z473" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="474" spans="1:26" x14ac:dyDescent="0.3">
@@ -38701,10 +38707,10 @@
         <v>14</v>
       </c>
       <c r="Y474" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z474" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="475" spans="1:26" x14ac:dyDescent="0.3">
@@ -38781,10 +38787,10 @@
         <v>25</v>
       </c>
       <c r="Y475" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z475" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="Z475" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="476" spans="1:26" x14ac:dyDescent="0.3">
@@ -38861,10 +38867,10 @@
         <v>22</v>
       </c>
       <c r="Y476" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z476" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="477" spans="1:26" x14ac:dyDescent="0.3">
@@ -38941,10 +38947,10 @@
         <v>20</v>
       </c>
       <c r="Y477" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z477" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="478" spans="1:26" x14ac:dyDescent="0.3">
@@ -39021,10 +39027,10 @@
         <v>22</v>
       </c>
       <c r="Y478" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z478" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="Z478" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="479" spans="1:26" x14ac:dyDescent="0.3">
@@ -39101,10 +39107,10 @@
         <v>20</v>
       </c>
       <c r="Y479" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z479" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="480" spans="1:26" x14ac:dyDescent="0.3">
@@ -39181,10 +39187,10 @@
         <v>21</v>
       </c>
       <c r="Y480" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z480" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="481" spans="1:26" x14ac:dyDescent="0.3">
@@ -39261,10 +39267,10 @@
         <v>16</v>
       </c>
       <c r="Y481" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z481" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="482" spans="1:26" x14ac:dyDescent="0.3">
@@ -39341,10 +39347,10 @@
         <v>14</v>
       </c>
       <c r="Y482" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z482" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="483" spans="1:26" x14ac:dyDescent="0.3">
@@ -39421,10 +39427,10 @@
         <v>19</v>
       </c>
       <c r="Y483" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z483" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="484" spans="1:26" x14ac:dyDescent="0.3">
@@ -39501,10 +39507,10 @@
         <v>21</v>
       </c>
       <c r="Y484" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z484" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="485" spans="1:26" x14ac:dyDescent="0.3">
@@ -39581,10 +39587,10 @@
         <v>23</v>
       </c>
       <c r="Y485" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z485" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="486" spans="1:26" x14ac:dyDescent="0.3">
@@ -39661,10 +39667,10 @@
         <v>23</v>
       </c>
       <c r="Y486" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z486" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="487" spans="1:26" x14ac:dyDescent="0.3">
@@ -39741,10 +39747,10 @@
         <v>21</v>
       </c>
       <c r="Y487" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z487" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="488" spans="1:26" x14ac:dyDescent="0.3">
@@ -39821,10 +39827,10 @@
         <v>21</v>
       </c>
       <c r="Y488" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z488" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="489" spans="1:26" x14ac:dyDescent="0.3">
@@ -39901,10 +39907,10 @@
         <v>22</v>
       </c>
       <c r="Y489" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z489" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="490" spans="1:26" x14ac:dyDescent="0.3">
@@ -39981,10 +39987,10 @@
         <v>13</v>
       </c>
       <c r="Y490" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z490" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="491" spans="1:26" x14ac:dyDescent="0.3">
@@ -40061,10 +40067,10 @@
         <v>23</v>
       </c>
       <c r="Y491" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z491" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="492" spans="1:26" x14ac:dyDescent="0.3">
@@ -40141,10 +40147,10 @@
         <v>16</v>
       </c>
       <c r="Y492" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z492" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="493" spans="1:26" x14ac:dyDescent="0.3">
@@ -40221,10 +40227,10 @@
         <v>15</v>
       </c>
       <c r="Y493" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z493" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="494" spans="1:26" x14ac:dyDescent="0.3">
@@ -40301,10 +40307,10 @@
         <v>16</v>
       </c>
       <c r="Y494" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z494" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="495" spans="1:26" x14ac:dyDescent="0.3">
@@ -40381,10 +40387,10 @@
         <v>16</v>
       </c>
       <c r="Y495" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z495" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="496" spans="1:26" x14ac:dyDescent="0.3">
@@ -40461,10 +40467,10 @@
         <v>24</v>
       </c>
       <c r="Y496" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z496" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="497" spans="1:26" x14ac:dyDescent="0.3">
@@ -40541,10 +40547,10 @@
         <v>13</v>
       </c>
       <c r="Y497" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z497" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="498" spans="1:26" x14ac:dyDescent="0.3">
@@ -40621,10 +40627,10 @@
         <v>20</v>
       </c>
       <c r="Y498" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z498" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="499" spans="1:26" x14ac:dyDescent="0.3">
@@ -40701,10 +40707,10 @@
         <v>12</v>
       </c>
       <c r="Y499" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z499" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="500" spans="1:26" x14ac:dyDescent="0.3">
@@ -40781,10 +40787,10 @@
         <v>18</v>
       </c>
       <c r="Y500" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z500" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="501" spans="1:26" x14ac:dyDescent="0.3">
@@ -40861,10 +40867,10 @@
         <v>15</v>
       </c>
       <c r="Y501" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z501" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="502" spans="1:26" x14ac:dyDescent="0.3">
@@ -40941,10 +40947,10 @@
         <v>12</v>
       </c>
       <c r="Y502" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z502" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="503" spans="1:26" x14ac:dyDescent="0.3">
@@ -41021,10 +41027,10 @@
         <v>12</v>
       </c>
       <c r="Y503" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z503" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="504" spans="1:26" x14ac:dyDescent="0.3">
@@ -41101,10 +41107,10 @@
         <v>19</v>
       </c>
       <c r="Y504" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z504" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="505" spans="1:26" x14ac:dyDescent="0.3">
@@ -41181,10 +41187,10 @@
         <v>15</v>
       </c>
       <c r="Y505" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z505" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="506" spans="1:26" x14ac:dyDescent="0.3">
@@ -41261,10 +41267,10 @@
         <v>16</v>
       </c>
       <c r="Y506" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z506" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="507" spans="1:26" x14ac:dyDescent="0.3">
@@ -41341,10 +41347,10 @@
         <v>13</v>
       </c>
       <c r="Y507" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z507" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="508" spans="1:26" x14ac:dyDescent="0.3">
@@ -41421,10 +41427,10 @@
         <v>14</v>
       </c>
       <c r="Y508" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z508" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="509" spans="1:26" x14ac:dyDescent="0.3">
@@ -41501,10 +41507,10 @@
         <v>16</v>
       </c>
       <c r="Y509" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z509" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="510" spans="1:26" x14ac:dyDescent="0.3">
@@ -41581,10 +41587,10 @@
         <v>22</v>
       </c>
       <c r="Y510" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z510" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="511" spans="1:26" x14ac:dyDescent="0.3">
@@ -41661,10 +41667,10 @@
         <v>23</v>
       </c>
       <c r="Y511" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z511" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="512" spans="1:26" x14ac:dyDescent="0.3">
@@ -41741,10 +41747,10 @@
         <v>21</v>
       </c>
       <c r="Y512" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z512" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="513" spans="1:26" x14ac:dyDescent="0.3">
@@ -41821,10 +41827,10 @@
         <v>21</v>
       </c>
       <c r="Y513" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z513" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="514" spans="1:26" x14ac:dyDescent="0.3">
@@ -41850,7 +41856,7 @@
         <v>0</v>
       </c>
       <c r="H514" s="18" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I514" s="12">
         <v>16.398388000000001</v>
@@ -41901,10 +41907,10 @@
         <v>0</v>
       </c>
       <c r="Y514" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z514" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="515" spans="1:26" x14ac:dyDescent="0.3">
@@ -41981,10 +41987,10 @@
         <v>49</v>
       </c>
       <c r="Y515" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z515" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="516" spans="1:26" x14ac:dyDescent="0.3">
@@ -42061,10 +42067,10 @@
         <v>49</v>
       </c>
       <c r="Y516" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z516" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="517" spans="1:26" x14ac:dyDescent="0.3">
@@ -42141,10 +42147,10 @@
         <v>49</v>
       </c>
       <c r="Y517" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z517" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="518" spans="1:26" x14ac:dyDescent="0.3">
@@ -42221,10 +42227,10 @@
         <v>39</v>
       </c>
       <c r="Y518" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z518" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="519" spans="1:26" x14ac:dyDescent="0.3">
@@ -42301,10 +42307,10 @@
         <v>40</v>
       </c>
       <c r="Y519" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z519" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="520" spans="1:26" x14ac:dyDescent="0.3">
@@ -42381,10 +42387,10 @@
         <v>38</v>
       </c>
       <c r="Y520" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z520" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="521" spans="1:26" x14ac:dyDescent="0.3">
@@ -42461,10 +42467,10 @@
         <v>36</v>
       </c>
       <c r="Y521" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z521" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="522" spans="1:26" x14ac:dyDescent="0.3">
@@ -42541,10 +42547,10 @@
         <v>33</v>
       </c>
       <c r="Y522" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z522" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="523" spans="1:26" x14ac:dyDescent="0.3">
@@ -42621,10 +42627,10 @@
         <v>47</v>
       </c>
       <c r="Y523" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z523" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="524" spans="1:26" x14ac:dyDescent="0.3">
@@ -42701,10 +42707,10 @@
         <v>47</v>
       </c>
       <c r="Y524" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z524" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="525" spans="1:26" x14ac:dyDescent="0.3">
@@ -42781,10 +42787,10 @@
         <v>47</v>
       </c>
       <c r="Y525" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z525" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="526" spans="1:26" x14ac:dyDescent="0.3">
@@ -42861,10 +42867,10 @@
         <v>38</v>
       </c>
       <c r="Y526" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z526" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="527" spans="1:26" x14ac:dyDescent="0.3">
@@ -42941,10 +42947,10 @@
         <v>38</v>
       </c>
       <c r="Y527" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z527" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="528" spans="1:26" x14ac:dyDescent="0.3">
@@ -43021,10 +43027,10 @@
         <v>44</v>
       </c>
       <c r="Y528" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z528" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="529" spans="1:26" x14ac:dyDescent="0.3">
@@ -43101,10 +43107,10 @@
         <v>33</v>
       </c>
       <c r="Y529" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z529" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="530" spans="1:26" x14ac:dyDescent="0.3">
@@ -43181,10 +43187,10 @@
         <v>43</v>
       </c>
       <c r="Y530" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z530" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="531" spans="1:26" x14ac:dyDescent="0.3">
@@ -43261,10 +43267,10 @@
         <v>40</v>
       </c>
       <c r="Y531" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z531" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="532" spans="1:26" x14ac:dyDescent="0.3">
@@ -43341,10 +43347,10 @@
         <v>47</v>
       </c>
       <c r="Y532" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z532" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="533" spans="1:26" x14ac:dyDescent="0.3">
@@ -43421,10 +43427,10 @@
         <v>43</v>
       </c>
       <c r="Y533" s="5" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Z533" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="534" spans="1:26" x14ac:dyDescent="0.3">
@@ -43501,10 +43507,10 @@
         <v>28</v>
       </c>
       <c r="Y534" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z534" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="535" spans="1:26" x14ac:dyDescent="0.3">
@@ -43581,10 +43587,10 @@
         <v>28</v>
       </c>
       <c r="Y535" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z535" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="536" spans="1:26" x14ac:dyDescent="0.3">
@@ -43661,10 +43667,10 @@
         <v>40</v>
       </c>
       <c r="Y536" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z536" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="537" spans="1:26" x14ac:dyDescent="0.3">
@@ -43741,10 +43747,10 @@
         <v>37</v>
       </c>
       <c r="Y537" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z537" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="538" spans="1:26" x14ac:dyDescent="0.3">
@@ -43821,10 +43827,10 @@
         <v>36</v>
       </c>
       <c r="Y538" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z538" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="539" spans="1:26" x14ac:dyDescent="0.3">
@@ -43901,10 +43907,10 @@
         <v>19</v>
       </c>
       <c r="Y539" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z539" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="540" spans="1:26" x14ac:dyDescent="0.3">
@@ -43981,10 +43987,10 @@
         <v>49</v>
       </c>
       <c r="Y540" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z540" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="541" spans="1:26" x14ac:dyDescent="0.3">
@@ -44061,10 +44067,10 @@
         <v>47</v>
       </c>
       <c r="Y541" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z541" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="542" spans="1:26" x14ac:dyDescent="0.3">
@@ -44141,10 +44147,10 @@
         <v>47</v>
       </c>
       <c r="Y542" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z542" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="Z542" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="543" spans="1:26" x14ac:dyDescent="0.3">
@@ -44221,10 +44227,10 @@
         <v>41</v>
       </c>
       <c r="Y543" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z543" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="Z543" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="544" spans="1:26" x14ac:dyDescent="0.3">
@@ -44301,10 +44307,10 @@
         <v>40</v>
       </c>
       <c r="Y544" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z544" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="545" spans="1:26" x14ac:dyDescent="0.3">
@@ -44381,10 +44387,10 @@
         <v>40</v>
       </c>
       <c r="Y545" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z545" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="546" spans="1:26" x14ac:dyDescent="0.3">
@@ -44461,10 +44467,10 @@
         <v>46</v>
       </c>
       <c r="Y546" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z546" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="547" spans="1:26" x14ac:dyDescent="0.3">
@@ -44541,10 +44547,10 @@
         <v>47</v>
       </c>
       <c r="Y547" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z547" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="548" spans="1:26" x14ac:dyDescent="0.3">
@@ -44621,10 +44627,10 @@
         <v>39</v>
       </c>
       <c r="Y548" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z548" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="549" spans="1:26" x14ac:dyDescent="0.3">
@@ -44701,10 +44707,10 @@
         <v>39</v>
       </c>
       <c r="Y549" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z549" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="550" spans="1:26" x14ac:dyDescent="0.3">
@@ -44781,10 +44787,10 @@
         <v>44</v>
       </c>
       <c r="Y550" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z550" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="551" spans="1:26" x14ac:dyDescent="0.3">
@@ -44861,10 +44867,10 @@
         <v>45</v>
       </c>
       <c r="Y551" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z551" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="552" spans="1:26" x14ac:dyDescent="0.3">
@@ -44941,10 +44947,10 @@
         <v>44</v>
       </c>
       <c r="Y552" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z552" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="553" spans="1:26" x14ac:dyDescent="0.3">
@@ -45021,10 +45027,10 @@
         <v>30</v>
       </c>
       <c r="Y553" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z553" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="554" spans="1:26" x14ac:dyDescent="0.3">
@@ -45101,10 +45107,10 @@
         <v>37</v>
       </c>
       <c r="Y554" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z554" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="555" spans="1:26" x14ac:dyDescent="0.3">
@@ -45181,10 +45187,10 @@
         <v>36</v>
       </c>
       <c r="Y555" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z555" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="556" spans="1:26" x14ac:dyDescent="0.3">
@@ -45261,10 +45267,10 @@
         <v>42</v>
       </c>
       <c r="Y556" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z556" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="557" spans="1:26" x14ac:dyDescent="0.3">
@@ -45341,10 +45347,10 @@
         <v>29</v>
       </c>
       <c r="Y557" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z557" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="558" spans="1:26" x14ac:dyDescent="0.3">
@@ -45421,10 +45427,10 @@
         <v>29</v>
       </c>
       <c r="Y558" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z558" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="559" spans="1:26" x14ac:dyDescent="0.3">
@@ -45501,10 +45507,10 @@
         <v>38</v>
       </c>
       <c r="Y559" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z559" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="560" spans="1:26" x14ac:dyDescent="0.3">
@@ -45581,10 +45587,10 @@
         <v>28</v>
       </c>
       <c r="Y560" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z560" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="561" spans="1:26" x14ac:dyDescent="0.3">
@@ -45661,10 +45667,10 @@
         <v>41</v>
       </c>
       <c r="Y561" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z561" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="562" spans="1:26" x14ac:dyDescent="0.3">
@@ -45741,10 +45747,10 @@
         <v>45</v>
       </c>
       <c r="Y562" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z562" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="563" spans="1:26" x14ac:dyDescent="0.3">
@@ -45821,10 +45827,10 @@
         <v>43</v>
       </c>
       <c r="Y563" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z563" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="564" spans="1:26" x14ac:dyDescent="0.3">
@@ -45901,10 +45907,10 @@
         <v>43</v>
       </c>
       <c r="Y564" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z564" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="565" spans="1:26" x14ac:dyDescent="0.3">
@@ -45981,10 +45987,10 @@
         <v>49</v>
       </c>
       <c r="Y565" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z565" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="566" spans="1:26" x14ac:dyDescent="0.3">
@@ -46061,10 +46067,10 @@
         <v>49</v>
       </c>
       <c r="Y566" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z566" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="567" spans="1:26" x14ac:dyDescent="0.3">
@@ -46141,10 +46147,10 @@
         <v>49</v>
       </c>
       <c r="Y567" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z567" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="568" spans="1:26" x14ac:dyDescent="0.3">
@@ -46221,10 +46227,10 @@
         <v>42</v>
       </c>
       <c r="Y568" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z568" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="569" spans="1:26" x14ac:dyDescent="0.3">
@@ -46301,10 +46307,10 @@
         <v>39</v>
       </c>
       <c r="Y569" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z569" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="570" spans="1:26" x14ac:dyDescent="0.3">
@@ -46381,10 +46387,10 @@
         <v>42</v>
       </c>
       <c r="Y570" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z570" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="571" spans="1:26" x14ac:dyDescent="0.3">
@@ -46461,10 +46467,10 @@
         <v>38</v>
       </c>
       <c r="Y571" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z571" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="572" spans="1:26" x14ac:dyDescent="0.3">
@@ -46541,10 +46547,10 @@
         <v>38</v>
       </c>
       <c r="Y572" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z572" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="573" spans="1:26" x14ac:dyDescent="0.3">
@@ -46621,10 +46627,10 @@
         <v>30</v>
       </c>
       <c r="Y573" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z573" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="574" spans="1:26" x14ac:dyDescent="0.3">
@@ -46701,10 +46707,10 @@
         <v>30</v>
       </c>
       <c r="Y574" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z574" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="575" spans="1:26" x14ac:dyDescent="0.3">
@@ -46781,10 +46787,10 @@
         <v>30</v>
       </c>
       <c r="Y575" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z575" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="576" spans="1:26" x14ac:dyDescent="0.3">
@@ -46861,10 +46867,10 @@
         <v>36</v>
       </c>
       <c r="Y576" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z576" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="577" spans="1:26" x14ac:dyDescent="0.3">
@@ -46941,10 +46947,10 @@
         <v>28</v>
       </c>
       <c r="Y577" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z577" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="578" spans="1:26" x14ac:dyDescent="0.3">
@@ -47021,10 +47027,10 @@
         <v>20</v>
       </c>
       <c r="Y578" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z578" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="579" spans="1:26" x14ac:dyDescent="0.3">
@@ -47101,10 +47107,10 @@
         <v>41</v>
       </c>
       <c r="Y579" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z579" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="580" spans="1:26" x14ac:dyDescent="0.3">
@@ -47181,10 +47187,10 @@
         <v>30</v>
       </c>
       <c r="Y580" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z580" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="581" spans="1:26" x14ac:dyDescent="0.3">
@@ -47261,10 +47267,10 @@
         <v>20</v>
       </c>
       <c r="Y581" s="8" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z581" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="582" spans="1:26" x14ac:dyDescent="0.3">
@@ -47341,10 +47347,10 @@
         <v>43</v>
       </c>
       <c r="Y582" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z582" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="583" spans="1:26" x14ac:dyDescent="0.3">
@@ -47421,10 +47427,10 @@
         <v>43</v>
       </c>
       <c r="Y583" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z583" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="584" spans="1:26" x14ac:dyDescent="0.3">
@@ -47501,10 +47507,10 @@
         <v>43</v>
       </c>
       <c r="Y584" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z584" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="585" spans="1:26" x14ac:dyDescent="0.3">
@@ -47581,10 +47587,10 @@
         <v>31</v>
       </c>
       <c r="Y585" s="9" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z585" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="586" spans="1:26" x14ac:dyDescent="0.3">
@@ -47661,10 +47667,10 @@
         <v>31</v>
       </c>
       <c r="Y586" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z586" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="587" spans="1:26" x14ac:dyDescent="0.3">
@@ -47741,10 +47747,10 @@
         <v>29</v>
       </c>
       <c r="Y587" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z587" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="588" spans="1:26" x14ac:dyDescent="0.3">
@@ -47821,10 +47827,10 @@
         <v>32</v>
       </c>
       <c r="Y588" s="5" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="Z588" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="589" spans="1:26" x14ac:dyDescent="0.3">
@@ -47901,10 +47907,10 @@
         <v>31</v>
       </c>
       <c r="Y589" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z589" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="590" spans="1:26" x14ac:dyDescent="0.3">
@@ -47981,10 +47987,10 @@
         <v>31</v>
       </c>
       <c r="Y590" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z590" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="591" spans="1:26" x14ac:dyDescent="0.3">
@@ -48061,10 +48067,10 @@
         <v>19</v>
       </c>
       <c r="Y591" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z591" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="592" spans="1:26" x14ac:dyDescent="0.3">
@@ -48141,10 +48147,10 @@
         <v>20</v>
       </c>
       <c r="Y592" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z592" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="593" spans="1:26" x14ac:dyDescent="0.3">
@@ -48221,10 +48227,10 @@
         <v>18</v>
       </c>
       <c r="Y593" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z593" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="594" spans="1:26" x14ac:dyDescent="0.3">
@@ -48301,10 +48307,10 @@
         <v>44</v>
       </c>
       <c r="Y594" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z594" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="595" spans="1:26" x14ac:dyDescent="0.3">
@@ -48381,10 +48387,10 @@
         <v>43</v>
       </c>
       <c r="Y595" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z595" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="596" spans="1:26" x14ac:dyDescent="0.3">
@@ -48461,10 +48467,10 @@
         <v>38</v>
       </c>
       <c r="Y596" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z596" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="597" spans="1:26" x14ac:dyDescent="0.3">
@@ -48541,10 +48547,10 @@
         <v>38</v>
       </c>
       <c r="Y597" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z597" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="598" spans="1:26" x14ac:dyDescent="0.3">
@@ -48621,10 +48627,10 @@
         <v>38</v>
       </c>
       <c r="Y598" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z598" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="599" spans="1:26" x14ac:dyDescent="0.3">
@@ -48701,10 +48707,10 @@
         <v>43</v>
       </c>
       <c r="Y599" s="5" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Z599" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="600" spans="1:26" x14ac:dyDescent="0.3">
@@ -48781,10 +48787,10 @@
         <v>38</v>
       </c>
       <c r="Y600" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z600" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="601" spans="1:26" x14ac:dyDescent="0.3">
@@ -48861,10 +48867,10 @@
         <v>38</v>
       </c>
       <c r="Y601" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z601" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="602" spans="1:26" x14ac:dyDescent="0.3">
@@ -48941,10 +48947,10 @@
         <v>43</v>
       </c>
       <c r="Y602" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z602" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="603" spans="1:26" x14ac:dyDescent="0.3">
@@ -49021,10 +49027,10 @@
         <v>43</v>
       </c>
       <c r="Y603" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z603" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="604" spans="1:26" x14ac:dyDescent="0.3">
@@ -49101,10 +49107,10 @@
         <v>42</v>
       </c>
       <c r="Y604" s="5" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Z604" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="605" spans="1:26" x14ac:dyDescent="0.3">
@@ -49181,10 +49187,10 @@
         <v>30</v>
       </c>
       <c r="Y605" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z605" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="606" spans="1:26" x14ac:dyDescent="0.3">
@@ -49261,10 +49267,10 @@
         <v>30</v>
       </c>
       <c r="Y606" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z606" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="607" spans="1:26" x14ac:dyDescent="0.3">
@@ -49341,10 +49347,10 @@
         <v>44</v>
       </c>
       <c r="Y607" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z607" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="608" spans="1:26" x14ac:dyDescent="0.3">
@@ -49421,10 +49427,10 @@
         <v>43</v>
       </c>
       <c r="Y608" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z608" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="609" spans="1:26" x14ac:dyDescent="0.3">
@@ -49501,10 +49507,10 @@
         <v>45</v>
       </c>
       <c r="Y609" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z609" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="610" spans="1:26" x14ac:dyDescent="0.3">
@@ -49581,10 +49587,10 @@
         <v>40</v>
       </c>
       <c r="Y610" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z610" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="611" spans="1:26" x14ac:dyDescent="0.3">
@@ -49661,10 +49667,10 @@
         <v>40</v>
       </c>
       <c r="Y611" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z611" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="612" spans="1:26" x14ac:dyDescent="0.3">
@@ -49741,10 +49747,10 @@
         <v>40</v>
       </c>
       <c r="Y612" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z612" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="613" spans="1:26" x14ac:dyDescent="0.3">
@@ -49821,10 +49827,10 @@
         <v>40</v>
       </c>
       <c r="Y613" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z613" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="614" spans="1:26" x14ac:dyDescent="0.3">
@@ -49901,10 +49907,10 @@
         <v>45</v>
       </c>
       <c r="Y614" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z614" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="615" spans="1:26" x14ac:dyDescent="0.3">
@@ -49981,10 +49987,10 @@
         <v>45</v>
       </c>
       <c r="Y615" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z615" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="616" spans="1:26" x14ac:dyDescent="0.3">
@@ -50061,10 +50067,10 @@
         <v>32</v>
       </c>
       <c r="Y616" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z616" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="617" spans="1:26" x14ac:dyDescent="0.3">
@@ -50141,10 +50147,10 @@
         <v>44</v>
       </c>
       <c r="Y617" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z617" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="618" spans="1:26" x14ac:dyDescent="0.3">
@@ -50221,10 +50227,10 @@
         <v>3</v>
       </c>
       <c r="Y618" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z618" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="619" spans="1:26" x14ac:dyDescent="0.3">
@@ -50301,10 +50307,10 @@
         <v>18</v>
       </c>
       <c r="Y619" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z619" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="620" spans="1:26" x14ac:dyDescent="0.3">
@@ -50381,10 +50387,10 @@
         <v>21</v>
       </c>
       <c r="Y620" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z620" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="621" spans="1:26" x14ac:dyDescent="0.3">
@@ -50461,10 +50467,10 @@
         <v>12</v>
       </c>
       <c r="Y621" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z621" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="622" spans="1:26" x14ac:dyDescent="0.3">
@@ -50541,10 +50547,10 @@
         <v>17</v>
       </c>
       <c r="Y622" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z622" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="623" spans="1:26" x14ac:dyDescent="0.3">
@@ -50621,10 +50627,10 @@
         <v>17</v>
       </c>
       <c r="Y623" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z623" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="624" spans="1:26" x14ac:dyDescent="0.3">
@@ -50701,10 +50707,10 @@
         <v>8</v>
       </c>
       <c r="Y624" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z624" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="625" spans="1:26" x14ac:dyDescent="0.3">
@@ -50781,10 +50787,10 @@
         <v>13</v>
       </c>
       <c r="Y625" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z625" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="626" spans="1:26" x14ac:dyDescent="0.3">
@@ -50861,10 +50867,10 @@
         <v>15</v>
       </c>
       <c r="Y626" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z626" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="627" spans="1:26" x14ac:dyDescent="0.3">
@@ -50941,10 +50947,10 @@
         <v>22</v>
       </c>
       <c r="Y627" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z627" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="628" spans="1:26" x14ac:dyDescent="0.3">
@@ -51021,10 +51027,10 @@
         <v>20</v>
       </c>
       <c r="Y628" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z628" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="629" spans="1:26" x14ac:dyDescent="0.3">
@@ -51101,10 +51107,10 @@
         <v>20</v>
       </c>
       <c r="Y629" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z629" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="630" spans="1:26" x14ac:dyDescent="0.3">
@@ -51181,10 +51187,10 @@
         <v>7</v>
       </c>
       <c r="Y630" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z630" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="631" spans="1:26" x14ac:dyDescent="0.3">
@@ -51261,10 +51267,10 @@
         <v>11</v>
       </c>
       <c r="Y631" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z631" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="632" spans="1:26" x14ac:dyDescent="0.3">
@@ -51341,10 +51347,10 @@
         <v>11</v>
       </c>
       <c r="Y632" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z632" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="633" spans="1:26" x14ac:dyDescent="0.3">
@@ -51421,10 +51427,10 @@
         <v>18</v>
       </c>
       <c r="Y633" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z633" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="634" spans="1:26" x14ac:dyDescent="0.3">
@@ -51501,10 +51507,10 @@
         <v>14</v>
       </c>
       <c r="Y634" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z634" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="635" spans="1:26" x14ac:dyDescent="0.3">
@@ -51581,10 +51587,10 @@
         <v>14</v>
       </c>
       <c r="Y635" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z635" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="636" spans="1:26" x14ac:dyDescent="0.3">
@@ -51661,10 +51667,10 @@
         <v>12</v>
       </c>
       <c r="Y636" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z636" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="637" spans="1:26" x14ac:dyDescent="0.3">
@@ -51741,10 +51747,10 @@
         <v>14</v>
       </c>
       <c r="Y637" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z637" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="638" spans="1:26" x14ac:dyDescent="0.3">
@@ -51821,10 +51827,10 @@
         <v>16</v>
       </c>
       <c r="Y638" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z638" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="639" spans="1:26" x14ac:dyDescent="0.3">
@@ -51901,10 +51907,10 @@
         <v>17</v>
       </c>
       <c r="Y639" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z639" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="640" spans="1:26" x14ac:dyDescent="0.3">
@@ -51981,10 +51987,10 @@
         <v>17</v>
       </c>
       <c r="Y640" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z640" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="641" spans="1:26" x14ac:dyDescent="0.3">
@@ -52061,10 +52067,10 @@
         <v>14</v>
       </c>
       <c r="Y641" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z641" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="642" spans="1:26" x14ac:dyDescent="0.3">
@@ -52141,10 +52147,10 @@
         <v>13</v>
       </c>
       <c r="Y642" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z642" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="643" spans="1:26" x14ac:dyDescent="0.3">
@@ -52221,10 +52227,10 @@
         <v>13</v>
       </c>
       <c r="Y643" s="5" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Z643" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="644" spans="1:26" x14ac:dyDescent="0.3">
@@ -52301,10 +52307,10 @@
         <v>24</v>
       </c>
       <c r="Y644" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z644" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="645" spans="1:26" x14ac:dyDescent="0.3">
@@ -52381,10 +52387,10 @@
         <v>11</v>
       </c>
       <c r="Y645" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z645" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="646" spans="1:26" x14ac:dyDescent="0.3">
@@ -52461,10 +52467,10 @@
         <v>16</v>
       </c>
       <c r="Y646" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z646" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="647" spans="1:26" x14ac:dyDescent="0.3">
@@ -52541,10 +52547,10 @@
         <v>12</v>
       </c>
       <c r="Y647" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z647" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="648" spans="1:26" x14ac:dyDescent="0.3">
@@ -52621,10 +52627,10 @@
         <v>10</v>
       </c>
       <c r="Y648" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z648" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="649" spans="1:26" x14ac:dyDescent="0.3">
@@ -52701,10 +52707,10 @@
         <v>16</v>
       </c>
       <c r="Y649" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z649" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="650" spans="1:26" x14ac:dyDescent="0.3">
@@ -52781,10 +52787,10 @@
         <v>13</v>
       </c>
       <c r="Y650" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z650" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="651" spans="1:26" x14ac:dyDescent="0.3">
@@ -52861,10 +52867,10 @@
         <v>15</v>
       </c>
       <c r="Y651" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z651" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="652" spans="1:26" x14ac:dyDescent="0.3">
@@ -52941,10 +52947,10 @@
         <v>15</v>
       </c>
       <c r="Y652" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z652" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="653" spans="1:26" x14ac:dyDescent="0.3">
@@ -53021,10 +53027,10 @@
         <v>18</v>
       </c>
       <c r="Y653" s="5" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="Z653" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="654" spans="1:26" x14ac:dyDescent="0.3">
@@ -53101,10 +53107,10 @@
         <v>17</v>
       </c>
       <c r="Y654" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z654" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="655" spans="1:26" x14ac:dyDescent="0.3">
@@ -53181,10 +53187,10 @@
         <v>14</v>
       </c>
       <c r="Y655" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z655" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="656" spans="1:26" x14ac:dyDescent="0.3">
@@ -53261,10 +53267,10 @@
         <v>17</v>
       </c>
       <c r="Y656" s="5" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="Z656" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="657" spans="1:26" x14ac:dyDescent="0.3">
@@ -53341,10 +53347,10 @@
         <v>16</v>
       </c>
       <c r="Y657" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z657" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="658" spans="1:26" x14ac:dyDescent="0.3">
@@ -53421,10 +53427,10 @@
         <v>15</v>
       </c>
       <c r="Y658" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z658" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="659" spans="1:26" x14ac:dyDescent="0.3">
@@ -53501,10 +53507,10 @@
         <v>16</v>
       </c>
       <c r="Y659" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z659" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="660" spans="1:26" x14ac:dyDescent="0.3">
@@ -53581,10 +53587,10 @@
         <v>13</v>
       </c>
       <c r="Y660" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z660" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="661" spans="1:26" x14ac:dyDescent="0.3">
@@ -53661,10 +53667,10 @@
         <v>17</v>
       </c>
       <c r="Y661" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z661" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="662" spans="1:26" x14ac:dyDescent="0.3">
@@ -53741,10 +53747,10 @@
         <v>12</v>
       </c>
       <c r="Y662" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z662" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="663" spans="1:26" x14ac:dyDescent="0.3">
@@ -53821,10 +53827,10 @@
         <v>11</v>
       </c>
       <c r="Y663" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z663" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="664" spans="1:26" x14ac:dyDescent="0.3">
@@ -53901,10 +53907,10 @@
         <v>10</v>
       </c>
       <c r="Y664" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z664" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="665" spans="1:26" x14ac:dyDescent="0.3">
@@ -53981,10 +53987,10 @@
         <v>10</v>
       </c>
       <c r="Y665" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z665" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="666" spans="1:26" x14ac:dyDescent="0.3">
@@ -54061,10 +54067,10 @@
         <v>17</v>
       </c>
       <c r="Y666" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z666" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="667" spans="1:26" x14ac:dyDescent="0.3">
@@ -54141,10 +54147,10 @@
         <v>17</v>
       </c>
       <c r="Y667" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z667" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="668" spans="1:26" x14ac:dyDescent="0.3">
@@ -54221,10 +54227,10 @@
         <v>12</v>
       </c>
       <c r="Y668" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z668" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="669" spans="1:26" x14ac:dyDescent="0.3">
@@ -54301,10 +54307,10 @@
         <v>17</v>
       </c>
       <c r="Y669" s="10" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z669" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="670" spans="1:26" x14ac:dyDescent="0.3">
@@ -54381,10 +54387,10 @@
         <v>18</v>
       </c>
       <c r="Y670" s="10" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z670" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="671" spans="1:26" x14ac:dyDescent="0.3">
@@ -54461,10 +54467,10 @@
         <v>12</v>
       </c>
       <c r="Y671" s="10" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z671" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="672" spans="1:26" x14ac:dyDescent="0.3">
@@ -54541,10 +54547,10 @@
         <v>16</v>
       </c>
       <c r="Y672" s="10" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z672" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="673" spans="1:26" x14ac:dyDescent="0.3">
@@ -54621,10 +54627,10 @@
         <v>15</v>
       </c>
       <c r="Y673" s="10" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z673" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="674" spans="1:26" x14ac:dyDescent="0.3">
@@ -54701,10 +54707,10 @@
         <v>16</v>
       </c>
       <c r="Y674" s="10" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z674" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="675" spans="1:26" x14ac:dyDescent="0.3">
@@ -54781,10 +54787,10 @@
         <v>16</v>
       </c>
       <c r="Y675" s="10" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z675" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="676" spans="1:26" x14ac:dyDescent="0.3">
@@ -54861,10 +54867,10 @@
         <v>16</v>
       </c>
       <c r="Y676" s="10" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z676" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="677" spans="1:26" x14ac:dyDescent="0.3">
@@ -54941,10 +54947,10 @@
         <v>16</v>
       </c>
       <c r="Y677" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z677" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="678" spans="1:26" x14ac:dyDescent="0.3">
@@ -55021,10 +55027,10 @@
         <v>15</v>
       </c>
       <c r="Y678" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z678" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="679" spans="1:26" x14ac:dyDescent="0.3">
@@ -55101,10 +55107,10 @@
         <v>10</v>
       </c>
       <c r="Y679" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z679" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="680" spans="1:26" x14ac:dyDescent="0.3">
@@ -55181,10 +55187,10 @@
         <v>24</v>
       </c>
       <c r="Y680" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z680" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="681" spans="1:26" x14ac:dyDescent="0.3">
@@ -55261,10 +55267,10 @@
         <v>20</v>
       </c>
       <c r="Y681" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z681" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="682" spans="1:26" x14ac:dyDescent="0.3">
@@ -55341,10 +55347,10 @@
         <v>10</v>
       </c>
       <c r="Y682" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z682" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="683" spans="1:26" x14ac:dyDescent="0.3">
@@ -55421,10 +55427,10 @@
         <v>14</v>
       </c>
       <c r="Y683" s="7" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z683" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="684" spans="1:26" x14ac:dyDescent="0.3">
@@ -55501,10 +55507,10 @@
         <v>11</v>
       </c>
       <c r="Y684" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z684" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="Z684" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="685" spans="1:26" x14ac:dyDescent="0.3">
@@ -55581,10 +55587,10 @@
         <v>7</v>
       </c>
       <c r="Y685" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z685" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="686" spans="1:26" x14ac:dyDescent="0.3">
@@ -55661,10 +55667,10 @@
         <v>44</v>
       </c>
       <c r="Y686" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z686" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="687" spans="1:26" x14ac:dyDescent="0.3">
@@ -55741,10 +55747,10 @@
         <v>30</v>
       </c>
       <c r="Y687" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z687" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="Z687" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="688" spans="1:26" x14ac:dyDescent="0.3">
@@ -55821,10 +55827,10 @@
         <v>42</v>
       </c>
       <c r="Y688" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z688" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="Z688" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="689" spans="1:26" x14ac:dyDescent="0.3">
@@ -55901,10 +55907,10 @@
         <v>29</v>
       </c>
       <c r="Y689" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z689" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="Z689" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="690" spans="1:26" x14ac:dyDescent="0.3">
@@ -55981,10 +55987,10 @@
         <v>28</v>
       </c>
       <c r="Y690" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z690" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="691" spans="1:26" x14ac:dyDescent="0.3">
@@ -56061,10 +56067,10 @@
         <v>40</v>
       </c>
       <c r="Y691" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z691" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="692" spans="1:26" x14ac:dyDescent="0.3">
@@ -56141,10 +56147,10 @@
         <v>40</v>
       </c>
       <c r="Y692" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z692" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="693" spans="1:26" x14ac:dyDescent="0.3">
@@ -56221,10 +56227,10 @@
         <v>10</v>
       </c>
       <c r="Y693" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z693" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="694" spans="1:26" x14ac:dyDescent="0.3">
@@ -56301,10 +56307,10 @@
         <v>47</v>
       </c>
       <c r="Y694" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z694" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="695" spans="1:26" x14ac:dyDescent="0.3">
@@ -56381,10 +56387,10 @@
         <v>10</v>
       </c>
       <c r="Y695" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Z695" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="696" spans="1:26" x14ac:dyDescent="0.3">
@@ -56461,10 +56467,10 @@
         <v>16</v>
       </c>
       <c r="Y696" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z696" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="697" spans="1:26" x14ac:dyDescent="0.3">
@@ -56541,10 +56547,10 @@
         <v>14</v>
       </c>
       <c r="Y697" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z697" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="698" spans="1:26" x14ac:dyDescent="0.3">
@@ -56621,10 +56627,10 @@
         <v>19</v>
       </c>
       <c r="Y698" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z698" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="699" spans="1:26" x14ac:dyDescent="0.3">
@@ -56701,10 +56707,10 @@
         <v>17</v>
       </c>
       <c r="Y699" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="Z699" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="700" spans="1:26" x14ac:dyDescent="0.3">
@@ -56781,10 +56787,10 @@
         <v>12</v>
       </c>
       <c r="Y700" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Z700" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="701" spans="1:26" x14ac:dyDescent="0.3">
@@ -56861,10 +56867,10 @@
         <v>1</v>
       </c>
       <c r="Y701" s="12" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Z701" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/master.xlsx
+++ b/data/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meita\Documents\shenkar\jma\web\wip\images\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3638C94B-AF9C-48A0-9F7E-951EE3EA7796}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D450F052-BFB0-4A63-97B9-B22C5DAA2024}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7871DC3D-A5B0-4109-9146-9D25B3AE1BFC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="62">
   <si>
     <t>?</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>lat</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
   <si>
     <t xml:space="preserve"> arab</t>
@@ -767,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB95E723-2DD8-4CC6-A84A-A232C9AEC38A}">
   <dimension ref="A1:Z701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView tabSelected="1" topLeftCell="G76" zoomScale="93" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -947,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>28</v>
@@ -1027,7 +1024,7 @@
         <v>23</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z3" s="5" t="s">
         <v>28</v>
@@ -1107,7 +1104,7 @@
         <v>25</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z4" s="5" t="s">
         <v>29</v>
@@ -1187,7 +1184,7 @@
         <v>17</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z5" s="5" t="s">
         <v>29</v>
@@ -1267,7 +1264,7 @@
         <v>14</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z6" s="5" t="s">
         <v>28</v>
@@ -1347,7 +1344,7 @@
         <v>10</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z7" s="5" t="s">
         <v>29</v>
@@ -1427,7 +1424,7 @@
         <v>10</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z8" s="5" t="s">
         <v>26</v>
@@ -1507,7 +1504,7 @@
         <v>12</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z9" s="5" t="s">
         <v>30</v>
@@ -1587,7 +1584,7 @@
         <v>10</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z10" s="5" t="s">
         <v>31</v>
@@ -1667,7 +1664,7 @@
         <v>15</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z11" s="5" t="s">
         <v>31</v>
@@ -1747,7 +1744,7 @@
         <v>15</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z12" s="5" t="s">
         <v>31</v>
@@ -1827,7 +1824,7 @@
         <v>11</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z13" s="5" t="s">
         <v>29</v>
@@ -1907,7 +1904,7 @@
         <v>11</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z14" s="5" t="s">
         <v>29</v>
@@ -1987,7 +1984,7 @@
         <v>10</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z15" s="5" t="s">
         <v>32</v>
@@ -2067,7 +2064,7 @@
         <v>10</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z16" s="5" t="s">
         <v>33</v>
@@ -2147,7 +2144,7 @@
         <v>11</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z17" s="5" t="s">
         <v>29</v>
@@ -2227,7 +2224,7 @@
         <v>10</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z18" s="5" t="s">
         <v>29</v>
@@ -2307,7 +2304,7 @@
         <v>15</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z19" s="5" t="s">
         <v>29</v>
@@ -2387,7 +2384,7 @@
         <v>12</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z20" s="5" t="s">
         <v>34</v>
@@ -2467,7 +2464,7 @@
         <v>48</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z21" s="5" t="s">
         <v>34</v>
@@ -2547,7 +2544,7 @@
         <v>43</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z22" s="5" t="s">
         <v>31</v>
@@ -2627,7 +2624,7 @@
         <v>47</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z23" s="5" t="s">
         <v>26</v>
@@ -2707,7 +2704,7 @@
         <v>43</v>
       </c>
       <c r="Y24" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z24" s="6" t="s">
         <v>26</v>
@@ -2787,7 +2784,7 @@
         <v>46</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z25" s="7" t="s">
         <v>26</v>
@@ -2867,7 +2864,7 @@
         <v>46</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z26" s="7" t="s">
         <v>26</v>
@@ -2947,7 +2944,7 @@
         <v>46</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z27" s="5" t="s">
         <v>26</v>
@@ -3027,7 +3024,7 @@
         <v>45</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z28" s="5" t="s">
         <v>26</v>
@@ -3107,7 +3104,7 @@
         <v>44</v>
       </c>
       <c r="Y29" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z29" s="5" t="s">
         <v>26</v>
@@ -3187,7 +3184,7 @@
         <v>47</v>
       </c>
       <c r="Y30" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z30" s="7" t="s">
         <v>26</v>
@@ -3267,7 +3264,7 @@
         <v>47</v>
       </c>
       <c r="Y31" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z31" s="5" t="s">
         <v>34</v>
@@ -3347,7 +3344,7 @@
         <v>43</v>
       </c>
       <c r="Y32" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z32" s="5" t="s">
         <v>35</v>
@@ -3427,7 +3424,7 @@
         <v>44</v>
       </c>
       <c r="Y33" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z33" s="5" t="s">
         <v>31</v>
@@ -3507,7 +3504,7 @@
         <v>48</v>
       </c>
       <c r="Y34" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z34" s="5" t="s">
         <v>29</v>
@@ -3587,7 +3584,7 @@
         <v>48</v>
       </c>
       <c r="Y35" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z35" s="5" t="s">
         <v>29</v>
@@ -3667,7 +3664,7 @@
         <v>46</v>
       </c>
       <c r="Y36" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z36" s="5" t="s">
         <v>29</v>
@@ -3747,7 +3744,7 @@
         <v>45</v>
       </c>
       <c r="Y37" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z37" s="5" t="s">
         <v>31</v>
@@ -3827,7 +3824,7 @@
         <v>44</v>
       </c>
       <c r="Y38" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z38" s="5" t="s">
         <v>31</v>
@@ -3907,7 +3904,7 @@
         <v>44</v>
       </c>
       <c r="Y39" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z39" s="5" t="s">
         <v>34</v>
@@ -3987,7 +3984,7 @@
         <v>48</v>
       </c>
       <c r="Y40" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z40" s="5" t="s">
         <v>29</v>
@@ -4067,7 +4064,7 @@
         <v>49</v>
       </c>
       <c r="Y41" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z41" s="5" t="s">
         <v>26</v>
@@ -4147,7 +4144,7 @@
         <v>44</v>
       </c>
       <c r="Y42" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z42" s="5" t="s">
         <v>26</v>
@@ -4227,7 +4224,7 @@
         <v>45</v>
       </c>
       <c r="Y43" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z43" s="5" t="s">
         <v>26</v>
@@ -4307,7 +4304,7 @@
         <v>43</v>
       </c>
       <c r="Y44" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z44" s="5" t="s">
         <v>26</v>
@@ -4387,7 +4384,7 @@
         <v>45</v>
       </c>
       <c r="Y45" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z45" s="5" t="s">
         <v>34</v>
@@ -4467,7 +4464,7 @@
         <v>47</v>
       </c>
       <c r="Y46" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z46" s="5" t="s">
         <v>36</v>
@@ -4547,7 +4544,7 @@
         <v>46</v>
       </c>
       <c r="Y47" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z47" s="5" t="s">
         <v>35</v>
@@ -4627,7 +4624,7 @@
         <v>46</v>
       </c>
       <c r="Y48" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z48" s="5" t="s">
         <v>26</v>
@@ -4707,7 +4704,7 @@
         <v>44</v>
       </c>
       <c r="Y49" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z49" s="5" t="s">
         <v>31</v>
@@ -4787,7 +4784,7 @@
         <v>47</v>
       </c>
       <c r="Y50" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z50" s="5" t="s">
         <v>29</v>
@@ -4867,7 +4864,7 @@
         <v>43</v>
       </c>
       <c r="Y51" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z51" s="5" t="s">
         <v>37</v>
@@ -4947,7 +4944,7 @@
         <v>43</v>
       </c>
       <c r="Y52" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z52" s="5" t="s">
         <v>35</v>
@@ -5027,7 +5024,7 @@
         <v>48</v>
       </c>
       <c r="Y53" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z53" s="5" t="s">
         <v>34</v>
@@ -5107,7 +5104,7 @@
         <v>47</v>
       </c>
       <c r="Y54" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z54" s="5" t="s">
         <v>29</v>
@@ -5187,7 +5184,7 @@
         <v>46</v>
       </c>
       <c r="Y55" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z55" s="5" t="s">
         <v>29</v>
@@ -5267,7 +5264,7 @@
         <v>48</v>
       </c>
       <c r="Y56" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z56" s="5" t="s">
         <v>35</v>
@@ -5347,7 +5344,7 @@
         <v>47</v>
       </c>
       <c r="Y57" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z57" s="5" t="s">
         <v>34</v>
@@ -5427,7 +5424,7 @@
         <v>48</v>
       </c>
       <c r="Y58" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z58" s="5" t="s">
         <v>29</v>
@@ -5507,7 +5504,7 @@
         <v>48</v>
       </c>
       <c r="Y59" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z59" s="5" t="s">
         <v>38</v>
@@ -5587,7 +5584,7 @@
         <v>48</v>
       </c>
       <c r="Y60" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z60" s="5" t="s">
         <v>26</v>
@@ -5667,7 +5664,7 @@
         <v>48</v>
       </c>
       <c r="Y61" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z61" s="5" t="s">
         <v>34</v>
@@ -5747,7 +5744,7 @@
         <v>45</v>
       </c>
       <c r="Y62" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z62" s="5" t="s">
         <v>34</v>
@@ -5827,7 +5824,7 @@
         <v>48</v>
       </c>
       <c r="Y63" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z63" s="5" t="s">
         <v>28</v>
@@ -5907,7 +5904,7 @@
         <v>49</v>
       </c>
       <c r="Y64" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z64" s="5" t="s">
         <v>34</v>
@@ -5987,7 +5984,7 @@
         <v>43</v>
       </c>
       <c r="Y65" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z65" s="5" t="s">
         <v>26</v>
@@ -6067,7 +6064,7 @@
         <v>49</v>
       </c>
       <c r="Y66" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z66" s="5" t="s">
         <v>34</v>
@@ -6147,7 +6144,7 @@
         <v>45</v>
       </c>
       <c r="Y67" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z67" s="5" t="s">
         <v>34</v>
@@ -6227,7 +6224,7 @@
         <v>46</v>
       </c>
       <c r="Y68" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z68" s="5" t="s">
         <v>26</v>
@@ -6307,7 +6304,7 @@
         <v>47</v>
       </c>
       <c r="Y69" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z69" s="5" t="s">
         <v>28</v>
@@ -6387,7 +6384,7 @@
         <v>46</v>
       </c>
       <c r="Y70" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z70" s="5" t="s">
         <v>29</v>
@@ -6467,7 +6464,7 @@
         <v>46</v>
       </c>
       <c r="Y71" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z71" s="5" t="s">
         <v>34</v>
@@ -6547,7 +6544,7 @@
         <v>49</v>
       </c>
       <c r="Y72" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z72" s="5" t="s">
         <v>31</v>
@@ -6627,7 +6624,7 @@
         <v>48</v>
       </c>
       <c r="Y73" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z73" s="5" t="s">
         <v>26</v>
@@ -6707,7 +6704,7 @@
         <v>48</v>
       </c>
       <c r="Y74" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z74" s="5" t="s">
         <v>26</v>
@@ -6787,7 +6784,7 @@
         <v>49</v>
       </c>
       <c r="Y75" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z75" s="5" t="s">
         <v>39</v>
@@ -6867,7 +6864,7 @@
         <v>49</v>
       </c>
       <c r="Y76" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z76" s="5" t="s">
         <v>35</v>
@@ -6947,7 +6944,7 @@
         <v>48</v>
       </c>
       <c r="Y77" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z77" s="5" t="s">
         <v>29</v>
@@ -7027,7 +7024,7 @@
         <v>49</v>
       </c>
       <c r="Y78" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z78" s="5" t="s">
         <v>34</v>
@@ -7107,7 +7104,7 @@
         <v>49</v>
       </c>
       <c r="Y79" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z79" s="5" t="s">
         <v>34</v>
@@ -7187,7 +7184,7 @@
         <v>45</v>
       </c>
       <c r="Y80" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z80" s="5" t="s">
         <v>26</v>
@@ -7267,7 +7264,7 @@
         <v>48</v>
       </c>
       <c r="Y81" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z81" s="5" t="s">
         <v>26</v>
@@ -7347,7 +7344,7 @@
         <v>49</v>
       </c>
       <c r="Y82" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z82" s="5" t="s">
         <v>31</v>
@@ -7427,7 +7424,7 @@
         <v>48</v>
       </c>
       <c r="Y83" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z83" s="5" t="s">
         <v>34</v>
@@ -7507,7 +7504,7 @@
         <v>9</v>
       </c>
       <c r="Y84" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z84" s="5" t="s">
         <v>38</v>
@@ -7587,7 +7584,7 @@
         <v>13</v>
       </c>
       <c r="Y85" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z85" s="5" t="s">
         <v>29</v>
@@ -7615,8 +7612,8 @@
       <c r="G86" s="18">
         <v>0</v>
       </c>
-      <c r="H86" s="18" t="s">
-        <v>54</v>
+      <c r="H86" s="18">
+        <v>-1</v>
       </c>
       <c r="I86" s="19">
         <v>2.9103999999999997E-11</v>
@@ -7667,7 +7664,7 @@
         <v>0</v>
       </c>
       <c r="Y86" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z86" s="5" t="s">
         <v>35</v>
@@ -7747,7 +7744,7 @@
         <v>9</v>
       </c>
       <c r="Y87" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z87" s="5" t="s">
         <v>35</v>
@@ -7827,7 +7824,7 @@
         <v>12</v>
       </c>
       <c r="Y88" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z88" s="5" t="s">
         <v>38</v>
@@ -7907,7 +7904,7 @@
         <v>14</v>
       </c>
       <c r="Y89" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z89" s="5" t="s">
         <v>39</v>
@@ -7987,7 +7984,7 @@
         <v>10</v>
       </c>
       <c r="Y90" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z90" s="5" t="s">
         <v>29</v>
@@ -8067,7 +8064,7 @@
         <v>10</v>
       </c>
       <c r="Y91" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z91" s="5" t="s">
         <v>26</v>
@@ -8147,7 +8144,7 @@
         <v>15</v>
       </c>
       <c r="Y92" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z92" s="5" t="s">
         <v>26</v>
@@ -8227,7 +8224,7 @@
         <v>11</v>
       </c>
       <c r="Y93" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z93" s="5" t="s">
         <v>26</v>
@@ -8307,7 +8304,7 @@
         <v>11</v>
       </c>
       <c r="Y94" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z94" s="5" t="s">
         <v>30</v>
@@ -8387,7 +8384,7 @@
         <v>12</v>
       </c>
       <c r="Y95" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z95" s="5" t="s">
         <v>35</v>
@@ -8467,7 +8464,7 @@
         <v>11</v>
       </c>
       <c r="Y96" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z96" s="5" t="s">
         <v>29</v>
@@ -8547,7 +8544,7 @@
         <v>11</v>
       </c>
       <c r="Y97" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z97" s="5" t="s">
         <v>38</v>
@@ -8627,7 +8624,7 @@
         <v>11</v>
       </c>
       <c r="Y98" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z98" s="5" t="s">
         <v>26</v>
@@ -8707,7 +8704,7 @@
         <v>11</v>
       </c>
       <c r="Y99" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z99" s="5" t="s">
         <v>36</v>
@@ -8787,7 +8784,7 @@
         <v>11</v>
       </c>
       <c r="Y100" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z100" s="5" t="s">
         <v>31</v>
@@ -8867,7 +8864,7 @@
         <v>10</v>
       </c>
       <c r="Y101" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z101" s="5" t="s">
         <v>31</v>
@@ -8947,7 +8944,7 @@
         <v>14</v>
       </c>
       <c r="Y102" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z102" s="5" t="s">
         <v>34</v>
@@ -9027,7 +9024,7 @@
         <v>9</v>
       </c>
       <c r="Y103" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z103" s="5" t="s">
         <v>26</v>
@@ -9107,7 +9104,7 @@
         <v>9</v>
       </c>
       <c r="Y104" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z104" s="5" t="s">
         <v>26</v>
@@ -9187,7 +9184,7 @@
         <v>16</v>
       </c>
       <c r="Y105" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z105" s="5" t="s">
         <v>26</v>
@@ -9267,7 +9264,7 @@
         <v>16</v>
       </c>
       <c r="Y106" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z106" s="5" t="s">
         <v>26</v>
@@ -9347,7 +9344,7 @@
         <v>16</v>
       </c>
       <c r="Y107" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z107" s="5" t="s">
         <v>29</v>
@@ -9427,7 +9424,7 @@
         <v>16</v>
       </c>
       <c r="Y108" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z108" s="5" t="s">
         <v>29</v>
@@ -9507,7 +9504,7 @@
         <v>15</v>
       </c>
       <c r="Y109" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z109" s="5" t="s">
         <v>29</v>
@@ -9587,7 +9584,7 @@
         <v>15</v>
       </c>
       <c r="Y110" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z110" s="5" t="s">
         <v>29</v>
@@ -9667,7 +9664,7 @@
         <v>15</v>
       </c>
       <c r="Y111" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z111" s="5" t="s">
         <v>29</v>
@@ -9747,7 +9744,7 @@
         <v>11</v>
       </c>
       <c r="Y112" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z112" s="5" t="s">
         <v>38</v>
@@ -9827,7 +9824,7 @@
         <v>11</v>
       </c>
       <c r="Y113" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z113" s="5" t="s">
         <v>40</v>
@@ -9907,7 +9904,7 @@
         <v>15</v>
       </c>
       <c r="Y114" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z114" s="5" t="s">
         <v>38</v>
@@ -9987,7 +9984,7 @@
         <v>20</v>
       </c>
       <c r="Y115" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z115" s="5" t="s">
         <v>29</v>
@@ -10067,7 +10064,7 @@
         <v>17</v>
       </c>
       <c r="Y116" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z116" s="5" t="s">
         <v>29</v>
@@ -10147,7 +10144,7 @@
         <v>9</v>
       </c>
       <c r="Y117" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z117" s="5" t="s">
         <v>29</v>
@@ -10227,7 +10224,7 @@
         <v>19</v>
       </c>
       <c r="Y118" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z118" s="5" t="s">
         <v>29</v>
@@ -10307,7 +10304,7 @@
         <v>17</v>
       </c>
       <c r="Y119" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z119" s="5" t="s">
         <v>29</v>
@@ -10359,8 +10356,8 @@
       <c r="O120" s="18">
         <v>1</v>
       </c>
-      <c r="P120" s="12" t="s">
-        <v>54</v>
+      <c r="P120" s="12">
+        <v>-1</v>
       </c>
       <c r="Q120" s="5">
         <v>29</v>
@@ -10387,7 +10384,7 @@
         <v>17</v>
       </c>
       <c r="Y120" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z120" s="5" t="s">
         <v>29</v>
@@ -10467,7 +10464,7 @@
         <v>11</v>
       </c>
       <c r="Y121" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z121" s="5" t="s">
         <v>41</v>
@@ -10547,7 +10544,7 @@
         <v>11</v>
       </c>
       <c r="Y122" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z122" s="5" t="s">
         <v>31</v>
@@ -10627,7 +10624,7 @@
         <v>11</v>
       </c>
       <c r="Y123" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z123" s="5" t="s">
         <v>35</v>
@@ -10707,7 +10704,7 @@
         <v>11</v>
       </c>
       <c r="Y124" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z124" s="5" t="s">
         <v>31</v>
@@ -10787,7 +10784,7 @@
         <v>9</v>
       </c>
       <c r="Y125" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z125" s="5" t="s">
         <v>35</v>
@@ -10867,7 +10864,7 @@
         <v>16</v>
       </c>
       <c r="Y126" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z126" s="5" t="s">
         <v>35</v>
@@ -10947,7 +10944,7 @@
         <v>9</v>
       </c>
       <c r="Y127" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z127" s="5" t="s">
         <v>25</v>
@@ -11027,7 +11024,7 @@
         <v>16</v>
       </c>
       <c r="Y128" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z128" s="5" t="s">
         <v>29</v>
@@ -11107,7 +11104,7 @@
         <v>8</v>
       </c>
       <c r="Y129" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z129" s="5" t="s">
         <v>29</v>
@@ -11187,7 +11184,7 @@
         <v>10</v>
       </c>
       <c r="Y130" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z130" s="5" t="s">
         <v>35</v>
@@ -11267,7 +11264,7 @@
         <v>12</v>
       </c>
       <c r="Y131" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z131" s="5" t="s">
         <v>34</v>
@@ -11347,7 +11344,7 @@
         <v>10</v>
       </c>
       <c r="Y132" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z132" s="5" t="s">
         <v>26</v>
@@ -11427,7 +11424,7 @@
         <v>10</v>
       </c>
       <c r="Y133" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z133" s="5" t="s">
         <v>31</v>
@@ -11507,7 +11504,7 @@
         <v>14</v>
       </c>
       <c r="Y134" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z134" s="5" t="s">
         <v>35</v>
@@ -11587,7 +11584,7 @@
         <v>46</v>
       </c>
       <c r="Y135" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z135" s="6" t="s">
         <v>26</v>
@@ -11667,7 +11664,7 @@
         <v>10</v>
       </c>
       <c r="Y136" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z136" s="7" t="s">
         <v>26</v>
@@ -11747,7 +11744,7 @@
         <v>8</v>
       </c>
       <c r="Y137" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z137" s="7" t="s">
         <v>26</v>
@@ -11827,7 +11824,7 @@
         <v>12</v>
       </c>
       <c r="Y138" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z138" s="5" t="s">
         <v>26</v>
@@ -11907,7 +11904,7 @@
         <v>8</v>
       </c>
       <c r="Y139" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z139" s="5" t="s">
         <v>26</v>
@@ -11987,7 +11984,7 @@
         <v>12</v>
       </c>
       <c r="Y140" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z140" s="5" t="s">
         <v>26</v>
@@ -12067,7 +12064,7 @@
         <v>40</v>
       </c>
       <c r="Y141" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z141" s="7" t="s">
         <v>26</v>
@@ -12147,7 +12144,7 @@
         <v>28</v>
       </c>
       <c r="Y142" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z142" s="5" t="s">
         <v>39</v>
@@ -12227,7 +12224,7 @@
         <v>44</v>
       </c>
       <c r="Y143" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z143" s="5" t="s">
         <v>34</v>
@@ -12307,7 +12304,7 @@
         <v>44</v>
       </c>
       <c r="Y144" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z144" s="5" t="s">
         <v>26</v>
@@ -12387,7 +12384,7 @@
         <v>43</v>
       </c>
       <c r="Y145" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z145" s="5" t="s">
         <v>26</v>
@@ -12467,7 +12464,7 @@
         <v>45</v>
       </c>
       <c r="Y146" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z146" s="5" t="s">
         <v>34</v>
@@ -12547,7 +12544,7 @@
         <v>47</v>
       </c>
       <c r="Y147" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z147" s="5" t="s">
         <v>31</v>
@@ -12627,7 +12624,7 @@
         <v>43</v>
       </c>
       <c r="Y148" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z148" s="6" t="s">
         <v>26</v>
@@ -12707,7 +12704,7 @@
         <v>43</v>
       </c>
       <c r="Y149" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z149" s="7" t="s">
         <v>26</v>
@@ -12787,7 +12784,7 @@
         <v>47</v>
       </c>
       <c r="Y150" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z150" s="7" t="s">
         <v>26</v>
@@ -12867,7 +12864,7 @@
         <v>44</v>
       </c>
       <c r="Y151" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z151" s="5" t="s">
         <v>26</v>
@@ -12947,7 +12944,7 @@
         <v>48</v>
       </c>
       <c r="Y152" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z152" s="5" t="s">
         <v>26</v>
@@ -13027,7 +13024,7 @@
         <v>43</v>
       </c>
       <c r="Y153" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z153" s="5" t="s">
         <v>26</v>
@@ -13107,7 +13104,7 @@
         <v>47</v>
       </c>
       <c r="Y154" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z154" s="7" t="s">
         <v>26</v>
@@ -13187,7 +13184,7 @@
         <v>49</v>
       </c>
       <c r="Y155" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z155" s="5" t="s">
         <v>29</v>
@@ -13267,7 +13264,7 @@
         <v>46</v>
       </c>
       <c r="Y156" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z156" s="5" t="s">
         <v>26</v>
@@ -13347,7 +13344,7 @@
         <v>49</v>
       </c>
       <c r="Y157" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z157" s="5" t="s">
         <v>29</v>
@@ -13427,7 +13424,7 @@
         <v>43</v>
       </c>
       <c r="Y158" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z158" s="5" t="s">
         <v>31</v>
@@ -13507,7 +13504,7 @@
         <v>43</v>
       </c>
       <c r="Y159" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z159" s="5" t="s">
         <v>26</v>
@@ -13587,7 +13584,7 @@
         <v>45</v>
       </c>
       <c r="Y160" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z160" s="5" t="s">
         <v>34</v>
@@ -13667,7 +13664,7 @@
         <v>49</v>
       </c>
       <c r="Y161" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z161" s="5" t="s">
         <v>34</v>
@@ -13747,7 +13744,7 @@
         <v>47</v>
       </c>
       <c r="Y162" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z162" s="5" t="s">
         <v>34</v>
@@ -13827,7 +13824,7 @@
         <v>46</v>
       </c>
       <c r="Y163" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z163" s="5" t="s">
         <v>29</v>
@@ -13907,7 +13904,7 @@
         <v>47</v>
       </c>
       <c r="Y164" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z164" s="5" t="s">
         <v>35</v>
@@ -13987,7 +13984,7 @@
         <v>47</v>
       </c>
       <c r="Y165" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z165" s="5" t="s">
         <v>34</v>
@@ -14067,7 +14064,7 @@
         <v>46</v>
       </c>
       <c r="Y166" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z166" s="5" t="s">
         <v>34</v>
@@ -14147,7 +14144,7 @@
         <v>48</v>
       </c>
       <c r="Y167" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z167" s="5" t="s">
         <v>34</v>
@@ -14227,7 +14224,7 @@
         <v>45</v>
       </c>
       <c r="Y168" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z168" s="5" t="s">
         <v>34</v>
@@ -14307,7 +14304,7 @@
         <v>49</v>
       </c>
       <c r="Y169" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z169" s="5" t="s">
         <v>31</v>
@@ -14387,7 +14384,7 @@
         <v>46</v>
       </c>
       <c r="Y170" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z170" s="5" t="s">
         <v>29</v>
@@ -14467,7 +14464,7 @@
         <v>49</v>
       </c>
       <c r="Y171" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z171" s="5" t="s">
         <v>34</v>
@@ -14547,7 +14544,7 @@
         <v>11</v>
       </c>
       <c r="Y172" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z172" s="5" t="s">
         <v>26</v>
@@ -14627,7 +14624,7 @@
         <v>13</v>
       </c>
       <c r="Y173" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z173" s="5" t="s">
         <v>26</v>
@@ -14707,7 +14704,7 @@
         <v>11</v>
       </c>
       <c r="Y174" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z174" s="5" t="s">
         <v>35</v>
@@ -14787,7 +14784,7 @@
         <v>10</v>
       </c>
       <c r="Y175" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z175" s="5" t="s">
         <v>26</v>
@@ -14867,7 +14864,7 @@
         <v>15</v>
       </c>
       <c r="Y176" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z176" s="5" t="s">
         <v>29</v>
@@ -14947,7 +14944,7 @@
         <v>10</v>
       </c>
       <c r="Y177" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z177" s="5" t="s">
         <v>28</v>
@@ -15027,7 +15024,7 @@
         <v>10</v>
       </c>
       <c r="Y178" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z178" s="5" t="s">
         <v>29</v>
@@ -15107,7 +15104,7 @@
         <v>14</v>
       </c>
       <c r="Y179" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z179" s="5" t="s">
         <v>29</v>
@@ -15187,7 +15184,7 @@
         <v>19</v>
       </c>
       <c r="Y180" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z180" s="5" t="s">
         <v>31</v>
@@ -15267,7 +15264,7 @@
         <v>11</v>
       </c>
       <c r="Y181" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z181" s="5" t="s">
         <v>29</v>
@@ -15347,7 +15344,7 @@
         <v>19</v>
       </c>
       <c r="Y182" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z182" s="5" t="s">
         <v>31</v>
@@ -15427,7 +15424,7 @@
         <v>19</v>
       </c>
       <c r="Y183" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z183" s="5" t="s">
         <v>31</v>
@@ -15507,7 +15504,7 @@
         <v>15</v>
       </c>
       <c r="Y184" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z184" s="5" t="s">
         <v>38</v>
@@ -15587,7 +15584,7 @@
         <v>11</v>
       </c>
       <c r="Y185" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z185" s="5" t="s">
         <v>35</v>
@@ -15667,7 +15664,7 @@
         <v>10</v>
       </c>
       <c r="Y186" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z186" s="5" t="s">
         <v>26</v>
@@ -15747,7 +15744,7 @@
         <v>10</v>
       </c>
       <c r="Y187" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z187" s="5" t="s">
         <v>42</v>
@@ -15827,7 +15824,7 @@
         <v>49</v>
       </c>
       <c r="Y188" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z188" s="5" t="s">
         <v>35</v>
@@ -15907,7 +15904,7 @@
         <v>12</v>
       </c>
       <c r="Y189" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z189" s="5" t="s">
         <v>29</v>
@@ -15987,7 +15984,7 @@
         <v>11</v>
       </c>
       <c r="Y190" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z190" s="5" t="s">
         <v>43</v>
@@ -16067,7 +16064,7 @@
         <v>11</v>
       </c>
       <c r="Y191" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z191" s="5" t="s">
         <v>28</v>
@@ -16147,7 +16144,7 @@
         <v>10</v>
       </c>
       <c r="Y192" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z192" s="5" t="s">
         <v>25</v>
@@ -16227,7 +16224,7 @@
         <v>14</v>
       </c>
       <c r="Y193" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z193" s="5" t="s">
         <v>29</v>
@@ -16307,7 +16304,7 @@
         <v>11</v>
       </c>
       <c r="Y194" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z194" s="5" t="s">
         <v>30</v>
@@ -16387,7 +16384,7 @@
         <v>12</v>
       </c>
       <c r="Y195" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z195" s="5" t="s">
         <v>34</v>
@@ -16467,7 +16464,7 @@
         <v>11</v>
       </c>
       <c r="Y196" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z196" s="5" t="s">
         <v>38</v>
@@ -16547,7 +16544,7 @@
         <v>45</v>
       </c>
       <c r="Y197" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z197" s="5" t="s">
         <v>42</v>
@@ -16627,7 +16624,7 @@
         <v>47</v>
       </c>
       <c r="Y198" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z198" s="5" t="s">
         <v>29</v>
@@ -16707,7 +16704,7 @@
         <v>47</v>
       </c>
       <c r="Y199" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z199" s="5" t="s">
         <v>26</v>
@@ -16787,7 +16784,7 @@
         <v>45</v>
       </c>
       <c r="Y200" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z200" s="5" t="s">
         <v>29</v>
@@ -16867,7 +16864,7 @@
         <v>45</v>
       </c>
       <c r="Y201" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z201" s="5" t="s">
         <v>29</v>
@@ -16947,7 +16944,7 @@
         <v>45</v>
       </c>
       <c r="Y202" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z202" s="5" t="s">
         <v>34</v>
@@ -17027,7 +17024,7 @@
         <v>48</v>
       </c>
       <c r="Y203" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z203" s="5" t="s">
         <v>29</v>
@@ -17107,7 +17104,7 @@
         <v>48</v>
       </c>
       <c r="Y204" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z204" s="5" t="s">
         <v>31</v>
@@ -17187,7 +17184,7 @@
         <v>47</v>
       </c>
       <c r="Y205" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z205" s="5" t="s">
         <v>34</v>
@@ -17267,7 +17264,7 @@
         <v>42</v>
       </c>
       <c r="Y206" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z206" s="5" t="s">
         <v>26</v>
@@ -17347,7 +17344,7 @@
         <v>48</v>
       </c>
       <c r="Y207" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z207" s="5" t="s">
         <v>35</v>
@@ -17427,7 +17424,7 @@
         <v>46</v>
       </c>
       <c r="Y208" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z208" s="5" t="s">
         <v>29</v>
@@ -17507,7 +17504,7 @@
         <v>44</v>
       </c>
       <c r="Y209" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z209" s="5" t="s">
         <v>29</v>
@@ -17587,7 +17584,7 @@
         <v>45</v>
       </c>
       <c r="Y210" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z210" s="5" t="s">
         <v>34</v>
@@ -17667,7 +17664,7 @@
         <v>46</v>
       </c>
       <c r="Y211" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z211" s="5" t="s">
         <v>31</v>
@@ -17747,7 +17744,7 @@
         <v>44</v>
       </c>
       <c r="Y212" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z212" s="5" t="s">
         <v>31</v>
@@ -17827,7 +17824,7 @@
         <v>44</v>
       </c>
       <c r="Y213" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z213" s="5" t="s">
         <v>26</v>
@@ -17907,7 +17904,7 @@
         <v>44</v>
       </c>
       <c r="Y214" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z214" s="5" t="s">
         <v>34</v>
@@ -17987,7 +17984,7 @@
         <v>46</v>
       </c>
       <c r="Y215" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z215" s="5" t="s">
         <v>34</v>
@@ -18067,7 +18064,7 @@
         <v>47</v>
       </c>
       <c r="Y216" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z216" s="5" t="s">
         <v>29</v>
@@ -18147,7 +18144,7 @@
         <v>48</v>
       </c>
       <c r="Y217" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z217" s="5" t="s">
         <v>44</v>
@@ -18227,7 +18224,7 @@
         <v>45</v>
       </c>
       <c r="Y218" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z218" s="5" t="s">
         <v>26</v>
@@ -18307,7 +18304,7 @@
         <v>45</v>
       </c>
       <c r="Y219" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z219" s="5" t="s">
         <v>29</v>
@@ -18387,7 +18384,7 @@
         <v>49</v>
       </c>
       <c r="Y220" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z220" s="5" t="s">
         <v>34</v>
@@ -18467,7 +18464,7 @@
         <v>46</v>
       </c>
       <c r="Y221" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z221" s="5" t="s">
         <v>26</v>
@@ -18547,7 +18544,7 @@
         <v>45</v>
       </c>
       <c r="Y222" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z222" s="5" t="s">
         <v>29</v>
@@ -18627,7 +18624,7 @@
         <v>15</v>
       </c>
       <c r="Y223" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z223" s="5" t="s">
         <v>31</v>
@@ -18707,7 +18704,7 @@
         <v>9</v>
       </c>
       <c r="Y224" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z224" s="5" t="s">
         <v>35</v>
@@ -18787,7 +18784,7 @@
         <v>10</v>
       </c>
       <c r="Y225" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z225" s="5" t="s">
         <v>39</v>
@@ -18867,7 +18864,7 @@
         <v>14</v>
       </c>
       <c r="Y226" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z226" s="5" t="s">
         <v>29</v>
@@ -18947,7 +18944,7 @@
         <v>14</v>
       </c>
       <c r="Y227" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z227" s="5" t="s">
         <v>29</v>
@@ -19027,7 +19024,7 @@
         <v>11</v>
       </c>
       <c r="Y228" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z228" s="5" t="s">
         <v>29</v>
@@ -19107,7 +19104,7 @@
         <v>8</v>
       </c>
       <c r="Y229" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z229" s="5" t="s">
         <v>34</v>
@@ -19187,7 +19184,7 @@
         <v>8</v>
       </c>
       <c r="Y230" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z230" s="5" t="s">
         <v>31</v>
@@ -19267,7 +19264,7 @@
         <v>9</v>
       </c>
       <c r="Y231" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z231" s="5" t="s">
         <v>28</v>
@@ -19347,7 +19344,7 @@
         <v>10</v>
       </c>
       <c r="Y232" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z232" s="5" t="s">
         <v>28</v>
@@ -19427,7 +19424,7 @@
         <v>10</v>
       </c>
       <c r="Y233" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z233" s="5" t="s">
         <v>26</v>
@@ -19507,7 +19504,7 @@
         <v>14</v>
       </c>
       <c r="Y234" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z234" s="5" t="s">
         <v>38</v>
@@ -19587,7 +19584,7 @@
         <v>10</v>
       </c>
       <c r="Y235" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z235" s="5" t="s">
         <v>26</v>
@@ -19667,7 +19664,7 @@
         <v>14</v>
       </c>
       <c r="Y236" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z236" s="5" t="s">
         <v>29</v>
@@ -19747,7 +19744,7 @@
         <v>15</v>
       </c>
       <c r="Y237" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z237" s="5" t="s">
         <v>37</v>
@@ -19827,7 +19824,7 @@
         <v>15</v>
       </c>
       <c r="Y238" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z238" s="5" t="s">
         <v>31</v>
@@ -19907,7 +19904,7 @@
         <v>10</v>
       </c>
       <c r="Y239" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z239" s="5" t="s">
         <v>31</v>
@@ -19987,7 +19984,7 @@
         <v>16</v>
       </c>
       <c r="Y240" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z240" s="5" t="s">
         <v>28</v>
@@ -20067,7 +20064,7 @@
         <v>9</v>
       </c>
       <c r="Y241" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z241" s="5" t="s">
         <v>26</v>
@@ -20147,7 +20144,7 @@
         <v>47</v>
       </c>
       <c r="Y242" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z242" s="5" t="s">
         <v>26</v>
@@ -20227,7 +20224,7 @@
         <v>48</v>
       </c>
       <c r="Y243" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z243" s="5" t="s">
         <v>30</v>
@@ -20307,7 +20304,7 @@
         <v>11</v>
       </c>
       <c r="Y244" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z244" s="5" t="s">
         <v>29</v>
@@ -20387,7 +20384,7 @@
         <v>11</v>
       </c>
       <c r="Y245" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z245" s="5" t="s">
         <v>37</v>
@@ -20467,7 +20464,7 @@
         <v>11</v>
       </c>
       <c r="Y246" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z246" s="5" t="s">
         <v>29</v>
@@ -20547,7 +20544,7 @@
         <v>11</v>
       </c>
       <c r="Y247" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z247" s="5" t="s">
         <v>36</v>
@@ -20627,7 +20624,7 @@
         <v>11</v>
       </c>
       <c r="Y248" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z248" s="5" t="s">
         <v>29</v>
@@ -20707,7 +20704,7 @@
         <v>10</v>
       </c>
       <c r="Y249" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z249" s="5" t="s">
         <v>31</v>
@@ -20787,7 +20784,7 @@
         <v>16</v>
       </c>
       <c r="Y250" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z250" s="5" t="s">
         <v>34</v>
@@ -20867,7 +20864,7 @@
         <v>12</v>
       </c>
       <c r="Y251" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z251" s="5" t="s">
         <v>28</v>
@@ -20947,7 +20944,7 @@
         <v>12</v>
       </c>
       <c r="Y252" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z252" s="5" t="s">
         <v>29</v>
@@ -21027,7 +21024,7 @@
         <v>13</v>
       </c>
       <c r="Y253" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z253" s="5" t="s">
         <v>38</v>
@@ -21107,7 +21104,7 @@
         <v>13</v>
       </c>
       <c r="Y254" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z254" s="5" t="s">
         <v>29</v>
@@ -21187,7 +21184,7 @@
         <v>16</v>
       </c>
       <c r="Y255" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z255" s="5" t="s">
         <v>26</v>
@@ -21267,7 +21264,7 @@
         <v>13</v>
       </c>
       <c r="Y256" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z256" s="5" t="s">
         <v>26</v>
@@ -21347,7 +21344,7 @@
         <v>16</v>
       </c>
       <c r="Y257" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z257" s="5" t="s">
         <v>26</v>
@@ -21427,7 +21424,7 @@
         <v>15</v>
       </c>
       <c r="Y258" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z258" s="5" t="s">
         <v>31</v>
@@ -21507,7 +21504,7 @@
         <v>15</v>
       </c>
       <c r="Y259" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z259" s="5" t="s">
         <v>34</v>
@@ -21587,7 +21584,7 @@
         <v>48</v>
       </c>
       <c r="Y260" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z260" s="5" t="s">
         <v>29</v>
@@ -21667,7 +21664,7 @@
         <v>13</v>
       </c>
       <c r="Y261" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z261" s="5" t="s">
         <v>29</v>
@@ -21747,7 +21744,7 @@
         <v>14</v>
       </c>
       <c r="Y262" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z262" s="5" t="s">
         <v>29</v>
@@ -21827,7 +21824,7 @@
         <v>11</v>
       </c>
       <c r="Y263" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z263" s="5" t="s">
         <v>35</v>
@@ -21907,7 +21904,7 @@
         <v>10</v>
       </c>
       <c r="Y264" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z264" s="5" t="s">
         <v>29</v>
@@ -21987,7 +21984,7 @@
         <v>11</v>
       </c>
       <c r="Y265" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z265" s="5" t="s">
         <v>29</v>
@@ -22067,7 +22064,7 @@
         <v>9</v>
       </c>
       <c r="Y266" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z266" s="5" t="s">
         <v>26</v>
@@ -22147,7 +22144,7 @@
         <v>12</v>
       </c>
       <c r="Y267" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z267" s="5" t="s">
         <v>29</v>
@@ -22227,7 +22224,7 @@
         <v>10</v>
       </c>
       <c r="Y268" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z268" s="5" t="s">
         <v>26</v>
@@ -22307,7 +22304,7 @@
         <v>14</v>
       </c>
       <c r="Y269" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z269" s="5" t="s">
         <v>26</v>
@@ -22387,7 +22384,7 @@
         <v>12</v>
       </c>
       <c r="Y270" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z270" s="5" t="s">
         <v>35</v>
@@ -22467,7 +22464,7 @@
         <v>12</v>
       </c>
       <c r="Y271" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z271" s="5" t="s">
         <v>35</v>
@@ -22547,7 +22544,7 @@
         <v>10</v>
       </c>
       <c r="Y272" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z272" s="5" t="s">
         <v>45</v>
@@ -22627,7 +22624,7 @@
         <v>14</v>
       </c>
       <c r="Y273" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z273" s="5" t="s">
         <v>29</v>
@@ -22707,7 +22704,7 @@
         <v>10</v>
       </c>
       <c r="Y274" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z274" s="5" t="s">
         <v>35</v>
@@ -22787,7 +22784,7 @@
         <v>10</v>
       </c>
       <c r="Y275" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z275" s="5" t="s">
         <v>35</v>
@@ -22867,7 +22864,7 @@
         <v>10</v>
       </c>
       <c r="Y276" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z276" s="5" t="s">
         <v>29</v>
@@ -22947,7 +22944,7 @@
         <v>10</v>
       </c>
       <c r="Y277" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z277" s="5" t="s">
         <v>35</v>
@@ -23027,7 +23024,7 @@
         <v>10</v>
       </c>
       <c r="Y278" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z278" s="5" t="s">
         <v>35</v>
@@ -23107,7 +23104,7 @@
         <v>14</v>
       </c>
       <c r="Y279" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z279" s="5" t="s">
         <v>35</v>
@@ -23187,7 +23184,7 @@
         <v>12</v>
       </c>
       <c r="Y280" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z280" s="5" t="s">
         <v>29</v>
@@ -23267,7 +23264,7 @@
         <v>8</v>
       </c>
       <c r="Y281" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z281" s="5" t="s">
         <v>35</v>
@@ -23347,7 +23344,7 @@
         <v>9</v>
       </c>
       <c r="Y282" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z282" s="5" t="s">
         <v>26</v>
@@ -23427,7 +23424,7 @@
         <v>14</v>
       </c>
       <c r="Y283" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z283" s="5" t="s">
         <v>29</v>
@@ -23507,7 +23504,7 @@
         <v>13</v>
       </c>
       <c r="Y284" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z284" s="5" t="s">
         <v>26</v>
@@ -23587,7 +23584,7 @@
         <v>12</v>
       </c>
       <c r="Y285" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z285" s="5" t="s">
         <v>29</v>
@@ -23667,7 +23664,7 @@
         <v>16</v>
       </c>
       <c r="Y286" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z286" s="5" t="s">
         <v>29</v>
@@ -23747,7 +23744,7 @@
         <v>11</v>
       </c>
       <c r="Y287" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z287" s="5" t="s">
         <v>29</v>
@@ -23827,7 +23824,7 @@
         <v>10</v>
       </c>
       <c r="Y288" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z288" s="5" t="s">
         <v>43</v>
@@ -23907,7 +23904,7 @@
         <v>9</v>
       </c>
       <c r="Y289" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z289" s="5" t="s">
         <v>46</v>
@@ -23987,7 +23984,7 @@
         <v>9</v>
       </c>
       <c r="Y290" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z290" s="5" t="s">
         <v>31</v>
@@ -24067,7 +24064,7 @@
         <v>42</v>
       </c>
       <c r="Y291" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z291" s="5" t="s">
         <v>31</v>
@@ -24147,7 +24144,7 @@
         <v>48</v>
       </c>
       <c r="Y292" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z292" s="5" t="s">
         <v>35</v>
@@ -24227,7 +24224,7 @@
         <v>19</v>
       </c>
       <c r="Y293" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z293" s="5" t="s">
         <v>29</v>
@@ -24307,7 +24304,7 @@
         <v>40</v>
       </c>
       <c r="Y294" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z294" s="5" t="s">
         <v>26</v>
@@ -24387,7 +24384,7 @@
         <v>14</v>
       </c>
       <c r="Y295" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z295" s="5" t="s">
         <v>26</v>
@@ -24467,7 +24464,7 @@
         <v>14</v>
       </c>
       <c r="Y296" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z296" s="5" t="s">
         <v>31</v>
@@ -24547,7 +24544,7 @@
         <v>18</v>
       </c>
       <c r="Y297" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z297" s="5" t="s">
         <v>31</v>
@@ -24627,7 +24624,7 @@
         <v>39</v>
       </c>
       <c r="Y298" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z298" s="5" t="s">
         <v>29</v>
@@ -24707,7 +24704,7 @@
         <v>40</v>
       </c>
       <c r="Y299" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z299" s="5" t="s">
         <v>35</v>
@@ -24787,7 +24784,7 @@
         <v>39</v>
       </c>
       <c r="Y300" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z300" s="5" t="s">
         <v>41</v>
@@ -24867,7 +24864,7 @@
         <v>39</v>
       </c>
       <c r="Y301" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z301" s="5" t="s">
         <v>31</v>
@@ -24947,7 +24944,7 @@
         <v>39</v>
       </c>
       <c r="Y302" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z302" s="5" t="s">
         <v>34</v>
@@ -25027,7 +25024,7 @@
         <v>39</v>
       </c>
       <c r="Y303" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z303" s="5" t="s">
         <v>34</v>
@@ -25107,7 +25104,7 @@
         <v>10</v>
       </c>
       <c r="Y304" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z304" s="5" t="s">
         <v>34</v>
@@ -25187,7 +25184,7 @@
         <v>42</v>
       </c>
       <c r="Y305" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z305" s="5" t="s">
         <v>35</v>
@@ -25267,7 +25264,7 @@
         <v>42</v>
       </c>
       <c r="Y306" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z306" s="5" t="s">
         <v>35</v>
@@ -25347,7 +25344,7 @@
         <v>42</v>
       </c>
       <c r="Y307" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z307" s="5" t="s">
         <v>29</v>
@@ -25427,7 +25424,7 @@
         <v>45</v>
       </c>
       <c r="Y308" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z308" s="5" t="s">
         <v>44</v>
@@ -25507,7 +25504,7 @@
         <v>48</v>
       </c>
       <c r="Y309" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z309" s="5" t="s">
         <v>35</v>
@@ -25587,7 +25584,7 @@
         <v>46</v>
       </c>
       <c r="Y310" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z310" s="5" t="s">
         <v>31</v>
@@ -25667,7 +25664,7 @@
         <v>21</v>
       </c>
       <c r="Y311" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z311" s="5" t="s">
         <v>34</v>
@@ -25747,7 +25744,7 @@
         <v>22</v>
       </c>
       <c r="Y312" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z312" s="5" t="s">
         <v>29</v>
@@ -25827,7 +25824,7 @@
         <v>19</v>
       </c>
       <c r="Y313" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z313" s="5" t="s">
         <v>29</v>
@@ -25907,7 +25904,7 @@
         <v>32</v>
       </c>
       <c r="Y314" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z314" s="5" t="s">
         <v>29</v>
@@ -25987,7 +25984,7 @@
         <v>26</v>
       </c>
       <c r="Y315" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z315" s="5" t="s">
         <v>29</v>
@@ -26067,7 +26064,7 @@
         <v>29</v>
       </c>
       <c r="Y316" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z316" s="5" t="s">
         <v>29</v>
@@ -26147,7 +26144,7 @@
         <v>19</v>
       </c>
       <c r="Y317" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z317" s="5" t="s">
         <v>26</v>
@@ -26227,7 +26224,7 @@
         <v>20</v>
       </c>
       <c r="Y318" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z318" s="5" t="s">
         <v>42</v>
@@ -26307,7 +26304,7 @@
         <v>19</v>
       </c>
       <c r="Y319" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z319" s="5" t="s">
         <v>29</v>
@@ -26387,7 +26384,7 @@
         <v>47</v>
       </c>
       <c r="Y320" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z320" s="5" t="s">
         <v>31</v>
@@ -26467,7 +26464,7 @@
         <v>47</v>
       </c>
       <c r="Y321" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z321" s="5" t="s">
         <v>33</v>
@@ -26547,7 +26544,7 @@
         <v>19</v>
       </c>
       <c r="Y322" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z322" s="5" t="s">
         <v>29</v>
@@ -26627,7 +26624,7 @@
         <v>17</v>
       </c>
       <c r="Y323" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z323" s="5" t="s">
         <v>26</v>
@@ -26707,7 +26704,7 @@
         <v>15</v>
       </c>
       <c r="Y324" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z324" s="5" t="s">
         <v>29</v>
@@ -26787,7 +26784,7 @@
         <v>39</v>
       </c>
       <c r="Y325" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z325" s="5" t="s">
         <v>26</v>
@@ -26867,7 +26864,7 @@
         <v>40</v>
       </c>
       <c r="Y326" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z326" s="5" t="s">
         <v>33</v>
@@ -26947,7 +26944,7 @@
         <v>44</v>
       </c>
       <c r="Y327" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z327" s="5" t="s">
         <v>34</v>
@@ -27027,7 +27024,7 @@
         <v>44</v>
       </c>
       <c r="Y328" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z328" s="5" t="s">
         <v>26</v>
@@ -27107,7 +27104,7 @@
         <v>43</v>
       </c>
       <c r="Y329" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z329" s="5" t="s">
         <v>34</v>
@@ -27187,7 +27184,7 @@
         <v>38</v>
       </c>
       <c r="Y330" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z330" s="5" t="s">
         <v>29</v>
@@ -27267,7 +27264,7 @@
         <v>38</v>
       </c>
       <c r="Y331" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z331" s="5" t="s">
         <v>47</v>
@@ -27347,7 +27344,7 @@
         <v>36</v>
       </c>
       <c r="Y332" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z332" s="5" t="s">
         <v>29</v>
@@ -27427,7 +27424,7 @@
         <v>44</v>
       </c>
       <c r="Y333" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z333" s="5" t="s">
         <v>34</v>
@@ -27507,7 +27504,7 @@
         <v>44</v>
       </c>
       <c r="Y334" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z334" s="5" t="s">
         <v>26</v>
@@ -27587,7 +27584,7 @@
         <v>45</v>
       </c>
       <c r="Y335" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z335" s="5" t="s">
         <v>34</v>
@@ -27667,7 +27664,7 @@
         <v>43</v>
       </c>
       <c r="Y336" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z336" s="5" t="s">
         <v>35</v>
@@ -27747,7 +27744,7 @@
         <v>44</v>
       </c>
       <c r="Y337" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z337" s="5" t="s">
         <v>48</v>
@@ -27827,7 +27824,7 @@
         <v>43</v>
       </c>
       <c r="Y338" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z338" s="5" t="s">
         <v>35</v>
@@ -27907,7 +27904,7 @@
         <v>36</v>
       </c>
       <c r="Y339" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z339" s="5" t="s">
         <v>29</v>
@@ -27987,7 +27984,7 @@
         <v>36</v>
       </c>
       <c r="Y340" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z340" s="5" t="s">
         <v>35</v>
@@ -28067,7 +28064,7 @@
         <v>43</v>
       </c>
       <c r="Y341" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z341" s="5" t="s">
         <v>35</v>
@@ -28147,7 +28144,7 @@
         <v>47</v>
       </c>
       <c r="Y342" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z342" s="5" t="s">
         <v>34</v>
@@ -28227,7 +28224,7 @@
         <v>47</v>
       </c>
       <c r="Y343" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z343" s="5" t="s">
         <v>34</v>
@@ -28307,7 +28304,7 @@
         <v>40</v>
       </c>
       <c r="Y344" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z344" s="5" t="s">
         <v>34</v>
@@ -28387,7 +28384,7 @@
         <v>37</v>
       </c>
       <c r="Y345" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z345" s="5" t="s">
         <v>35</v>
@@ -28467,7 +28464,7 @@
         <v>37</v>
       </c>
       <c r="Y346" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z346" s="5" t="s">
         <v>35</v>
@@ -28547,7 +28544,7 @@
         <v>36</v>
       </c>
       <c r="Y347" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z347" s="5" t="s">
         <v>26</v>
@@ -28627,7 +28624,7 @@
         <v>33</v>
       </c>
       <c r="Y348" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z348" s="5" t="s">
         <v>26</v>
@@ -28707,7 +28704,7 @@
         <v>45</v>
       </c>
       <c r="Y349" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z349" s="5" t="s">
         <v>39</v>
@@ -28787,7 +28784,7 @@
         <v>47</v>
       </c>
       <c r="Y350" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z350" s="5" t="s">
         <v>31</v>
@@ -28867,7 +28864,7 @@
         <v>43</v>
       </c>
       <c r="Y351" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z351" s="5" t="s">
         <v>26</v>
@@ -28947,7 +28944,7 @@
         <v>43</v>
       </c>
       <c r="Y352" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z352" s="5" t="s">
         <v>34</v>
@@ -29027,7 +29024,7 @@
         <v>43</v>
       </c>
       <c r="Y353" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z353" s="5" t="s">
         <v>31</v>
@@ -29107,7 +29104,7 @@
         <v>44</v>
       </c>
       <c r="Y354" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z354" s="5" t="s">
         <v>31</v>
@@ -29187,7 +29184,7 @@
         <v>43</v>
       </c>
       <c r="Y355" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z355" s="5" t="s">
         <v>26</v>
@@ -29267,7 +29264,7 @@
         <v>43</v>
       </c>
       <c r="Y356" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z356" s="5" t="s">
         <v>35</v>
@@ -29347,7 +29344,7 @@
         <v>45</v>
       </c>
       <c r="Y357" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z357" s="5" t="s">
         <v>35</v>
@@ -29427,7 +29424,7 @@
         <v>45</v>
       </c>
       <c r="Y358" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z358" s="5" t="s">
         <v>31</v>
@@ -29507,7 +29504,7 @@
         <v>47</v>
       </c>
       <c r="Y359" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z359" s="5" t="s">
         <v>34</v>
@@ -29587,7 +29584,7 @@
         <v>47</v>
       </c>
       <c r="Y360" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z360" s="5" t="s">
         <v>26</v>
@@ -29667,7 +29664,7 @@
         <v>42</v>
       </c>
       <c r="Y361" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z361" s="5" t="s">
         <v>29</v>
@@ -29747,7 +29744,7 @@
         <v>42</v>
       </c>
       <c r="Y362" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z362" s="5" t="s">
         <v>26</v>
@@ -29827,7 +29824,7 @@
         <v>42</v>
       </c>
       <c r="Y363" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z363" s="5" t="s">
         <v>26</v>
@@ -29907,7 +29904,7 @@
         <v>42</v>
       </c>
       <c r="Y364" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z364" s="5" t="s">
         <v>34</v>
@@ -29987,7 +29984,7 @@
         <v>38</v>
       </c>
       <c r="Y365" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z365" s="5" t="s">
         <v>38</v>
@@ -30067,7 +30064,7 @@
         <v>35</v>
       </c>
       <c r="Y366" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z366" s="5" t="s">
         <v>29</v>
@@ -30147,7 +30144,7 @@
         <v>11</v>
       </c>
       <c r="Y367" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z367" s="5" t="s">
         <v>29</v>
@@ -30227,7 +30224,7 @@
         <v>35</v>
       </c>
       <c r="Y368" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z368" s="5" t="s">
         <v>29</v>
@@ -30307,7 +30304,7 @@
         <v>36</v>
       </c>
       <c r="Y369" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z369" s="5" t="s">
         <v>38</v>
@@ -30387,7 +30384,7 @@
         <v>36</v>
       </c>
       <c r="Y370" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z370" s="5" t="s">
         <v>29</v>
@@ -30467,7 +30464,7 @@
         <v>36</v>
       </c>
       <c r="Y371" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z371" s="5" t="s">
         <v>29</v>
@@ -30547,7 +30544,7 @@
         <v>35</v>
       </c>
       <c r="Y372" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z372" s="5" t="s">
         <v>38</v>
@@ -30627,7 +30624,7 @@
         <v>35</v>
       </c>
       <c r="Y373" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z373" s="5" t="s">
         <v>29</v>
@@ -30707,7 +30704,7 @@
         <v>35</v>
       </c>
       <c r="Y374" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z374" s="5" t="s">
         <v>26</v>
@@ -30787,7 +30784,7 @@
         <v>35</v>
       </c>
       <c r="Y375" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z375" s="5" t="s">
         <v>26</v>
@@ -30867,7 +30864,7 @@
         <v>35</v>
       </c>
       <c r="Y376" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z376" s="5" t="s">
         <v>26</v>
@@ -30947,7 +30944,7 @@
         <v>30</v>
       </c>
       <c r="Y377" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z377" s="5" t="s">
         <v>35</v>
@@ -31027,7 +31024,7 @@
         <v>30</v>
       </c>
       <c r="Y378" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z378" s="5" t="s">
         <v>29</v>
@@ -31107,7 +31104,7 @@
         <v>30</v>
       </c>
       <c r="Y379" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z379" s="5" t="s">
         <v>35</v>
@@ -31187,7 +31184,7 @@
         <v>30</v>
       </c>
       <c r="Y380" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z380" s="5" t="s">
         <v>31</v>
@@ -31267,7 +31264,7 @@
         <v>47</v>
       </c>
       <c r="Y381" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z381" s="5" t="s">
         <v>26</v>
@@ -31347,7 +31344,7 @@
         <v>47</v>
       </c>
       <c r="Y382" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z382" s="5" t="s">
         <v>34</v>
@@ -31427,7 +31424,7 @@
         <v>47</v>
       </c>
       <c r="Y383" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z383" s="5" t="s">
         <v>34</v>
@@ -31507,7 +31504,7 @@
         <v>49</v>
       </c>
       <c r="Y384" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z384" s="5" t="s">
         <v>35</v>
@@ -31587,7 +31584,7 @@
         <v>49</v>
       </c>
       <c r="Y385" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z385" s="5" t="s">
         <v>33</v>
@@ -31667,7 +31664,7 @@
         <v>42</v>
       </c>
       <c r="Y386" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z386" s="5" t="s">
         <v>37</v>
@@ -31747,7 +31744,7 @@
         <v>39</v>
       </c>
       <c r="Y387" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z387" s="5" t="s">
         <v>31</v>
@@ -31827,7 +31824,7 @@
         <v>39</v>
       </c>
       <c r="Y388" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z388" s="5" t="s">
         <v>34</v>
@@ -31907,7 +31904,7 @@
         <v>42</v>
       </c>
       <c r="Y389" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z389" s="5" t="s">
         <v>35</v>
@@ -31987,7 +31984,7 @@
         <v>42</v>
       </c>
       <c r="Y390" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z390" s="5" t="s">
         <v>35</v>
@@ -32067,7 +32064,7 @@
         <v>42</v>
       </c>
       <c r="Y391" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z391" s="5" t="s">
         <v>26</v>
@@ -32147,7 +32144,7 @@
         <v>28</v>
       </c>
       <c r="Y392" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z392" s="5" t="s">
         <v>49</v>
@@ -32227,7 +32224,7 @@
         <v>15</v>
       </c>
       <c r="Y393" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z393" s="5" t="s">
         <v>33</v>
@@ -32307,7 +32304,7 @@
         <v>40</v>
       </c>
       <c r="Y394" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z394" s="5" t="s">
         <v>34</v>
@@ -32387,7 +32384,7 @@
         <v>15</v>
       </c>
       <c r="Y395" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z395" s="5" t="s">
         <v>38</v>
@@ -32467,7 +32464,7 @@
         <v>16</v>
       </c>
       <c r="Y396" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z396" s="5" t="s">
         <v>38</v>
@@ -32547,7 +32544,7 @@
         <v>22</v>
       </c>
       <c r="Y397" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z397" s="5" t="s">
         <v>26</v>
@@ -32627,7 +32624,7 @@
         <v>19</v>
       </c>
       <c r="Y398" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z398" s="5" t="s">
         <v>42</v>
@@ -32707,7 +32704,7 @@
         <v>16</v>
       </c>
       <c r="Y399" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z399" s="5" t="s">
         <v>26</v>
@@ -32787,7 +32784,7 @@
         <v>12</v>
       </c>
       <c r="Y400" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z400" s="5" t="s">
         <v>26</v>
@@ -32867,7 +32864,7 @@
         <v>18</v>
       </c>
       <c r="Y401" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z401" s="5" t="s">
         <v>31</v>
@@ -32947,7 +32944,7 @@
         <v>18</v>
       </c>
       <c r="Y402" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z402" s="5" t="s">
         <v>31</v>
@@ -33027,7 +33024,7 @@
         <v>18</v>
       </c>
       <c r="Y403" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z403" s="5" t="s">
         <v>39</v>
@@ -33107,7 +33104,7 @@
         <v>16</v>
       </c>
       <c r="Y404" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z404" s="5" t="s">
         <v>38</v>
@@ -33187,7 +33184,7 @@
         <v>18</v>
       </c>
       <c r="Y405" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z405" s="5" t="s">
         <v>31</v>
@@ -33267,7 +33264,7 @@
         <v>16</v>
       </c>
       <c r="Y406" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z406" s="5" t="s">
         <v>34</v>
@@ -33347,7 +33344,7 @@
         <v>19</v>
       </c>
       <c r="Y407" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z407" s="5" t="s">
         <v>29</v>
@@ -33427,7 +33424,7 @@
         <v>15</v>
       </c>
       <c r="Y408" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z408" s="5" t="s">
         <v>28</v>
@@ -33507,7 +33504,7 @@
         <v>14</v>
       </c>
       <c r="Y409" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z409" s="5" t="s">
         <v>35</v>
@@ -33587,7 +33584,7 @@
         <v>14</v>
       </c>
       <c r="Y410" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z410" s="5" t="s">
         <v>35</v>
@@ -33667,7 +33664,7 @@
         <v>13</v>
       </c>
       <c r="Y411" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z411" s="5" t="s">
         <v>44</v>
@@ -33747,7 +33744,7 @@
         <v>13</v>
       </c>
       <c r="Y412" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z412" s="5" t="s">
         <v>31</v>
@@ -33827,7 +33824,7 @@
         <v>15</v>
       </c>
       <c r="Y413" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z413" s="5" t="s">
         <v>29</v>
@@ -33907,7 +33904,7 @@
         <v>15</v>
       </c>
       <c r="Y414" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z414" s="5" t="s">
         <v>28</v>
@@ -33987,7 +33984,7 @@
         <v>18</v>
       </c>
       <c r="Y415" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z415" s="5" t="s">
         <v>44</v>
@@ -34067,7 +34064,7 @@
         <v>18</v>
       </c>
       <c r="Y416" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z416" s="5" t="s">
         <v>26</v>
@@ -34147,7 +34144,7 @@
         <v>16</v>
       </c>
       <c r="Y417" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z417" s="5" t="s">
         <v>50</v>
@@ -34227,7 +34224,7 @@
         <v>16</v>
       </c>
       <c r="Y418" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z418" s="5" t="s">
         <v>29</v>
@@ -34307,7 +34304,7 @@
         <v>21</v>
       </c>
       <c r="Y419" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z419" s="5" t="s">
         <v>38</v>
@@ -34387,7 +34384,7 @@
         <v>16</v>
       </c>
       <c r="Y420" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z420" s="5" t="s">
         <v>31</v>
@@ -34467,7 +34464,7 @@
         <v>20</v>
       </c>
       <c r="Y421" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z421" s="5" t="s">
         <v>35</v>
@@ -34547,7 +34544,7 @@
         <v>19</v>
       </c>
       <c r="Y422" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z422" s="5" t="s">
         <v>35</v>
@@ -34627,7 +34624,7 @@
         <v>15</v>
       </c>
       <c r="Y423" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z423" s="5" t="s">
         <v>34</v>
@@ -34707,7 +34704,7 @@
         <v>15</v>
       </c>
       <c r="Y424" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z424" s="5" t="s">
         <v>34</v>
@@ -34787,7 +34784,7 @@
         <v>15</v>
       </c>
       <c r="Y425" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z425" s="5" t="s">
         <v>34</v>
@@ -34867,7 +34864,7 @@
         <v>15</v>
       </c>
       <c r="Y426" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z426" s="5" t="s">
         <v>35</v>
@@ -34947,7 +34944,7 @@
         <v>28</v>
       </c>
       <c r="Y427" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z427" s="5" t="s">
         <v>36</v>
@@ -35027,7 +35024,7 @@
         <v>28</v>
       </c>
       <c r="Y428" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z428" s="5" t="s">
         <v>36</v>
@@ -35107,7 +35104,7 @@
         <v>28</v>
       </c>
       <c r="Y429" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z429" s="5" t="s">
         <v>29</v>
@@ -35187,7 +35184,7 @@
         <v>47</v>
       </c>
       <c r="Y430" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z430" s="5" t="s">
         <v>29</v>
@@ -35267,7 +35264,7 @@
         <v>41</v>
       </c>
       <c r="Y431" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z431" s="5" t="s">
         <v>26</v>
@@ -35347,7 +35344,7 @@
         <v>38</v>
       </c>
       <c r="Y432" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z432" s="5" t="s">
         <v>26</v>
@@ -35427,7 +35424,7 @@
         <v>44</v>
       </c>
       <c r="Y433" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z433" s="5" t="s">
         <v>26</v>
@@ -35507,7 +35504,7 @@
         <v>33</v>
       </c>
       <c r="Y434" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z434" s="5" t="s">
         <v>35</v>
@@ -35587,7 +35584,7 @@
         <v>45</v>
       </c>
       <c r="Y435" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z435" s="5" t="s">
         <v>28</v>
@@ -35667,7 +35664,7 @@
         <v>42</v>
       </c>
       <c r="Y436" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z436" s="5" t="s">
         <v>35</v>
@@ -35747,7 +35744,7 @@
         <v>30</v>
       </c>
       <c r="Y437" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z437" s="5" t="s">
         <v>29</v>
@@ -35827,7 +35824,7 @@
         <v>13</v>
       </c>
       <c r="Y438" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z438" s="5" t="s">
         <v>46</v>
@@ -35907,7 +35904,7 @@
         <v>18</v>
       </c>
       <c r="Y439" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z439" s="5" t="s">
         <v>35</v>
@@ -35987,7 +35984,7 @@
         <v>19</v>
       </c>
       <c r="Y440" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z440" s="5" t="s">
         <v>44</v>
@@ -36067,7 +36064,7 @@
         <v>16</v>
       </c>
       <c r="Y441" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z441" s="5" t="s">
         <v>26</v>
@@ -36147,7 +36144,7 @@
         <v>21</v>
       </c>
       <c r="Y442" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z442" s="5" t="s">
         <v>26</v>
@@ -36227,7 +36224,7 @@
         <v>16</v>
       </c>
       <c r="Y443" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z443" s="5" t="s">
         <v>29</v>
@@ -36307,7 +36304,7 @@
         <v>49</v>
       </c>
       <c r="Y444" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z444" s="5" t="s">
         <v>26</v>
@@ -36387,7 +36384,7 @@
         <v>15</v>
       </c>
       <c r="Y445" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z445" s="5" t="s">
         <v>29</v>
@@ -36467,7 +36464,7 @@
         <v>14</v>
       </c>
       <c r="Y446" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z446" s="5" t="s">
         <v>26</v>
@@ -36547,7 +36544,7 @@
         <v>14</v>
       </c>
       <c r="Y447" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z447" s="5" t="s">
         <v>26</v>
@@ -36627,7 +36624,7 @@
         <v>16</v>
       </c>
       <c r="Y448" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z448" s="5" t="s">
         <v>26</v>
@@ -36707,7 +36704,7 @@
         <v>12</v>
       </c>
       <c r="Y449" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z449" s="5" t="s">
         <v>26</v>
@@ -36787,7 +36784,7 @@
         <v>18</v>
       </c>
       <c r="Y450" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z450" s="5" t="s">
         <v>39</v>
@@ -36867,7 +36864,7 @@
         <v>16</v>
       </c>
       <c r="Y451" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z451" s="5" t="s">
         <v>31</v>
@@ -36947,7 +36944,7 @@
         <v>21</v>
       </c>
       <c r="Y452" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z452" s="5" t="s">
         <v>35</v>
@@ -37027,7 +37024,7 @@
         <v>14</v>
       </c>
       <c r="Y453" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z453" s="5" t="s">
         <v>34</v>
@@ -37107,7 +37104,7 @@
         <v>21</v>
       </c>
       <c r="Y454" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z454" s="5" t="s">
         <v>39</v>
@@ -37187,7 +37184,7 @@
         <v>20</v>
       </c>
       <c r="Y455" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z455" s="5" t="s">
         <v>34</v>
@@ -37267,7 +37264,7 @@
         <v>15</v>
       </c>
       <c r="Y456" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z456" s="5" t="s">
         <v>46</v>
@@ -37347,7 +37344,7 @@
         <v>17</v>
       </c>
       <c r="Y457" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z457" s="5" t="s">
         <v>28</v>
@@ -37427,7 +37424,7 @@
         <v>19</v>
       </c>
       <c r="Y458" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z458" s="5" t="s">
         <v>35</v>
@@ -37507,7 +37504,7 @@
         <v>15</v>
       </c>
       <c r="Y459" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z459" s="5" t="s">
         <v>34</v>
@@ -37587,7 +37584,7 @@
         <v>21</v>
       </c>
       <c r="Y460" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z460" s="6" t="s">
         <v>26</v>
@@ -37667,7 +37664,7 @@
         <v>21</v>
       </c>
       <c r="Y461" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z461" s="7" t="s">
         <v>26</v>
@@ -37747,7 +37744,7 @@
         <v>20</v>
       </c>
       <c r="Y462" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z462" s="7" t="s">
         <v>26</v>
@@ -37827,7 +37824,7 @@
         <v>20</v>
       </c>
       <c r="Y463" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z463" s="5" t="s">
         <v>26</v>
@@ -37907,7 +37904,7 @@
         <v>21</v>
       </c>
       <c r="Y464" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z464" s="5" t="s">
         <v>26</v>
@@ -37987,7 +37984,7 @@
         <v>21</v>
       </c>
       <c r="Y465" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z465" s="5" t="s">
         <v>26</v>
@@ -38067,7 +38064,7 @@
         <v>20</v>
       </c>
       <c r="Y466" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z466" s="7" t="s">
         <v>26</v>
@@ -38147,7 +38144,7 @@
         <v>20</v>
       </c>
       <c r="Y467" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z467" s="5" t="s">
         <v>31</v>
@@ -38227,7 +38224,7 @@
         <v>20</v>
       </c>
       <c r="Y468" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z468" s="5" t="s">
         <v>35</v>
@@ -38307,7 +38304,7 @@
         <v>19</v>
       </c>
       <c r="Y469" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z469" s="5" t="s">
         <v>29</v>
@@ -38387,7 +38384,7 @@
         <v>18</v>
       </c>
       <c r="Y470" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z470" s="5" t="s">
         <v>26</v>
@@ -38467,7 +38464,7 @@
         <v>20</v>
       </c>
       <c r="Y471" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z471" s="5" t="s">
         <v>29</v>
@@ -38547,7 +38544,7 @@
         <v>20</v>
       </c>
       <c r="Y472" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z472" s="5" t="s">
         <v>31</v>
@@ -38627,7 +38624,7 @@
         <v>25</v>
       </c>
       <c r="Y473" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z473" s="5" t="s">
         <v>29</v>
@@ -38707,7 +38704,7 @@
         <v>14</v>
       </c>
       <c r="Y474" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z474" s="6" t="s">
         <v>26</v>
@@ -38787,7 +38784,7 @@
         <v>25</v>
       </c>
       <c r="Y475" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z475" s="7" t="s">
         <v>26</v>
@@ -38867,7 +38864,7 @@
         <v>22</v>
       </c>
       <c r="Y476" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z476" s="7" t="s">
         <v>26</v>
@@ -38947,7 +38944,7 @@
         <v>20</v>
       </c>
       <c r="Y477" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z477" s="5" t="s">
         <v>26</v>
@@ -39027,7 +39024,7 @@
         <v>22</v>
       </c>
       <c r="Y478" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z478" s="5" t="s">
         <v>26</v>
@@ -39107,7 +39104,7 @@
         <v>20</v>
       </c>
       <c r="Y479" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z479" s="5" t="s">
         <v>26</v>
@@ -39187,7 +39184,7 @@
         <v>21</v>
       </c>
       <c r="Y480" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z480" s="7" t="s">
         <v>26</v>
@@ -39267,7 +39264,7 @@
         <v>16</v>
       </c>
       <c r="Y481" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z481" s="5" t="s">
         <v>35</v>
@@ -39347,7 +39344,7 @@
         <v>14</v>
       </c>
       <c r="Y482" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z482" s="5" t="s">
         <v>26</v>
@@ -39427,7 +39424,7 @@
         <v>19</v>
       </c>
       <c r="Y483" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z483" s="5" t="s">
         <v>44</v>
@@ -39507,7 +39504,7 @@
         <v>21</v>
       </c>
       <c r="Y484" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z484" s="5" t="s">
         <v>34</v>
@@ -39587,7 +39584,7 @@
         <v>23</v>
       </c>
       <c r="Y485" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z485" s="5" t="s">
         <v>39</v>
@@ -39667,7 +39664,7 @@
         <v>23</v>
       </c>
       <c r="Y486" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z486" s="5" t="s">
         <v>29</v>
@@ -39747,7 +39744,7 @@
         <v>21</v>
       </c>
       <c r="Y487" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z487" s="5" t="s">
         <v>26</v>
@@ -39827,7 +39824,7 @@
         <v>21</v>
       </c>
       <c r="Y488" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z488" s="5" t="s">
         <v>34</v>
@@ -39907,7 +39904,7 @@
         <v>22</v>
       </c>
       <c r="Y489" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z489" s="5" t="s">
         <v>29</v>
@@ -39987,7 +39984,7 @@
         <v>13</v>
       </c>
       <c r="Y490" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z490" s="5" t="s">
         <v>29</v>
@@ -40067,7 +40064,7 @@
         <v>23</v>
       </c>
       <c r="Y491" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z491" s="5" t="s">
         <v>29</v>
@@ -40147,7 +40144,7 @@
         <v>16</v>
       </c>
       <c r="Y492" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z492" s="5" t="s">
         <v>29</v>
@@ -40227,7 +40224,7 @@
         <v>15</v>
       </c>
       <c r="Y493" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z493" s="5" t="s">
         <v>28</v>
@@ -40307,7 +40304,7 @@
         <v>16</v>
       </c>
       <c r="Y494" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z494" s="5" t="s">
         <v>29</v>
@@ -40387,7 +40384,7 @@
         <v>16</v>
       </c>
       <c r="Y495" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z495" s="5" t="s">
         <v>26</v>
@@ -40467,7 +40464,7 @@
         <v>24</v>
       </c>
       <c r="Y496" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z496" s="5" t="s">
         <v>29</v>
@@ -40547,7 +40544,7 @@
         <v>13</v>
       </c>
       <c r="Y497" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z497" s="5" t="s">
         <v>29</v>
@@ -40627,7 +40624,7 @@
         <v>20</v>
       </c>
       <c r="Y498" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z498" s="5" t="s">
         <v>29</v>
@@ -40707,7 +40704,7 @@
         <v>12</v>
       </c>
       <c r="Y499" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z499" s="5" t="s">
         <v>35</v>
@@ -40787,7 +40784,7 @@
         <v>18</v>
       </c>
       <c r="Y500" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z500" s="5" t="s">
         <v>35</v>
@@ -40867,7 +40864,7 @@
         <v>15</v>
       </c>
       <c r="Y501" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z501" s="5" t="s">
         <v>35</v>
@@ -40947,7 +40944,7 @@
         <v>12</v>
       </c>
       <c r="Y502" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z502" s="5" t="s">
         <v>35</v>
@@ -41027,7 +41024,7 @@
         <v>12</v>
       </c>
       <c r="Y503" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z503" s="5" t="s">
         <v>31</v>
@@ -41107,7 +41104,7 @@
         <v>19</v>
       </c>
       <c r="Y504" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z504" s="5" t="s">
         <v>29</v>
@@ -41187,7 +41184,7 @@
         <v>15</v>
       </c>
       <c r="Y505" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z505" s="5" t="s">
         <v>29</v>
@@ -41267,7 +41264,7 @@
         <v>16</v>
       </c>
       <c r="Y506" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z506" s="5" t="s">
         <v>35</v>
@@ -41347,7 +41344,7 @@
         <v>13</v>
       </c>
       <c r="Y507" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z507" s="5" t="s">
         <v>31</v>
@@ -41427,7 +41424,7 @@
         <v>14</v>
       </c>
       <c r="Y508" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z508" s="5" t="s">
         <v>31</v>
@@ -41507,7 +41504,7 @@
         <v>16</v>
       </c>
       <c r="Y509" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z509" s="5" t="s">
         <v>31</v>
@@ -41587,7 +41584,7 @@
         <v>22</v>
       </c>
       <c r="Y510" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z510" s="5" t="s">
         <v>26</v>
@@ -41667,7 +41664,7 @@
         <v>23</v>
       </c>
       <c r="Y511" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z511" s="5" t="s">
         <v>29</v>
@@ -41747,7 +41744,7 @@
         <v>21</v>
       </c>
       <c r="Y512" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z512" s="5" t="s">
         <v>29</v>
@@ -41827,7 +41824,7 @@
         <v>21</v>
       </c>
       <c r="Y513" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z513" s="5" t="s">
         <v>34</v>
@@ -41855,8 +41852,8 @@
       <c r="G514" s="18">
         <v>0</v>
       </c>
-      <c r="H514" s="18" t="s">
-        <v>54</v>
+      <c r="H514" s="18">
+        <v>-1</v>
       </c>
       <c r="I514" s="12">
         <v>16.398388000000001</v>
@@ -41907,7 +41904,7 @@
         <v>0</v>
       </c>
       <c r="Y514" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z514" s="5" t="s">
         <v>34</v>
@@ -41987,7 +41984,7 @@
         <v>49</v>
       </c>
       <c r="Y515" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z515" s="5" t="s">
         <v>33</v>
@@ -42067,7 +42064,7 @@
         <v>49</v>
       </c>
       <c r="Y516" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z516" s="5" t="s">
         <v>33</v>
@@ -42147,7 +42144,7 @@
         <v>49</v>
       </c>
       <c r="Y517" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z517" s="5" t="s">
         <v>33</v>
@@ -42227,7 +42224,7 @@
         <v>39</v>
       </c>
       <c r="Y518" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z518" s="5" t="s">
         <v>28</v>
@@ -42307,7 +42304,7 @@
         <v>40</v>
       </c>
       <c r="Y519" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z519" s="5" t="s">
         <v>34</v>
@@ -42387,7 +42384,7 @@
         <v>38</v>
       </c>
       <c r="Y520" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z520" s="5" t="s">
         <v>33</v>
@@ -42467,7 +42464,7 @@
         <v>36</v>
       </c>
       <c r="Y521" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z521" s="5" t="s">
         <v>31</v>
@@ -42547,7 +42544,7 @@
         <v>33</v>
       </c>
       <c r="Y522" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z522" s="5" t="s">
         <v>39</v>
@@ -42627,7 +42624,7 @@
         <v>47</v>
       </c>
       <c r="Y523" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z523" s="5" t="s">
         <v>31</v>
@@ -42707,7 +42704,7 @@
         <v>47</v>
       </c>
       <c r="Y524" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z524" s="5" t="s">
         <v>29</v>
@@ -42787,7 +42784,7 @@
         <v>47</v>
       </c>
       <c r="Y525" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z525" s="5" t="s">
         <v>31</v>
@@ -42867,7 +42864,7 @@
         <v>38</v>
       </c>
       <c r="Y526" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z526" s="5" t="s">
         <v>26</v>
@@ -42947,7 +42944,7 @@
         <v>38</v>
       </c>
       <c r="Y527" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z527" s="5" t="s">
         <v>29</v>
@@ -43027,7 +43024,7 @@
         <v>44</v>
       </c>
       <c r="Y528" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z528" s="5" t="s">
         <v>34</v>
@@ -43107,7 +43104,7 @@
         <v>33</v>
       </c>
       <c r="Y529" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z529" s="5" t="s">
         <v>29</v>
@@ -43187,7 +43184,7 @@
         <v>43</v>
       </c>
       <c r="Y530" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z530" s="5" t="s">
         <v>31</v>
@@ -43267,7 +43264,7 @@
         <v>40</v>
       </c>
       <c r="Y531" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z531" s="5" t="s">
         <v>35</v>
@@ -43347,7 +43344,7 @@
         <v>47</v>
       </c>
       <c r="Y532" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z532" s="5" t="s">
         <v>34</v>
@@ -43427,7 +43424,7 @@
         <v>43</v>
       </c>
       <c r="Y533" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z533" s="5" t="s">
         <v>26</v>
@@ -43507,7 +43504,7 @@
         <v>28</v>
       </c>
       <c r="Y534" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z534" s="5" t="s">
         <v>29</v>
@@ -43587,7 +43584,7 @@
         <v>28</v>
       </c>
       <c r="Y535" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z535" s="5" t="s">
         <v>29</v>
@@ -43667,7 +43664,7 @@
         <v>40</v>
       </c>
       <c r="Y536" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z536" s="5" t="s">
         <v>34</v>
@@ -43747,7 +43744,7 @@
         <v>37</v>
       </c>
       <c r="Y537" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z537" s="5" t="s">
         <v>29</v>
@@ -43827,7 +43824,7 @@
         <v>36</v>
       </c>
       <c r="Y538" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z538" s="5" t="s">
         <v>35</v>
@@ -43907,7 +43904,7 @@
         <v>19</v>
       </c>
       <c r="Y539" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z539" s="6" t="s">
         <v>26</v>
@@ -43987,7 +43984,7 @@
         <v>49</v>
       </c>
       <c r="Y540" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z540" s="7" t="s">
         <v>26</v>
@@ -44067,7 +44064,7 @@
         <v>47</v>
       </c>
       <c r="Y541" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z541" s="7" t="s">
         <v>26</v>
@@ -44147,7 +44144,7 @@
         <v>47</v>
       </c>
       <c r="Y542" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z542" s="5" t="s">
         <v>26</v>
@@ -44227,7 +44224,7 @@
         <v>41</v>
       </c>
       <c r="Y543" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z543" s="5" t="s">
         <v>26</v>
@@ -44307,7 +44304,7 @@
         <v>40</v>
       </c>
       <c r="Y544" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z544" s="5" t="s">
         <v>26</v>
@@ -44387,7 +44384,7 @@
         <v>40</v>
       </c>
       <c r="Y545" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z545" s="7" t="s">
         <v>26</v>
@@ -44467,7 +44464,7 @@
         <v>46</v>
       </c>
       <c r="Y546" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z546" s="5" t="s">
         <v>34</v>
@@ -44547,7 +44544,7 @@
         <v>47</v>
       </c>
       <c r="Y547" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z547" s="5" t="s">
         <v>31</v>
@@ -44627,7 +44624,7 @@
         <v>39</v>
       </c>
       <c r="Y548" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z548" s="5" t="s">
         <v>29</v>
@@ -44707,7 +44704,7 @@
         <v>39</v>
       </c>
       <c r="Y549" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z549" s="5" t="s">
         <v>29</v>
@@ -44787,7 +44784,7 @@
         <v>44</v>
       </c>
       <c r="Y550" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z550" s="5" t="s">
         <v>34</v>
@@ -44867,7 +44864,7 @@
         <v>45</v>
       </c>
       <c r="Y551" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z551" s="5" t="s">
         <v>34</v>
@@ -44947,7 +44944,7 @@
         <v>44</v>
       </c>
       <c r="Y552" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z552" s="5" t="s">
         <v>29</v>
@@ -45027,7 +45024,7 @@
         <v>30</v>
       </c>
       <c r="Y553" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z553" s="5" t="s">
         <v>35</v>
@@ -45107,7 +45104,7 @@
         <v>37</v>
       </c>
       <c r="Y554" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z554" s="5" t="s">
         <v>29</v>
@@ -45187,7 +45184,7 @@
         <v>36</v>
       </c>
       <c r="Y555" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z555" s="5" t="s">
         <v>39</v>
@@ -45267,7 +45264,7 @@
         <v>42</v>
       </c>
       <c r="Y556" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z556" s="5" t="s">
         <v>26</v>
@@ -45347,7 +45344,7 @@
         <v>29</v>
       </c>
       <c r="Y557" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z557" s="5" t="s">
         <v>29</v>
@@ -45427,7 +45424,7 @@
         <v>29</v>
       </c>
       <c r="Y558" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z558" s="5" t="s">
         <v>34</v>
@@ -45507,7 +45504,7 @@
         <v>38</v>
       </c>
       <c r="Y559" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z559" s="5" t="s">
         <v>29</v>
@@ -45587,7 +45584,7 @@
         <v>28</v>
       </c>
       <c r="Y560" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z560" s="5" t="s">
         <v>33</v>
@@ -45667,7 +45664,7 @@
         <v>41</v>
       </c>
       <c r="Y561" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z561" s="5" t="s">
         <v>25</v>
@@ -45747,7 +45744,7 @@
         <v>45</v>
       </c>
       <c r="Y562" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z562" s="5" t="s">
         <v>34</v>
@@ -45827,7 +45824,7 @@
         <v>43</v>
       </c>
       <c r="Y563" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z563" s="5" t="s">
         <v>29</v>
@@ -45907,7 +45904,7 @@
         <v>43</v>
       </c>
       <c r="Y564" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z564" s="5" t="s">
         <v>26</v>
@@ -45987,7 +45984,7 @@
         <v>49</v>
       </c>
       <c r="Y565" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z565" s="5" t="s">
         <v>29</v>
@@ -46067,7 +46064,7 @@
         <v>49</v>
       </c>
       <c r="Y566" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z566" s="5" t="s">
         <v>35</v>
@@ -46147,7 +46144,7 @@
         <v>49</v>
       </c>
       <c r="Y567" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z567" s="5" t="s">
         <v>34</v>
@@ -46227,7 +46224,7 @@
         <v>42</v>
       </c>
       <c r="Y568" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z568" s="5" t="s">
         <v>34</v>
@@ -46307,7 +46304,7 @@
         <v>39</v>
       </c>
       <c r="Y569" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z569" s="5" t="s">
         <v>29</v>
@@ -46387,7 +46384,7 @@
         <v>42</v>
       </c>
       <c r="Y570" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z570" s="5" t="s">
         <v>35</v>
@@ -46467,7 +46464,7 @@
         <v>38</v>
       </c>
       <c r="Y571" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z571" s="5" t="s">
         <v>34</v>
@@ -46547,7 +46544,7 @@
         <v>38</v>
       </c>
       <c r="Y572" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z572" s="5" t="s">
         <v>34</v>
@@ -46627,7 +46624,7 @@
         <v>30</v>
       </c>
       <c r="Y573" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z573" s="5" t="s">
         <v>38</v>
@@ -46707,7 +46704,7 @@
         <v>30</v>
       </c>
       <c r="Y574" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z574" s="5" t="s">
         <v>38</v>
@@ -46787,7 +46784,7 @@
         <v>30</v>
       </c>
       <c r="Y575" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z575" s="5" t="s">
         <v>38</v>
@@ -46867,7 +46864,7 @@
         <v>36</v>
       </c>
       <c r="Y576" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z576" s="5" t="s">
         <v>34</v>
@@ -46947,7 +46944,7 @@
         <v>28</v>
       </c>
       <c r="Y577" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z577" s="5" t="s">
         <v>26</v>
@@ -47027,7 +47024,7 @@
         <v>20</v>
       </c>
       <c r="Y578" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z578" s="5" t="s">
         <v>31</v>
@@ -47107,7 +47104,7 @@
         <v>41</v>
       </c>
       <c r="Y579" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z579" s="5" t="s">
         <v>44</v>
@@ -47187,7 +47184,7 @@
         <v>30</v>
       </c>
       <c r="Y580" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z580" s="5" t="s">
         <v>26</v>
@@ -47267,7 +47264,7 @@
         <v>20</v>
       </c>
       <c r="Y581" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z581" s="5" t="s">
         <v>29</v>
@@ -47347,7 +47344,7 @@
         <v>43</v>
       </c>
       <c r="Y582" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z582" s="5" t="s">
         <v>38</v>
@@ -47427,7 +47424,7 @@
         <v>43</v>
       </c>
       <c r="Y583" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z583" s="5" t="s">
         <v>38</v>
@@ -47507,7 +47504,7 @@
         <v>43</v>
       </c>
       <c r="Y584" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z584" s="5" t="s">
         <v>31</v>
@@ -47587,7 +47584,7 @@
         <v>31</v>
       </c>
       <c r="Y585" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z585" s="9" t="s">
         <v>26</v>
@@ -47667,7 +47664,7 @@
         <v>31</v>
       </c>
       <c r="Y586" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z586" s="5" t="s">
         <v>28</v>
@@ -47747,7 +47744,7 @@
         <v>29</v>
       </c>
       <c r="Y587" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z587" s="5" t="s">
         <v>28</v>
@@ -47827,7 +47824,7 @@
         <v>32</v>
       </c>
       <c r="Y588" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z588" s="5" t="s">
         <v>28</v>
@@ -47907,7 +47904,7 @@
         <v>31</v>
       </c>
       <c r="Y589" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z589" s="5" t="s">
         <v>29</v>
@@ -47987,7 +47984,7 @@
         <v>31</v>
       </c>
       <c r="Y590" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z590" s="5" t="s">
         <v>29</v>
@@ -48067,7 +48064,7 @@
         <v>19</v>
       </c>
       <c r="Y591" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z591" s="5" t="s">
         <v>28</v>
@@ -48147,7 +48144,7 @@
         <v>20</v>
       </c>
       <c r="Y592" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z592" s="5" t="s">
         <v>26</v>
@@ -48227,7 +48224,7 @@
         <v>18</v>
       </c>
       <c r="Y593" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z593" s="5" t="s">
         <v>28</v>
@@ -48307,7 +48304,7 @@
         <v>44</v>
       </c>
       <c r="Y594" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z594" s="5" t="s">
         <v>34</v>
@@ -48387,7 +48384,7 @@
         <v>43</v>
       </c>
       <c r="Y595" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z595" s="5" t="s">
         <v>30</v>
@@ -48467,7 +48464,7 @@
         <v>38</v>
       </c>
       <c r="Y596" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z596" s="5" t="s">
         <v>36</v>
@@ -48547,7 +48544,7 @@
         <v>38</v>
       </c>
       <c r="Y597" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z597" s="5" t="s">
         <v>30</v>
@@ -48627,7 +48624,7 @@
         <v>38</v>
       </c>
       <c r="Y598" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z598" s="5" t="s">
         <v>33</v>
@@ -48707,7 +48704,7 @@
         <v>43</v>
       </c>
       <c r="Y599" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z599" s="5" t="s">
         <v>26</v>
@@ -48787,7 +48784,7 @@
         <v>38</v>
       </c>
       <c r="Y600" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z600" s="5" t="s">
         <v>26</v>
@@ -48867,7 +48864,7 @@
         <v>38</v>
       </c>
       <c r="Y601" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z601" s="5" t="s">
         <v>26</v>
@@ -48947,7 +48944,7 @@
         <v>43</v>
       </c>
       <c r="Y602" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z602" s="5" t="s">
         <v>34</v>
@@ -49027,7 +49024,7 @@
         <v>43</v>
       </c>
       <c r="Y603" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z603" s="5" t="s">
         <v>35</v>
@@ -49107,7 +49104,7 @@
         <v>42</v>
       </c>
       <c r="Y604" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z604" s="5" t="s">
         <v>26</v>
@@ -49187,7 +49184,7 @@
         <v>30</v>
       </c>
       <c r="Y605" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z605" s="5" t="s">
         <v>29</v>
@@ -49267,7 +49264,7 @@
         <v>30</v>
       </c>
       <c r="Y606" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z606" s="5" t="s">
         <v>29</v>
@@ -49347,7 +49344,7 @@
         <v>44</v>
       </c>
       <c r="Y607" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z607" s="5" t="s">
         <v>35</v>
@@ -49427,7 +49424,7 @@
         <v>43</v>
       </c>
       <c r="Y608" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z608" s="5" t="s">
         <v>31</v>
@@ -49507,7 +49504,7 @@
         <v>45</v>
       </c>
       <c r="Y609" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z609" s="5" t="s">
         <v>31</v>
@@ -49587,7 +49584,7 @@
         <v>40</v>
       </c>
       <c r="Y610" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z610" s="5" t="s">
         <v>35</v>
@@ -49667,7 +49664,7 @@
         <v>40</v>
       </c>
       <c r="Y611" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z611" s="5" t="s">
         <v>35</v>
@@ -49747,7 +49744,7 @@
         <v>40</v>
       </c>
       <c r="Y612" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z612" s="5" t="s">
         <v>35</v>
@@ -49827,7 +49824,7 @@
         <v>40</v>
       </c>
       <c r="Y613" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z613" s="5" t="s">
         <v>31</v>
@@ -49907,7 +49904,7 @@
         <v>45</v>
       </c>
       <c r="Y614" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z614" s="5" t="s">
         <v>34</v>
@@ -49987,7 +49984,7 @@
         <v>45</v>
       </c>
       <c r="Y615" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z615" s="5" t="s">
         <v>31</v>
@@ -50067,7 +50064,7 @@
         <v>32</v>
       </c>
       <c r="Y616" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z616" s="5" t="s">
         <v>29</v>
@@ -50147,7 +50144,7 @@
         <v>44</v>
       </c>
       <c r="Y617" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z617" s="5" t="s">
         <v>34</v>
@@ -50227,7 +50224,7 @@
         <v>3</v>
       </c>
       <c r="Y618" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z618" s="5" t="s">
         <v>34</v>
@@ -50307,7 +50304,7 @@
         <v>18</v>
       </c>
       <c r="Y619" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z619" s="5" t="s">
         <v>31</v>
@@ -50387,7 +50384,7 @@
         <v>21</v>
       </c>
       <c r="Y620" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z620" s="5" t="s">
         <v>46</v>
@@ -50467,7 +50464,7 @@
         <v>12</v>
       </c>
       <c r="Y621" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z621" s="5" t="s">
         <v>29</v>
@@ -50547,7 +50544,7 @@
         <v>17</v>
       </c>
       <c r="Y622" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z622" s="5" t="s">
         <v>26</v>
@@ -50627,7 +50624,7 @@
         <v>17</v>
       </c>
       <c r="Y623" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z623" s="5" t="s">
         <v>51</v>
@@ -50707,7 +50704,7 @@
         <v>8</v>
       </c>
       <c r="Y624" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z624" s="5" t="s">
         <v>29</v>
@@ -50787,7 +50784,7 @@
         <v>13</v>
       </c>
       <c r="Y625" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z625" s="5" t="s">
         <v>29</v>
@@ -50867,7 +50864,7 @@
         <v>15</v>
       </c>
       <c r="Y626" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z626" s="5" t="s">
         <v>34</v>
@@ -50947,7 +50944,7 @@
         <v>22</v>
       </c>
       <c r="Y627" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z627" s="5" t="s">
         <v>28</v>
@@ -51027,7 +51024,7 @@
         <v>20</v>
       </c>
       <c r="Y628" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z628" s="5" t="s">
         <v>31</v>
@@ -51107,7 +51104,7 @@
         <v>20</v>
       </c>
       <c r="Y629" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z629" s="5" t="s">
         <v>29</v>
@@ -51187,7 +51184,7 @@
         <v>7</v>
       </c>
       <c r="Y630" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z630" s="5" t="s">
         <v>31</v>
@@ -51267,7 +51264,7 @@
         <v>11</v>
       </c>
       <c r="Y631" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z631" s="5" t="s">
         <v>28</v>
@@ -51347,7 +51344,7 @@
         <v>11</v>
       </c>
       <c r="Y632" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z632" s="5" t="s">
         <v>28</v>
@@ -51427,7 +51424,7 @@
         <v>18</v>
       </c>
       <c r="Y633" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z633" s="5" t="s">
         <v>31</v>
@@ -51507,7 +51504,7 @@
         <v>14</v>
       </c>
       <c r="Y634" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z634" s="5" t="s">
         <v>52</v>
@@ -51587,7 +51584,7 @@
         <v>14</v>
       </c>
       <c r="Y635" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z635" s="5" t="s">
         <v>42</v>
@@ -51667,7 +51664,7 @@
         <v>12</v>
       </c>
       <c r="Y636" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z636" s="5" t="s">
         <v>31</v>
@@ -51747,7 +51744,7 @@
         <v>14</v>
       </c>
       <c r="Y637" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z637" s="5" t="s">
         <v>31</v>
@@ -51827,7 +51824,7 @@
         <v>16</v>
       </c>
       <c r="Y638" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z638" s="5" t="s">
         <v>39</v>
@@ -51907,7 +51904,7 @@
         <v>17</v>
       </c>
       <c r="Y639" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z639" s="5" t="s">
         <v>35</v>
@@ -51987,7 +51984,7 @@
         <v>17</v>
       </c>
       <c r="Y640" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z640" s="5" t="s">
         <v>29</v>
@@ -52067,7 +52064,7 @@
         <v>14</v>
       </c>
       <c r="Y641" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z641" s="5" t="s">
         <v>26</v>
@@ -52147,7 +52144,7 @@
         <v>13</v>
       </c>
       <c r="Y642" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z642" s="5" t="s">
         <v>35</v>
@@ -52227,7 +52224,7 @@
         <v>13</v>
       </c>
       <c r="Y643" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z643" s="5" t="s">
         <v>26</v>
@@ -52307,7 +52304,7 @@
         <v>24</v>
       </c>
       <c r="Y644" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z644" s="5" t="s">
         <v>29</v>
@@ -52387,7 +52384,7 @@
         <v>11</v>
       </c>
       <c r="Y645" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z645" s="5" t="s">
         <v>33</v>
@@ -52467,7 +52464,7 @@
         <v>16</v>
       </c>
       <c r="Y646" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z646" s="5" t="s">
         <v>35</v>
@@ -52547,7 +52544,7 @@
         <v>12</v>
       </c>
       <c r="Y647" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z647" s="5" t="s">
         <v>28</v>
@@ -52627,7 +52624,7 @@
         <v>10</v>
       </c>
       <c r="Y648" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z648" s="5" t="s">
         <v>26</v>
@@ -52707,7 +52704,7 @@
         <v>16</v>
       </c>
       <c r="Y649" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z649" s="5" t="s">
         <v>28</v>
@@ -52787,7 +52784,7 @@
         <v>13</v>
       </c>
       <c r="Y650" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z650" s="5" t="s">
         <v>31</v>
@@ -52867,7 +52864,7 @@
         <v>15</v>
       </c>
       <c r="Y651" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z651" s="5" t="s">
         <v>31</v>
@@ -52947,7 +52944,7 @@
         <v>15</v>
       </c>
       <c r="Y652" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z652" s="5" t="s">
         <v>29</v>
@@ -53027,7 +53024,7 @@
         <v>18</v>
       </c>
       <c r="Y653" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z653" s="5" t="s">
         <v>26</v>
@@ -53107,7 +53104,7 @@
         <v>17</v>
       </c>
       <c r="Y654" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z654" s="5" t="s">
         <v>29</v>
@@ -53187,7 +53184,7 @@
         <v>14</v>
       </c>
       <c r="Y655" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z655" s="5" t="s">
         <v>31</v>
@@ -53267,7 +53264,7 @@
         <v>17</v>
       </c>
       <c r="Y656" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z656" s="5" t="s">
         <v>26</v>
@@ -53347,7 +53344,7 @@
         <v>16</v>
       </c>
       <c r="Y657" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z657" s="5" t="s">
         <v>29</v>
@@ -53427,7 +53424,7 @@
         <v>15</v>
       </c>
       <c r="Y658" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z658" s="5" t="s">
         <v>34</v>
@@ -53507,7 +53504,7 @@
         <v>16</v>
       </c>
       <c r="Y659" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z659" s="5" t="s">
         <v>29</v>
@@ -53587,7 +53584,7 @@
         <v>13</v>
       </c>
       <c r="Y660" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z660" s="5" t="s">
         <v>28</v>
@@ -53667,7 +53664,7 @@
         <v>17</v>
       </c>
       <c r="Y661" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z661" s="5" t="s">
         <v>31</v>
@@ -53747,7 +53744,7 @@
         <v>12</v>
       </c>
       <c r="Y662" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z662" s="5" t="s">
         <v>29</v>
@@ -53827,7 +53824,7 @@
         <v>11</v>
       </c>
       <c r="Y663" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z663" s="5" t="s">
         <v>31</v>
@@ -53907,7 +53904,7 @@
         <v>10</v>
       </c>
       <c r="Y664" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z664" s="5" t="s">
         <v>42</v>
@@ -53987,7 +53984,7 @@
         <v>10</v>
       </c>
       <c r="Y665" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z665" s="5" t="s">
         <v>29</v>
@@ -54067,7 +54064,7 @@
         <v>17</v>
       </c>
       <c r="Y666" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z666" s="5" t="s">
         <v>29</v>
@@ -54147,7 +54144,7 @@
         <v>17</v>
       </c>
       <c r="Y667" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z667" s="5" t="s">
         <v>29</v>
@@ -54227,7 +54224,7 @@
         <v>12</v>
       </c>
       <c r="Y668" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z668" s="5" t="s">
         <v>29</v>
@@ -54307,7 +54304,7 @@
         <v>17</v>
       </c>
       <c r="Y669" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z669" s="5" t="s">
         <v>29</v>
@@ -54387,7 +54384,7 @@
         <v>18</v>
       </c>
       <c r="Y670" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z670" s="5" t="s">
         <v>35</v>
@@ -54467,7 +54464,7 @@
         <v>12</v>
       </c>
       <c r="Y671" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z671" s="5" t="s">
         <v>35</v>
@@ -54547,7 +54544,7 @@
         <v>16</v>
       </c>
       <c r="Y672" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z672" s="5" t="s">
         <v>35</v>
@@ -54627,7 +54624,7 @@
         <v>15</v>
       </c>
       <c r="Y673" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z673" s="5" t="s">
         <v>31</v>
@@ -54707,7 +54704,7 @@
         <v>16</v>
       </c>
       <c r="Y674" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z674" s="5" t="s">
         <v>35</v>
@@ -54787,7 +54784,7 @@
         <v>16</v>
       </c>
       <c r="Y675" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z675" s="5" t="s">
         <v>36</v>
@@ -54867,7 +54864,7 @@
         <v>16</v>
       </c>
       <c r="Y676" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z676" s="5" t="s">
         <v>34</v>
@@ -54947,7 +54944,7 @@
         <v>16</v>
       </c>
       <c r="Y677" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z677" s="5" t="s">
         <v>46</v>
@@ -55027,7 +55024,7 @@
         <v>15</v>
       </c>
       <c r="Y678" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z678" s="5" t="s">
         <v>29</v>
@@ -55107,7 +55104,7 @@
         <v>10</v>
       </c>
       <c r="Y679" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z679" s="5" t="s">
         <v>26</v>
@@ -55187,7 +55184,7 @@
         <v>24</v>
       </c>
       <c r="Y680" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z680" s="5" t="s">
         <v>29</v>
@@ -55267,7 +55264,7 @@
         <v>20</v>
       </c>
       <c r="Y681" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z681" s="5" t="s">
         <v>29</v>
@@ -55347,7 +55344,7 @@
         <v>10</v>
       </c>
       <c r="Y682" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z682" s="5" t="s">
         <v>29</v>
@@ -55427,7 +55424,7 @@
         <v>14</v>
       </c>
       <c r="Y683" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z683" s="6" t="s">
         <v>26</v>
@@ -55507,7 +55504,7 @@
         <v>11</v>
       </c>
       <c r="Y684" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z684" s="7" t="s">
         <v>26</v>
@@ -55587,7 +55584,7 @@
         <v>7</v>
       </c>
       <c r="Y685" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z685" s="7" t="s">
         <v>26</v>
@@ -55667,7 +55664,7 @@
         <v>44</v>
       </c>
       <c r="Y686" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z686" s="5" t="s">
         <v>26</v>
@@ -55747,7 +55744,7 @@
         <v>30</v>
       </c>
       <c r="Y687" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z687" s="5" t="s">
         <v>26</v>
@@ -55827,7 +55824,7 @@
         <v>42</v>
       </c>
       <c r="Y688" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z688" s="5" t="s">
         <v>26</v>
@@ -55907,7 +55904,7 @@
         <v>29</v>
       </c>
       <c r="Y689" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z689" s="7" t="s">
         <v>26</v>
@@ -55987,7 +55984,7 @@
         <v>28</v>
       </c>
       <c r="Y690" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z690" s="5" t="s">
         <v>29</v>
@@ -56067,7 +56064,7 @@
         <v>40</v>
       </c>
       <c r="Y691" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z691" s="5" t="s">
         <v>37</v>
@@ -56147,7 +56144,7 @@
         <v>40</v>
       </c>
       <c r="Y692" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z692" s="5" t="s">
         <v>28</v>
@@ -56227,7 +56224,7 @@
         <v>10</v>
       </c>
       <c r="Y693" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z693" s="5" t="s">
         <v>46</v>
@@ -56307,7 +56304,7 @@
         <v>47</v>
       </c>
       <c r="Y694" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z694" s="5" t="s">
         <v>31</v>
@@ -56387,7 +56384,7 @@
         <v>10</v>
       </c>
       <c r="Y695" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z695" s="5" t="s">
         <v>38</v>
@@ -56467,7 +56464,7 @@
         <v>16</v>
       </c>
       <c r="Y696" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z696" s="5" t="s">
         <v>35</v>
@@ -56547,7 +56544,7 @@
         <v>14</v>
       </c>
       <c r="Y697" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z697" s="5" t="s">
         <v>29</v>
@@ -56627,7 +56624,7 @@
         <v>19</v>
       </c>
       <c r="Y698" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z698" s="5" t="s">
         <v>29</v>
@@ -56707,7 +56704,7 @@
         <v>17</v>
       </c>
       <c r="Y699" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z699" s="5" t="s">
         <v>26</v>
@@ -56787,7 +56784,7 @@
         <v>12</v>
       </c>
       <c r="Y700" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z700" s="5" t="s">
         <v>34</v>
@@ -56867,7 +56864,7 @@
         <v>1</v>
       </c>
       <c r="Y701" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z701" s="5" t="s">
         <v>35</v>
